--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C690D5-9964-431A-A312-74F089CAE7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B6AF5E-A290-47AB-97AF-82012302C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B6AF5E-A290-47AB-97AF-82012302C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C82970-1A7D-4438-9BDF-55D08090D097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C82970-1A7D-4438-9BDF-55D08090D097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9E41E-541C-4E16-BFD8-6B76D34AE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9E41E-541C-4E16-BFD8-6B76D34AE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD08E10-65D8-4F68-BA8B-C5F375B83C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>bioenergy</t>
   </si>
@@ -329,16 +329,19 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
+    <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
     <t>EMBER Capacity (GW)</t>
   </si>
   <si>
-    <t>EMBER Generation (TWh)</t>
-  </si>
-  <si>
     <t>IRENA Capacity (GW)</t>
-  </si>
-  <si>
-    <t>IRENA Generation (TWh)</t>
   </si>
   <si>
     <t>Electricity Trade Data (TWh) - Source: UNSD</t>
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -2815,3194 +2818,3345 @@
         <v>0.3539464426516985</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="C29">
-        <v>2001</v>
-      </c>
-      <c r="D29">
-        <v>2002</v>
-      </c>
-      <c r="E29">
-        <v>2003</v>
-      </c>
-      <c r="F29">
-        <v>2004</v>
-      </c>
-      <c r="G29">
-        <v>2005</v>
-      </c>
-      <c r="H29">
-        <v>2006</v>
-      </c>
-      <c r="I29">
-        <v>2007</v>
-      </c>
-      <c r="J29">
-        <v>2008</v>
-      </c>
-      <c r="K29">
-        <v>2009</v>
-      </c>
-      <c r="L29">
-        <v>2010</v>
-      </c>
-      <c r="M29">
-        <v>2011</v>
-      </c>
-      <c r="N29">
-        <v>2012</v>
-      </c>
-      <c r="O29">
-        <v>2013</v>
-      </c>
-      <c r="P29">
-        <v>2014</v>
-      </c>
-      <c r="Q29">
-        <v>2015</v>
-      </c>
-      <c r="R29">
-        <v>2016</v>
-      </c>
-      <c r="S29">
-        <v>2017</v>
-      </c>
-      <c r="T29">
-        <v>2018</v>
-      </c>
-      <c r="U29">
-        <v>2019</v>
-      </c>
-      <c r="V29">
-        <v>2020</v>
-      </c>
-      <c r="W29">
-        <v>2021</v>
-      </c>
-      <c r="X29">
-        <v>2022</v>
-      </c>
-      <c r="Y29">
-        <v>2023</v>
-      </c>
-    </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>9.59</v>
-      </c>
-      <c r="C30">
-        <v>10.59</v>
-      </c>
-      <c r="D30">
-        <v>10.66</v>
-      </c>
-      <c r="E30">
-        <v>10.540000000000001</v>
-      </c>
-      <c r="F30">
-        <v>10.76</v>
-      </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-      <c r="H30">
-        <v>11.280000000000001</v>
-      </c>
-      <c r="I30">
-        <v>11.94</v>
-      </c>
-      <c r="J30">
-        <v>12.17</v>
-      </c>
-      <c r="K30">
-        <v>12.53</v>
-      </c>
-      <c r="L30">
-        <v>12.7</v>
-      </c>
-      <c r="M30">
-        <v>12.899999999999999</v>
-      </c>
-      <c r="N30">
-        <v>13.809999999999999</v>
-      </c>
-      <c r="O30">
-        <v>14.89</v>
-      </c>
-      <c r="P30">
-        <v>14.93</v>
-      </c>
-      <c r="Q30">
-        <v>15.52</v>
-      </c>
-      <c r="R30">
-        <v>15.42</v>
-      </c>
-      <c r="S30">
-        <v>15.33</v>
-      </c>
-      <c r="T30">
-        <v>15.06</v>
-      </c>
-      <c r="U30">
-        <v>14.61</v>
-      </c>
-      <c r="V30">
-        <v>14.46</v>
-      </c>
-      <c r="W30">
-        <v>13.94</v>
-      </c>
-      <c r="X30">
-        <v>13.75</v>
-      </c>
-      <c r="Y30">
-        <v>13.66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>334.24</v>
+        <v>2000</v>
       </c>
       <c r="C31">
-        <v>335.32</v>
+        <v>2001</v>
       </c>
       <c r="D31">
-        <v>335.8</v>
+        <v>2002</v>
       </c>
       <c r="E31">
-        <v>334.47</v>
+        <v>2003</v>
       </c>
       <c r="F31">
-        <v>334.48</v>
+        <v>2004</v>
       </c>
       <c r="G31">
-        <v>334.63</v>
+        <v>2005</v>
       </c>
       <c r="H31">
-        <v>334.94</v>
+        <v>2006</v>
       </c>
       <c r="I31">
-        <v>333.64</v>
+        <v>2007</v>
       </c>
       <c r="J31">
-        <v>334.56</v>
+        <v>2008</v>
       </c>
       <c r="K31">
-        <v>335.94</v>
+        <v>2009</v>
       </c>
       <c r="L31">
-        <v>339.36</v>
+        <v>2010</v>
       </c>
       <c r="M31">
-        <v>340.2</v>
+        <v>2011</v>
       </c>
       <c r="N31">
-        <v>332.88</v>
+        <v>2012</v>
       </c>
       <c r="O31">
-        <v>327.89</v>
+        <v>2013</v>
       </c>
       <c r="P31">
-        <v>323.38</v>
+        <v>2014</v>
       </c>
       <c r="Q31">
-        <v>301.70999999999998</v>
+        <v>2015</v>
       </c>
       <c r="R31">
-        <v>285.75</v>
+        <v>2016</v>
       </c>
       <c r="S31">
-        <v>276.88</v>
+        <v>2017</v>
       </c>
       <c r="T31">
-        <v>260.95</v>
+        <v>2018</v>
       </c>
       <c r="U31">
-        <v>244.7</v>
+        <v>2019</v>
       </c>
       <c r="V31">
-        <v>233.04</v>
+        <v>2020</v>
       </c>
       <c r="W31">
-        <v>224.59</v>
+        <v>2021</v>
       </c>
       <c r="X31">
-        <v>209.94</v>
+        <v>2022</v>
       </c>
       <c r="Y31">
-        <v>200.28</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B32">
-        <v>161.54</v>
+        <v>3802.0999999999995</v>
       </c>
       <c r="C32">
-        <v>199.67</v>
+        <v>3727.5699999999997</v>
       </c>
       <c r="D32">
-        <v>264.55</v>
+        <v>3844.23</v>
       </c>
       <c r="E32">
-        <v>319.04000000000002</v>
+        <v>3868.94</v>
       </c>
       <c r="F32">
-        <v>343.88</v>
+        <v>3951.95</v>
       </c>
       <c r="G32">
-        <v>359.84</v>
+        <v>4034.9900000000002</v>
       </c>
       <c r="H32">
-        <v>371.13</v>
+        <v>4046.9400000000005</v>
       </c>
       <c r="I32">
-        <v>378.97</v>
+        <v>4142.57</v>
       </c>
       <c r="J32">
-        <v>388.45</v>
+        <v>4107.53</v>
       </c>
       <c r="K32">
-        <v>399.05</v>
+        <v>3939.8199999999997</v>
       </c>
       <c r="L32">
-        <v>407.07</v>
+        <v>4113.9400000000005</v>
       </c>
       <c r="M32">
-        <v>418.3</v>
+        <v>4088.87</v>
       </c>
       <c r="N32">
-        <v>429.01</v>
+        <v>4040.6700000000005</v>
       </c>
       <c r="O32">
-        <v>437.26</v>
+        <v>4055.6099999999997</v>
       </c>
       <c r="P32">
-        <v>448.9</v>
+        <v>4096.01</v>
       </c>
       <c r="Q32">
-        <v>460.37</v>
+        <v>4083.99</v>
       </c>
       <c r="R32">
-        <v>473.01</v>
+        <v>4087.5600000000004</v>
       </c>
       <c r="S32">
-        <v>484.89</v>
+        <v>4052.31</v>
       </c>
       <c r="T32">
-        <v>509.07</v>
+        <v>4201.55</v>
       </c>
       <c r="U32">
-        <v>519.28</v>
+        <v>4158.38</v>
       </c>
       <c r="V32">
-        <v>523.75</v>
+        <v>4043.1800000000003</v>
       </c>
       <c r="W32">
-        <v>530.26</v>
+        <v>4153.62</v>
       </c>
       <c r="X32">
-        <v>535.49</v>
+        <v>4286.8900000000003</v>
       </c>
       <c r="Y32">
-        <v>542.92999999999995</v>
+        <v>4253.91</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>79.36</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="C33">
-        <v>78.92</v>
+        <v>64.64</v>
       </c>
       <c r="D33">
-        <v>79.36</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="E33">
-        <v>78.69</v>
+        <v>70.19</v>
       </c>
       <c r="F33">
-        <v>77.64</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="G33">
-        <v>77.540000000000006</v>
+        <v>70.92</v>
       </c>
       <c r="H33">
-        <v>77.819999999999993</v>
+        <v>71.37</v>
       </c>
       <c r="I33">
-        <v>77.88</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="J33">
-        <v>77.930000000000007</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="K33">
-        <v>78.52</v>
+        <v>71.960000000000008</v>
       </c>
       <c r="L33">
-        <v>82.61</v>
+        <v>73.92</v>
       </c>
       <c r="M33">
-        <v>82.45</v>
+        <v>74.81</v>
       </c>
       <c r="N33">
-        <v>82.56</v>
+        <v>75.88</v>
       </c>
       <c r="O33">
-        <v>83.01</v>
+        <v>79.62</v>
       </c>
       <c r="P33">
-        <v>83.49</v>
+        <v>83.07</v>
       </c>
       <c r="Q33">
-        <v>83.5</v>
+        <v>82.75</v>
       </c>
       <c r="R33">
-        <v>83.82</v>
+        <v>81.92</v>
       </c>
       <c r="S33">
-        <v>83.79</v>
+        <v>81.77</v>
       </c>
       <c r="T33">
-        <v>83.88</v>
+        <v>80.52</v>
       </c>
       <c r="U33">
-        <v>83.79</v>
+        <v>75.38</v>
       </c>
       <c r="V33">
-        <v>83.83</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="W33">
-        <v>84.29</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="X33">
-        <v>86.63</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="Y33">
-        <v>86.66</v>
+        <v>65.650000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>97.86</v>
+        <v>1966.27</v>
       </c>
       <c r="C34">
-        <v>98.16</v>
+        <v>1903.96</v>
       </c>
       <c r="D34">
-        <v>98.66</v>
+        <v>1933.13</v>
       </c>
       <c r="E34">
-        <v>99.21</v>
+        <v>1973.74</v>
       </c>
       <c r="F34">
-        <v>99.63</v>
+        <v>1978.3</v>
       </c>
       <c r="G34">
-        <v>99.99</v>
+        <v>2012.87</v>
       </c>
       <c r="H34">
-        <v>100.33</v>
+        <v>1990.51</v>
       </c>
       <c r="I34">
-        <v>100.27</v>
+        <v>2016.46</v>
       </c>
       <c r="J34">
-        <v>100.75</v>
+        <v>1985.8</v>
       </c>
       <c r="K34">
-        <v>101</v>
+        <v>1755.9</v>
       </c>
       <c r="L34">
-        <v>101.17</v>
+        <v>1847.29</v>
       </c>
       <c r="M34">
-        <v>101.42</v>
+        <v>1733.43</v>
       </c>
       <c r="N34">
-        <v>101.89</v>
+        <v>1514.04</v>
       </c>
       <c r="O34">
-        <v>99.24</v>
+        <v>1581.11</v>
       </c>
       <c r="P34">
-        <v>98.57</v>
+        <v>1581.71</v>
       </c>
       <c r="Q34">
-        <v>98.67</v>
+        <v>1352.4</v>
       </c>
       <c r="R34">
-        <v>99.56</v>
+        <v>1239.1500000000001</v>
       </c>
       <c r="S34">
-        <v>99.63</v>
+        <v>1205.8399999999999</v>
       </c>
       <c r="T34">
-        <v>99.43</v>
+        <v>1149.49</v>
       </c>
       <c r="U34">
-        <v>98.12</v>
+        <v>964.96</v>
       </c>
       <c r="V34">
-        <v>96.5</v>
+        <v>773.39</v>
       </c>
       <c r="W34">
-        <v>95.55</v>
+        <v>898</v>
       </c>
       <c r="X34">
-        <v>94.66</v>
+        <v>831.51</v>
       </c>
       <c r="Y34">
-        <v>95.77</v>
+        <v>675.11</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>86.09</v>
+        <v>614.99</v>
       </c>
       <c r="C35">
-        <v>87.75</v>
+        <v>639.13</v>
       </c>
       <c r="D35">
-        <v>61.52</v>
+        <v>691.01</v>
       </c>
       <c r="E35">
-        <v>62.58</v>
+        <v>649.91</v>
       </c>
       <c r="F35">
-        <v>61.16</v>
+        <v>710.1</v>
       </c>
       <c r="G35">
-        <v>60.85</v>
+        <v>760.96</v>
       </c>
       <c r="H35">
-        <v>60.32</v>
+        <v>816.44</v>
       </c>
       <c r="I35">
-        <v>58.35</v>
+        <v>896.59</v>
       </c>
       <c r="J35">
-        <v>59.77</v>
+        <v>882.98</v>
       </c>
       <c r="K35">
-        <v>59.12</v>
+        <v>920.98</v>
       </c>
       <c r="L35">
-        <v>59.53</v>
+        <v>987.7</v>
       </c>
       <c r="M35">
-        <v>53.93</v>
+        <v>1013.69</v>
       </c>
       <c r="N35">
-        <v>49.83</v>
+        <v>1225.8900000000001</v>
       </c>
       <c r="O35">
-        <v>46.76</v>
+        <v>1124.8399999999999</v>
       </c>
       <c r="P35">
-        <v>44.84</v>
+        <v>1126.6099999999999</v>
       </c>
       <c r="Q35">
-        <v>39.42</v>
+        <v>1333.48</v>
       </c>
       <c r="R35">
-        <v>36.92</v>
+        <v>1378.31</v>
       </c>
       <c r="S35">
-        <v>36.6</v>
+        <v>1296.44</v>
       </c>
       <c r="T35">
-        <v>34.78</v>
+        <v>1469.13</v>
       </c>
       <c r="U35">
-        <v>34.01</v>
+        <v>1585.81</v>
       </c>
       <c r="V35">
-        <v>30.15</v>
+        <v>1624.17</v>
       </c>
       <c r="W35">
-        <v>30.78</v>
+        <v>1579.19</v>
       </c>
       <c r="X35">
-        <v>33.18</v>
+        <v>1687.06</v>
       </c>
       <c r="Y35">
-        <v>32.159999999999997</v>
+        <v>1806.06</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>0.59</v>
+        <v>270.02999999999997</v>
       </c>
       <c r="C36">
-        <v>0.6</v>
+        <v>208.14</v>
       </c>
       <c r="D36">
-        <v>0.64</v>
+        <v>255.59</v>
       </c>
       <c r="E36">
-        <v>0.68</v>
+        <v>267.27</v>
       </c>
       <c r="F36">
-        <v>0.75</v>
+        <v>259.93</v>
       </c>
       <c r="G36">
-        <v>0.89</v>
+        <v>263.76</v>
       </c>
       <c r="H36">
-        <v>1.1000000000000001</v>
+        <v>282.69</v>
       </c>
       <c r="I36">
-        <v>1.44</v>
+        <v>240.61</v>
       </c>
       <c r="J36">
-        <v>1.62</v>
+        <v>248.54</v>
       </c>
       <c r="K36">
-        <v>2.09</v>
+        <v>268.82</v>
       </c>
       <c r="L36">
-        <v>3.38</v>
+        <v>254.7</v>
       </c>
       <c r="M36">
-        <v>5.64</v>
+        <v>312.93</v>
       </c>
       <c r="N36">
-        <v>8.61</v>
+        <v>271.29000000000002</v>
       </c>
       <c r="O36">
-        <v>13.25</v>
+        <v>263.88</v>
       </c>
       <c r="P36">
-        <v>18.11</v>
+        <v>253.19</v>
       </c>
       <c r="Q36">
-        <v>24.24</v>
+        <v>243.99</v>
       </c>
       <c r="R36">
-        <v>35.43</v>
+        <v>261.13</v>
       </c>
       <c r="S36">
-        <v>43.77</v>
+        <v>293.83999999999997</v>
       </c>
       <c r="T36">
-        <v>51.99</v>
+        <v>286.62</v>
       </c>
       <c r="U36">
-        <v>61.59</v>
+        <v>282.61</v>
       </c>
       <c r="V36">
-        <v>76.44</v>
+        <v>279.95</v>
       </c>
       <c r="W36">
-        <v>95.39</v>
+        <v>246.47</v>
       </c>
       <c r="X36">
-        <v>114.36</v>
+        <v>248.76</v>
       </c>
       <c r="Y36">
-        <v>139.21</v>
+        <v>239.01</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>2.38</v>
+        <v>753.89</v>
       </c>
       <c r="C37">
-        <v>3.86</v>
+        <v>768.83</v>
       </c>
       <c r="D37">
-        <v>4.42</v>
+        <v>780.06</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>763.73</v>
       </c>
       <c r="F37">
-        <v>6.46</v>
+        <v>788.53</v>
       </c>
       <c r="G37">
-        <v>8.7100000000000009</v>
+        <v>781.99</v>
       </c>
       <c r="H37">
-        <v>11.33</v>
+        <v>787.22</v>
       </c>
       <c r="I37">
-        <v>16.52</v>
+        <v>806.42</v>
       </c>
       <c r="J37">
-        <v>24.65</v>
+        <v>806.21</v>
       </c>
       <c r="K37">
-        <v>34.299999999999997</v>
+        <v>798.85</v>
       </c>
       <c r="L37">
-        <v>39.35</v>
+        <v>806.97</v>
       </c>
       <c r="M37">
-        <v>45.79</v>
+        <v>790.2</v>
       </c>
       <c r="N37">
-        <v>59.45</v>
+        <v>769.33</v>
       </c>
       <c r="O37">
-        <v>60.2</v>
+        <v>789.02</v>
       </c>
       <c r="P37">
-        <v>64.430000000000007</v>
+        <v>797.17</v>
       </c>
       <c r="Q37">
-        <v>72.77</v>
+        <v>797.18</v>
       </c>
       <c r="R37">
-        <v>81.5</v>
+        <v>805.69</v>
       </c>
       <c r="S37">
-        <v>87.83</v>
+        <v>804.95</v>
       </c>
       <c r="T37">
-        <v>94.67</v>
+        <v>807.08</v>
       </c>
       <c r="U37">
-        <v>103.84</v>
+        <v>809.41</v>
       </c>
       <c r="V37">
-        <v>118.66</v>
+        <v>789.88</v>
       </c>
       <c r="W37">
-        <v>133.02000000000001</v>
+        <v>779.65</v>
       </c>
       <c r="X37">
-        <v>141.66999999999999</v>
+        <v>771.54</v>
       </c>
       <c r="Y37">
-        <v>148.02000000000001</v>
+        <v>774.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>116.02</v>
+      </c>
+      <c r="C38">
+        <v>135.59</v>
+      </c>
+      <c r="D38">
+        <v>103.69</v>
+      </c>
+      <c r="E38">
+        <v>132.38</v>
+      </c>
+      <c r="F38">
+        <v>129.88</v>
+      </c>
+      <c r="G38">
+        <v>126.13</v>
+      </c>
+      <c r="H38">
+        <v>71.61</v>
+      </c>
+      <c r="I38">
+        <v>75.19</v>
+      </c>
+      <c r="J38">
+        <v>55.43</v>
+      </c>
+      <c r="K38">
+        <v>48.53</v>
+      </c>
+      <c r="L38">
+        <v>47.5</v>
+      </c>
+      <c r="M38">
+        <v>41.81</v>
+      </c>
+      <c r="N38">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="O38">
+        <v>40.26</v>
+      </c>
+      <c r="P38">
+        <v>43.69</v>
+      </c>
+      <c r="Q38">
+        <v>44.44</v>
+      </c>
+      <c r="R38">
+        <v>39.5</v>
+      </c>
+      <c r="S38">
+        <v>37.89</v>
+      </c>
+      <c r="T38">
+        <v>42.68</v>
+      </c>
+      <c r="U38">
+        <v>37.44</v>
+      </c>
+      <c r="V38">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="W38">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="X38">
+        <v>38.64</v>
+      </c>
+      <c r="Y38">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0.49</v>
+      </c>
+      <c r="C39">
+        <v>0.54</v>
+      </c>
+      <c r="D39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E39">
+        <v>0.53</v>
+      </c>
+      <c r="F39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H39">
+        <v>0.51</v>
+      </c>
+      <c r="I39">
+        <v>0.61</v>
+      </c>
+      <c r="J39">
+        <v>0.86</v>
+      </c>
+      <c r="K39">
+        <v>0.89</v>
+      </c>
+      <c r="L39">
+        <v>1.21</v>
+      </c>
+      <c r="M39">
+        <v>1.82</v>
+      </c>
+      <c r="N39">
+        <v>4.33</v>
+      </c>
+      <c r="O39">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="P39">
+        <v>28.92</v>
+      </c>
+      <c r="Q39">
+        <v>39.03</v>
+      </c>
+      <c r="R39">
+        <v>54.87</v>
+      </c>
+      <c r="S39">
+        <v>77.28</v>
+      </c>
+      <c r="T39">
+        <v>93.36</v>
+      </c>
+      <c r="U39">
+        <v>106.89</v>
+      </c>
+      <c r="V39">
+        <v>130.72</v>
+      </c>
+      <c r="W39">
+        <v>164.42</v>
+      </c>
+      <c r="X39">
+        <v>205.07</v>
+      </c>
+      <c r="Y39">
+        <v>238.94</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>2000</v>
-      </c>
-      <c r="C41">
-        <v>2001</v>
-      </c>
-      <c r="D41">
-        <v>2002</v>
-      </c>
-      <c r="E41">
-        <v>2003</v>
-      </c>
-      <c r="F41">
-        <v>2004</v>
-      </c>
-      <c r="G41">
-        <v>2005</v>
-      </c>
-      <c r="H41">
-        <v>2006</v>
-      </c>
-      <c r="I41">
-        <v>2007</v>
-      </c>
-      <c r="J41">
-        <v>2008</v>
-      </c>
-      <c r="K41">
-        <v>2009</v>
-      </c>
-      <c r="L41">
-        <v>2010</v>
-      </c>
-      <c r="M41">
-        <v>2011</v>
-      </c>
-      <c r="N41">
-        <v>2012</v>
-      </c>
-      <c r="O41">
-        <v>2013</v>
-      </c>
-      <c r="P41">
-        <v>2014</v>
-      </c>
-      <c r="Q41">
-        <v>2015</v>
-      </c>
-      <c r="R41">
-        <v>2016</v>
-      </c>
-      <c r="S41">
-        <v>2017</v>
-      </c>
-      <c r="T41">
-        <v>2018</v>
-      </c>
-      <c r="U41">
-        <v>2019</v>
-      </c>
-      <c r="V41">
-        <v>2020</v>
-      </c>
-      <c r="W41">
-        <v>2021</v>
-      </c>
-      <c r="X41">
-        <v>2022</v>
-      </c>
-      <c r="Y41">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="C42">
-        <v>64.64</v>
-      </c>
-      <c r="D42">
-        <v>69.849999999999994</v>
-      </c>
-      <c r="E42">
-        <v>70.19</v>
-      </c>
-      <c r="F42">
-        <v>70.489999999999995</v>
-      </c>
-      <c r="G42">
-        <v>70.92</v>
-      </c>
-      <c r="H42">
-        <v>71.37</v>
-      </c>
-      <c r="I42">
-        <v>72.239999999999995</v>
-      </c>
-      <c r="J42">
-        <v>72.349999999999994</v>
-      </c>
-      <c r="K42">
-        <v>71.960000000000008</v>
-      </c>
-      <c r="L42">
-        <v>73.92</v>
-      </c>
-      <c r="M42">
-        <v>74.81</v>
-      </c>
-      <c r="N42">
-        <v>75.88</v>
-      </c>
-      <c r="O42">
-        <v>79.62</v>
-      </c>
-      <c r="P42">
-        <v>83.07</v>
-      </c>
-      <c r="Q42">
-        <v>82.75</v>
-      </c>
-      <c r="R42">
-        <v>81.92</v>
-      </c>
-      <c r="S42">
-        <v>81.77</v>
-      </c>
-      <c r="T42">
-        <v>80.52</v>
-      </c>
-      <c r="U42">
-        <v>75.38</v>
-      </c>
-      <c r="V42">
-        <v>72.790000000000006</v>
-      </c>
-      <c r="W42">
-        <v>72.489999999999995</v>
-      </c>
-      <c r="X42">
-        <v>70.010000000000005</v>
-      </c>
-      <c r="Y42">
-        <v>65.650000000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1966.27</v>
-      </c>
-      <c r="C43">
-        <v>1903.96</v>
-      </c>
-      <c r="D43">
-        <v>1933.13</v>
-      </c>
-      <c r="E43">
-        <v>1973.74</v>
-      </c>
-      <c r="F43">
-        <v>1978.3</v>
-      </c>
-      <c r="G43">
-        <v>2012.87</v>
-      </c>
-      <c r="H43">
-        <v>1990.51</v>
-      </c>
-      <c r="I43">
-        <v>2016.46</v>
-      </c>
-      <c r="J43">
-        <v>1985.8</v>
-      </c>
-      <c r="K43">
-        <v>1755.9</v>
-      </c>
-      <c r="L43">
-        <v>1847.29</v>
-      </c>
-      <c r="M43">
-        <v>1733.43</v>
-      </c>
-      <c r="N43">
-        <v>1514.04</v>
-      </c>
-      <c r="O43">
-        <v>1581.11</v>
-      </c>
-      <c r="P43">
-        <v>1581.71</v>
-      </c>
-      <c r="Q43">
-        <v>1352.4</v>
-      </c>
-      <c r="R43">
-        <v>1239.1500000000001</v>
-      </c>
-      <c r="S43">
-        <v>1205.8399999999999</v>
-      </c>
-      <c r="T43">
-        <v>1149.49</v>
-      </c>
-      <c r="U43">
-        <v>964.96</v>
-      </c>
-      <c r="V43">
-        <v>773.39</v>
-      </c>
-      <c r="W43">
-        <v>898</v>
-      </c>
-      <c r="X43">
-        <v>831.51</v>
-      </c>
-      <c r="Y43">
-        <v>675.11</v>
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>5.59</v>
+      </c>
+      <c r="C40">
+        <v>6.74</v>
+      </c>
+      <c r="D40">
+        <v>10.35</v>
+      </c>
+      <c r="E40">
+        <v>11.19</v>
+      </c>
+      <c r="F40">
+        <v>14.14</v>
+      </c>
+      <c r="G40">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="H40">
+        <v>26.59</v>
+      </c>
+      <c r="I40">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="J40">
+        <v>55.36</v>
+      </c>
+      <c r="K40">
+        <v>73.89</v>
+      </c>
+      <c r="L40">
+        <v>94.65</v>
+      </c>
+      <c r="M40">
+        <v>120.18</v>
+      </c>
+      <c r="N40">
+        <v>140.82</v>
+      </c>
+      <c r="O40">
+        <v>167.84</v>
+      </c>
+      <c r="P40">
+        <v>181.65</v>
+      </c>
+      <c r="Q40">
+        <v>190.72</v>
+      </c>
+      <c r="R40">
+        <v>226.99</v>
+      </c>
+      <c r="S40">
+        <v>254.3</v>
+      </c>
+      <c r="T40">
+        <v>272.67</v>
+      </c>
+      <c r="U40">
+        <v>295.88</v>
+      </c>
+      <c r="V40">
+        <v>337.94</v>
+      </c>
+      <c r="W40">
+        <v>378.2</v>
+      </c>
+      <c r="X40">
+        <v>434.3</v>
+      </c>
+      <c r="Y40">
+        <v>421.14</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>614.99</v>
-      </c>
-      <c r="C44">
-        <v>639.13</v>
-      </c>
-      <c r="D44">
-        <v>691.01</v>
-      </c>
-      <c r="E44">
-        <v>649.91</v>
-      </c>
-      <c r="F44">
-        <v>710.1</v>
-      </c>
-      <c r="G44">
-        <v>760.96</v>
-      </c>
-      <c r="H44">
-        <v>816.44</v>
-      </c>
-      <c r="I44">
-        <v>896.59</v>
-      </c>
-      <c r="J44">
-        <v>882.98</v>
-      </c>
-      <c r="K44">
-        <v>920.98</v>
-      </c>
-      <c r="L44">
-        <v>987.7</v>
-      </c>
-      <c r="M44">
-        <v>1013.69</v>
-      </c>
-      <c r="N44">
-        <v>1225.8900000000001</v>
-      </c>
-      <c r="O44">
-        <v>1124.8399999999999</v>
-      </c>
-      <c r="P44">
-        <v>1126.6099999999999</v>
-      </c>
-      <c r="Q44">
-        <v>1333.48</v>
-      </c>
-      <c r="R44">
-        <v>1378.31</v>
-      </c>
-      <c r="S44">
-        <v>1296.44</v>
-      </c>
-      <c r="T44">
-        <v>1469.13</v>
-      </c>
-      <c r="U44">
-        <v>1585.81</v>
-      </c>
-      <c r="V44">
-        <v>1624.17</v>
-      </c>
-      <c r="W44">
-        <v>1579.19</v>
-      </c>
-      <c r="X44">
-        <v>1687.06</v>
-      </c>
-      <c r="Y44">
-        <v>1806.06</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>270.02999999999997</v>
+        <v>2000</v>
       </c>
       <c r="C45">
-        <v>208.14</v>
+        <v>2001</v>
       </c>
       <c r="D45">
-        <v>255.59</v>
+        <v>2002</v>
       </c>
       <c r="E45">
-        <v>267.27</v>
+        <v>2003</v>
       </c>
       <c r="F45">
-        <v>259.93</v>
+        <v>2004</v>
       </c>
       <c r="G45">
-        <v>263.76</v>
+        <v>2005</v>
       </c>
       <c r="H45">
-        <v>282.69</v>
+        <v>2006</v>
       </c>
       <c r="I45">
-        <v>240.61</v>
+        <v>2007</v>
       </c>
       <c r="J45">
-        <v>248.54</v>
+        <v>2008</v>
       </c>
       <c r="K45">
-        <v>268.82</v>
+        <v>2009</v>
       </c>
       <c r="L45">
-        <v>254.7</v>
+        <v>2010</v>
       </c>
       <c r="M45">
-        <v>312.93</v>
+        <v>2011</v>
       </c>
       <c r="N45">
-        <v>271.29000000000002</v>
+        <v>2012</v>
       </c>
       <c r="O45">
-        <v>263.88</v>
+        <v>2013</v>
       </c>
       <c r="P45">
-        <v>253.19</v>
+        <v>2014</v>
       </c>
       <c r="Q45">
-        <v>243.99</v>
+        <v>2015</v>
       </c>
       <c r="R45">
-        <v>261.13</v>
+        <v>2016</v>
       </c>
       <c r="S45">
-        <v>293.83999999999997</v>
+        <v>2017</v>
       </c>
       <c r="T45">
-        <v>286.62</v>
+        <v>2018</v>
       </c>
       <c r="U45">
-        <v>282.61</v>
+        <v>2019</v>
       </c>
       <c r="V45">
-        <v>279.95</v>
+        <v>2020</v>
       </c>
       <c r="W45">
-        <v>246.47</v>
+        <v>2021</v>
       </c>
       <c r="X45">
-        <v>248.76</v>
-      </c>
-      <c r="Y45">
-        <v>239.01</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B46">
-        <v>753.89</v>
+        <v>4052.6670010000003</v>
       </c>
       <c r="C46">
-        <v>768.83</v>
+        <v>3865.3069989999999</v>
       </c>
       <c r="D46">
-        <v>780.06</v>
+        <v>4050.2679979999998</v>
       </c>
       <c r="E46">
-        <v>763.73</v>
+        <v>4081.078998</v>
       </c>
       <c r="F46">
-        <v>788.53</v>
+        <v>4174.5130010000003</v>
       </c>
       <c r="G46">
-        <v>781.99</v>
+        <v>4294.3679980000006</v>
       </c>
       <c r="H46">
-        <v>787.22</v>
+        <v>4300.8310000000001</v>
       </c>
       <c r="I46">
-        <v>806.42</v>
+        <v>4349.8409980000006</v>
       </c>
       <c r="J46">
-        <v>806.21</v>
+        <v>4368.2620009999991</v>
       </c>
       <c r="K46">
-        <v>798.85</v>
+        <v>4188.2149979999995</v>
       </c>
       <c r="L46">
-        <v>806.97</v>
+        <v>4378.429999</v>
       </c>
       <c r="M46">
-        <v>790.2</v>
+        <v>4349.4629999999997</v>
       </c>
       <c r="N46">
-        <v>769.33</v>
+        <v>4290.6599990000004</v>
       </c>
       <c r="O46">
-        <v>789.02</v>
+        <v>4306.3710009999995</v>
       </c>
       <c r="P46">
-        <v>797.17</v>
+        <v>4340.3710019999999</v>
       </c>
       <c r="Q46">
-        <v>797.18</v>
+        <v>4317.1589970000005</v>
       </c>
       <c r="R46">
-        <v>805.69</v>
+        <v>4322.0379979999998</v>
       </c>
       <c r="S46">
-        <v>804.95</v>
+        <v>4286.4230040000002</v>
       </c>
       <c r="T46">
-        <v>807.08</v>
+        <v>4455.4389999999994</v>
       </c>
       <c r="U46">
-        <v>809.41</v>
+        <v>4391.7639989999998</v>
       </c>
       <c r="V46">
-        <v>789.88</v>
+        <v>4260.0440009999993</v>
       </c>
       <c r="W46">
-        <v>779.65</v>
+        <v>4374.6780019999997</v>
       </c>
       <c r="X46">
-        <v>771.54</v>
-      </c>
-      <c r="Y46">
-        <v>774.87</v>
+        <v>4495.3690000000006</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>116.02</v>
+        <v>56.180000999999997</v>
       </c>
       <c r="C47">
-        <v>135.59</v>
+        <v>50.336998999999999</v>
       </c>
       <c r="D47">
-        <v>103.69</v>
+        <v>54.022998000000001</v>
       </c>
       <c r="E47">
-        <v>132.38</v>
+        <v>54.120998</v>
       </c>
       <c r="F47">
-        <v>129.88</v>
+        <v>55.783000999999999</v>
       </c>
       <c r="G47">
-        <v>126.13</v>
+        <v>57.980998000000007</v>
       </c>
       <c r="H47">
-        <v>71.61</v>
+        <v>58.795999999999999</v>
       </c>
       <c r="I47">
-        <v>75.19</v>
+        <v>59.120998</v>
       </c>
       <c r="J47">
-        <v>55.43</v>
+        <v>59.647000999999996</v>
       </c>
       <c r="K47">
-        <v>48.53</v>
+        <v>59.318998000000001</v>
       </c>
       <c r="L47">
-        <v>47.5</v>
+        <v>61.743999000000002</v>
       </c>
       <c r="M47">
-        <v>41.81</v>
+        <v>62.319999999999993</v>
       </c>
       <c r="N47">
-        <v>39.090000000000003</v>
+        <v>64.108999000000011</v>
       </c>
       <c r="O47">
-        <v>40.26</v>
+        <v>66.93900099999999</v>
       </c>
       <c r="P47">
-        <v>43.69</v>
+        <v>70.818002000000007</v>
       </c>
       <c r="Q47">
-        <v>44.44</v>
+        <v>70.066997000000001</v>
       </c>
       <c r="R47">
-        <v>39.5</v>
+        <v>69.016998000000001</v>
       </c>
       <c r="S47">
-        <v>37.89</v>
+        <v>68.857004000000003</v>
       </c>
       <c r="T47">
-        <v>42.68</v>
+        <v>67.885000000000005</v>
       </c>
       <c r="U47">
-        <v>37.44</v>
+        <v>63.193999000000005</v>
       </c>
       <c r="V47">
-        <v>34.340000000000003</v>
+        <v>60.269001000000003</v>
       </c>
       <c r="W47">
-        <v>35.200000000000003</v>
+        <v>59.582001999999996</v>
       </c>
       <c r="X47">
-        <v>38.64</v>
-      </c>
-      <c r="Y47">
-        <v>33.130000000000003</v>
+        <v>57.146000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2129.498</v>
+      </c>
+      <c r="C48">
+        <v>1982.12</v>
+      </c>
+      <c r="D48">
+        <v>2039.665</v>
+      </c>
+      <c r="E48">
+        <v>2083.326</v>
+      </c>
+      <c r="F48">
+        <v>2090.4949999999999</v>
+      </c>
+      <c r="G48">
+        <v>2153.9560000000001</v>
+      </c>
+      <c r="H48">
+        <v>2127.7959999999998</v>
+      </c>
+      <c r="I48">
+        <v>2118.4549999999999</v>
+      </c>
+      <c r="J48">
+        <v>2132.596</v>
+      </c>
+      <c r="K48">
+        <v>1892.6610000000001</v>
+      </c>
+      <c r="L48">
+        <v>1994.194</v>
+      </c>
+      <c r="M48">
+        <v>1875.413</v>
+      </c>
+      <c r="N48">
+        <v>1643.43</v>
+      </c>
+      <c r="O48">
+        <v>1712.4079999999999</v>
+      </c>
+      <c r="P48">
+        <v>1712.577</v>
+      </c>
+      <c r="Q48">
+        <v>1470.9970000000001</v>
+      </c>
+      <c r="R48">
+        <v>1354.0340000000001</v>
+      </c>
+      <c r="S48">
+        <v>1321.4190000000001</v>
+      </c>
+      <c r="T48">
+        <v>1272.1500000000001</v>
+      </c>
+      <c r="U48">
+        <v>1069.528</v>
+      </c>
+      <c r="V48">
+        <v>855.77</v>
+      </c>
+      <c r="W48">
+        <v>991.56100000000004</v>
+      </c>
+      <c r="X48">
+        <v>913.30200000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>634.29</v>
+      </c>
+      <c r="C49">
+        <v>659.91399999999999</v>
+      </c>
+      <c r="D49">
+        <v>712.43200000000002</v>
+      </c>
+      <c r="E49">
+        <v>670.19200000000001</v>
+      </c>
+      <c r="F49">
+        <v>731.55200000000002</v>
+      </c>
+      <c r="G49">
+        <v>782.82899999999995</v>
+      </c>
+      <c r="H49">
+        <v>842.774</v>
+      </c>
+      <c r="I49">
+        <v>915.19600000000003</v>
+      </c>
+      <c r="J49">
+        <v>910.17600000000004</v>
+      </c>
+      <c r="K49">
+        <v>949.77599999999995</v>
+      </c>
+      <c r="L49">
+        <v>1017.869</v>
+      </c>
+      <c r="M49">
+        <v>1045.2539999999999</v>
+      </c>
+      <c r="N49">
+        <v>1264.5519999999999</v>
+      </c>
+      <c r="O49">
+        <v>1158.454</v>
+      </c>
+      <c r="P49">
+        <v>1161.3330000000001</v>
+      </c>
+      <c r="Q49">
+        <v>1372.57</v>
+      </c>
+      <c r="R49">
+        <v>1418.1</v>
+      </c>
+      <c r="S49">
+        <v>1337.703</v>
+      </c>
+      <c r="T49">
+        <v>1519.2170000000001</v>
+      </c>
+      <c r="U49">
+        <v>1639.826</v>
+      </c>
+      <c r="V49">
+        <v>1680.143</v>
+      </c>
+      <c r="W49">
+        <v>1634.0889999999999</v>
+      </c>
+      <c r="X49">
+        <v>1740.421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>14.621</v>
+      </c>
+      <c r="C50">
+        <v>14.246</v>
+      </c>
+      <c r="D50">
+        <v>14.939</v>
+      </c>
+      <c r="E50">
+        <v>14.87</v>
+      </c>
+      <c r="F50">
+        <v>15.487</v>
+      </c>
+      <c r="G50">
+        <v>16.777999999999999</v>
+      </c>
+      <c r="H50">
+        <v>16.581</v>
+      </c>
+      <c r="I50">
+        <v>16.797999999999998</v>
+      </c>
+      <c r="J50">
+        <v>16.873000000000001</v>
+      </c>
+      <c r="K50">
+        <v>17.045999999999999</v>
+      </c>
+      <c r="L50">
+        <v>17.577000000000002</v>
+      </c>
+      <c r="M50">
+        <v>17.84</v>
+      </c>
+      <c r="N50">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="O50">
+        <v>18.422000000000001</v>
+      </c>
+      <c r="P50">
+        <v>18.71</v>
+      </c>
+      <c r="Q50">
+        <v>18.727</v>
+      </c>
+      <c r="R50">
+        <v>18.584</v>
+      </c>
+      <c r="S50">
+        <v>18.725999999999999</v>
+      </c>
+      <c r="T50">
+        <v>18.773</v>
+      </c>
+      <c r="U50">
+        <v>18.364000000000001</v>
+      </c>
+      <c r="V50">
+        <v>18.831</v>
+      </c>
+      <c r="W50">
+        <v>19.077000000000002</v>
+      </c>
+      <c r="X50">
+        <v>19.141999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>279.98599999999999</v>
+      </c>
+      <c r="C51">
+        <v>214.72800000000001</v>
+      </c>
+      <c r="D51">
+        <v>291.755</v>
+      </c>
+      <c r="E51">
+        <v>305.72399999999999</v>
+      </c>
+      <c r="F51">
+        <v>297.89400000000001</v>
+      </c>
+      <c r="G51">
+        <v>297.92599999999999</v>
+      </c>
+      <c r="H51">
+        <v>317.68900000000002</v>
+      </c>
+      <c r="I51">
+        <v>275.54500000000002</v>
+      </c>
+      <c r="J51">
+        <v>281.995</v>
+      </c>
+      <c r="K51">
+        <v>298.40999999999997</v>
+      </c>
+      <c r="L51">
+        <v>286.33300000000003</v>
+      </c>
+      <c r="M51">
+        <v>344.56099999999998</v>
+      </c>
+      <c r="N51">
+        <v>298.28700000000003</v>
+      </c>
+      <c r="O51">
+        <v>290.113</v>
+      </c>
+      <c r="P51">
+        <v>281.52699999999999</v>
+      </c>
+      <c r="Q51">
+        <v>271.12900000000002</v>
+      </c>
+      <c r="R51">
+        <v>292.113</v>
+      </c>
+      <c r="S51">
+        <v>325.11400000000003</v>
+      </c>
+      <c r="T51">
+        <v>317.00399999999996</v>
+      </c>
+      <c r="U51">
+        <v>310.57099999999997</v>
+      </c>
+      <c r="V51">
+        <v>308.21299999999997</v>
+      </c>
+      <c r="W51">
+        <v>274.096</v>
+      </c>
+      <c r="X51">
+        <v>279.06799999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>797.71799999999996</v>
+      </c>
+      <c r="C52">
+        <v>792.60400000000004</v>
+      </c>
+      <c r="D52">
+        <v>804.51900000000001</v>
+      </c>
+      <c r="E52">
+        <v>787.81799999999998</v>
+      </c>
+      <c r="F52">
+        <v>813.33900000000006</v>
+      </c>
+      <c r="G52">
+        <v>810.726</v>
+      </c>
+      <c r="H52">
+        <v>816.19500000000005</v>
+      </c>
+      <c r="I52">
+        <v>836.63400000000001</v>
+      </c>
+      <c r="J52">
+        <v>837.80399999999997</v>
+      </c>
+      <c r="K52">
+        <v>830.21</v>
+      </c>
+      <c r="L52">
+        <v>838.93100000000004</v>
+      </c>
+      <c r="M52">
+        <v>821.40499999999997</v>
+      </c>
+      <c r="N52">
+        <v>801.12900000000002</v>
+      </c>
+      <c r="O52">
+        <v>822.00400000000002</v>
+      </c>
+      <c r="P52">
+        <v>830.58399999999995</v>
+      </c>
+      <c r="Q52">
+        <v>830.28800000000001</v>
+      </c>
+      <c r="R52">
+        <v>839.91800000000001</v>
+      </c>
+      <c r="S52">
+        <v>838.86099999999999</v>
+      </c>
+      <c r="T52">
+        <v>841.32899999999995</v>
+      </c>
+      <c r="U52">
+        <v>843.33</v>
+      </c>
+      <c r="V52">
+        <v>823.15</v>
+      </c>
+      <c r="W52">
+        <v>811.55100000000004</v>
+      </c>
+      <c r="X52">
+        <v>803.66899999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>134.01499999999999</v>
+      </c>
+      <c r="C53">
+        <v>143.767</v>
+      </c>
+      <c r="D53">
+        <v>121.646</v>
+      </c>
+      <c r="E53">
+        <v>152.88</v>
+      </c>
+      <c r="F53">
+        <v>154.70699999999999</v>
+      </c>
+      <c r="G53">
+        <v>155.17099999999999</v>
+      </c>
+      <c r="H53">
+        <v>93.036999999999992</v>
+      </c>
+      <c r="I53">
+        <v>91.814999999999998</v>
+      </c>
+      <c r="J53">
+        <v>71.382000000000005</v>
+      </c>
+      <c r="K53">
+        <v>64.051999999999992</v>
+      </c>
+      <c r="L53">
+        <v>62.692</v>
+      </c>
+      <c r="M53">
+        <v>55.600999999999999</v>
+      </c>
+      <c r="N53">
+        <v>48.951000000000001</v>
+      </c>
+      <c r="O53">
+        <v>52.445999999999998</v>
+      </c>
+      <c r="P53">
+        <v>55.166000000000004</v>
+      </c>
+      <c r="Q53">
+        <v>54.754000000000005</v>
+      </c>
+      <c r="R53">
+        <v>50.466999999999999</v>
+      </c>
+      <c r="S53">
+        <v>47.513999999999996</v>
+      </c>
+      <c r="T53">
+        <v>58.063000000000002</v>
+      </c>
+      <c r="U53">
+        <v>51.272999999999996</v>
+      </c>
+      <c r="V53">
+        <v>52.521000000000001</v>
+      </c>
+      <c r="W53">
+        <v>50.584999999999994</v>
+      </c>
+      <c r="X53">
+        <v>56.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B48">
-        <v>0.49</v>
-      </c>
-      <c r="C48">
-        <v>0.54</v>
-      </c>
-      <c r="D48">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E48">
-        <v>0.53</v>
-      </c>
-      <c r="F48">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G48">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H48">
-        <v>0.51</v>
-      </c>
-      <c r="I48">
-        <v>0.61</v>
-      </c>
-      <c r="J48">
-        <v>0.86</v>
-      </c>
-      <c r="K48">
-        <v>0.89</v>
-      </c>
-      <c r="L48">
-        <v>1.21</v>
-      </c>
-      <c r="M48">
-        <v>1.82</v>
-      </c>
-      <c r="N48">
-        <v>4.33</v>
-      </c>
-      <c r="O48">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="P48">
-        <v>28.92</v>
-      </c>
-      <c r="Q48">
-        <v>39.03</v>
-      </c>
-      <c r="R48">
-        <v>54.87</v>
-      </c>
-      <c r="S48">
-        <v>77.28</v>
-      </c>
-      <c r="T48">
-        <v>93.36</v>
-      </c>
-      <c r="U48">
-        <v>106.89</v>
-      </c>
-      <c r="V48">
-        <v>130.72</v>
-      </c>
-      <c r="W48">
-        <v>164.42</v>
-      </c>
-      <c r="X48">
-        <v>205.07</v>
-      </c>
-      <c r="Y48">
-        <v>238.94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="B54">
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="C54">
+        <v>0.78499999999999992</v>
+      </c>
+      <c r="D54">
+        <v>0.83</v>
+      </c>
+      <c r="E54">
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="F54">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G54">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H54">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="I54">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="J54">
+        <v>2.093</v>
+      </c>
+      <c r="K54">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="L54">
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="M54">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="N54">
+        <v>10.145</v>
+      </c>
+      <c r="O54">
+        <v>15.872</v>
+      </c>
+      <c r="P54">
+        <v>25.763999999999999</v>
+      </c>
+      <c r="Q54">
+        <v>35.634999999999998</v>
+      </c>
+      <c r="R54">
+        <v>50.334000000000003</v>
+      </c>
+      <c r="S54">
+        <v>70.98</v>
+      </c>
+      <c r="T54">
+        <v>85.183999999999997</v>
+      </c>
+      <c r="U54">
+        <v>97.477999999999994</v>
+      </c>
+      <c r="V54">
+        <v>119.32900000000001</v>
+      </c>
+      <c r="W54">
+        <v>151.32299999999998</v>
+      </c>
+      <c r="X54">
+        <v>187.071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B49">
-        <v>5.59</v>
-      </c>
-      <c r="C49">
-        <v>6.74</v>
-      </c>
-      <c r="D49">
-        <v>10.35</v>
-      </c>
-      <c r="E49">
-        <v>11.19</v>
-      </c>
-      <c r="F49">
-        <v>14.14</v>
-      </c>
-      <c r="G49">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="H49">
-        <v>26.59</v>
-      </c>
-      <c r="I49">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="J49">
-        <v>55.36</v>
-      </c>
-      <c r="K49">
-        <v>73.89</v>
-      </c>
-      <c r="L49">
-        <v>94.65</v>
-      </c>
-      <c r="M49">
-        <v>120.18</v>
-      </c>
-      <c r="N49">
-        <v>140.82</v>
-      </c>
-      <c r="O49">
-        <v>167.84</v>
-      </c>
-      <c r="P49">
-        <v>181.65</v>
-      </c>
-      <c r="Q49">
-        <v>190.72</v>
-      </c>
-      <c r="R49">
-        <v>226.99</v>
-      </c>
-      <c r="S49">
-        <v>254.3</v>
-      </c>
-      <c r="T49">
-        <v>272.67</v>
-      </c>
-      <c r="U49">
-        <v>295.88</v>
-      </c>
-      <c r="V49">
-        <v>337.94</v>
-      </c>
-      <c r="W49">
-        <v>378.2</v>
-      </c>
-      <c r="X49">
-        <v>434.3</v>
-      </c>
-      <c r="Y49">
-        <v>421.14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B55">
+        <v>5.65</v>
+      </c>
+      <c r="C55">
+        <v>6.806</v>
+      </c>
+      <c r="D55">
+        <v>10.459</v>
+      </c>
+      <c r="E55">
+        <v>11.3</v>
+      </c>
+      <c r="F55">
+        <v>14.291</v>
+      </c>
+      <c r="G55">
+        <v>17.881</v>
+      </c>
+      <c r="H55">
+        <v>26.675999999999998</v>
+      </c>
+      <c r="I55">
+        <v>34.603000000000002</v>
+      </c>
+      <c r="J55">
+        <v>55.695999999999998</v>
+      </c>
+      <c r="K55">
+        <v>74.225999999999999</v>
+      </c>
+      <c r="L55">
+        <v>95.147999999999996</v>
+      </c>
+      <c r="M55">
+        <v>120.854</v>
+      </c>
+      <c r="N55">
+        <v>141.922</v>
+      </c>
+      <c r="O55">
+        <v>169.71299999999999</v>
+      </c>
+      <c r="P55">
+        <v>183.892</v>
+      </c>
+      <c r="Q55">
+        <v>192.99200000000002</v>
+      </c>
+      <c r="R55">
+        <v>229.471</v>
+      </c>
+      <c r="S55">
+        <v>257.24900000000002</v>
+      </c>
+      <c r="T55">
+        <v>275.834</v>
+      </c>
+      <c r="U55">
+        <v>298.2</v>
+      </c>
+      <c r="V55">
+        <v>341.81799999999998</v>
+      </c>
+      <c r="W55">
+        <v>382.81400000000002</v>
+      </c>
+      <c r="X55">
+        <v>439.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>4</v>
       </c>
-      <c r="B53">
+      <c r="B60">
         <v>2000</v>
       </c>
-      <c r="C53">
+      <c r="C60">
         <v>2001</v>
       </c>
-      <c r="D53">
+      <c r="D60">
         <v>2002</v>
       </c>
-      <c r="E53">
+      <c r="E60">
         <v>2003</v>
       </c>
-      <c r="F53">
+      <c r="F60">
         <v>2004</v>
       </c>
-      <c r="G53">
+      <c r="G60">
         <v>2005</v>
       </c>
-      <c r="H53">
+      <c r="H60">
         <v>2006</v>
       </c>
-      <c r="I53">
+      <c r="I60">
         <v>2007</v>
       </c>
-      <c r="J53">
+      <c r="J60">
         <v>2008</v>
       </c>
-      <c r="K53">
+      <c r="K60">
         <v>2009</v>
       </c>
-      <c r="L53">
+      <c r="L60">
         <v>2010</v>
       </c>
-      <c r="M53">
+      <c r="M60">
         <v>2011</v>
       </c>
-      <c r="N53">
+      <c r="N60">
         <v>2012</v>
       </c>
-      <c r="O53">
+      <c r="O60">
         <v>2013</v>
       </c>
-      <c r="P53">
+      <c r="P60">
         <v>2014</v>
       </c>
-      <c r="Q53">
+      <c r="Q60">
         <v>2015</v>
       </c>
-      <c r="R53">
+      <c r="R60">
         <v>2016</v>
       </c>
-      <c r="S53">
+      <c r="S60">
         <v>2017</v>
       </c>
-      <c r="T53">
+      <c r="T60">
         <v>2018</v>
       </c>
-      <c r="U53">
+      <c r="U60">
         <v>2019</v>
       </c>
-      <c r="V53">
+      <c r="V60">
         <v>2020</v>
       </c>
-      <c r="W53">
+      <c r="W60">
         <v>2021</v>
       </c>
-      <c r="X53">
+      <c r="X60">
         <v>2022</v>
       </c>
-      <c r="Y53">
+      <c r="Y60">
         <v>2023</v>
       </c>
-      <c r="Z53">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B54">
-        <v>6.796149999999999</v>
-      </c>
-      <c r="C54">
-        <v>8.3813949999999995</v>
-      </c>
-      <c r="D54">
-        <v>8.4054149999999996</v>
-      </c>
-      <c r="E54">
-        <v>8.4073600000000006</v>
-      </c>
-      <c r="F54">
-        <v>8.6129899999999999</v>
-      </c>
-      <c r="G54">
-        <v>8.7186249999999994</v>
-      </c>
-      <c r="H54">
-        <v>9.0057599999999987</v>
-      </c>
-      <c r="I54">
-        <v>9.7297499999999992</v>
-      </c>
-      <c r="J54">
-        <v>9.9424499999999991</v>
-      </c>
-      <c r="K54">
-        <v>10.142300000000001</v>
-      </c>
-      <c r="L54">
-        <v>10.295999999999999</v>
-      </c>
-      <c r="M54">
-        <v>10.493450000000001</v>
-      </c>
-      <c r="N54">
-        <v>11.216849999999999</v>
-      </c>
-      <c r="O54">
-        <v>12.283349999999999</v>
-      </c>
-      <c r="P54">
-        <v>12.419550000000001</v>
-      </c>
-      <c r="Q54">
-        <v>12.9693</v>
-      </c>
-      <c r="R54">
-        <v>12.900699999999999</v>
-      </c>
-      <c r="S54">
-        <v>12.837900000000001</v>
-      </c>
-      <c r="T54">
-        <v>12.616149999999999</v>
-      </c>
-      <c r="U54">
-        <v>12.052950000000001</v>
-      </c>
-      <c r="V54">
-        <v>11.8889</v>
-      </c>
-      <c r="W54">
-        <v>11.334</v>
-      </c>
-      <c r="X54">
-        <v>11.1015</v>
-      </c>
-      <c r="Y54">
-        <v>10.9895</v>
-      </c>
-      <c r="Z54">
-        <v>10.9101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B61">
+        <v>9.59</v>
+      </c>
+      <c r="C61">
+        <v>10.59</v>
+      </c>
+      <c r="D61">
+        <v>10.66</v>
+      </c>
+      <c r="E61">
+        <v>10.540000000000001</v>
+      </c>
+      <c r="F61">
+        <v>10.76</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>11.280000000000001</v>
+      </c>
+      <c r="I61">
+        <v>11.94</v>
+      </c>
+      <c r="J61">
+        <v>12.17</v>
+      </c>
+      <c r="K61">
+        <v>12.53</v>
+      </c>
+      <c r="L61">
+        <v>12.7</v>
+      </c>
+      <c r="M61">
+        <v>12.899999999999999</v>
+      </c>
+      <c r="N61">
+        <v>13.809999999999999</v>
+      </c>
+      <c r="O61">
+        <v>14.89</v>
+      </c>
+      <c r="P61">
+        <v>14.93</v>
+      </c>
+      <c r="Q61">
+        <v>15.52</v>
+      </c>
+      <c r="R61">
+        <v>15.42</v>
+      </c>
+      <c r="S61">
+        <v>15.33</v>
+      </c>
+      <c r="T61">
+        <v>15.06</v>
+      </c>
+      <c r="U61">
+        <v>14.61</v>
+      </c>
+      <c r="V61">
+        <v>14.46</v>
+      </c>
+      <c r="W61">
+        <v>13.94</v>
+      </c>
+      <c r="X61">
+        <v>13.75</v>
+      </c>
+      <c r="Y61">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B55">
-        <v>321.05500000000001</v>
-      </c>
-      <c r="C55">
-        <v>315.09773999999999</v>
-      </c>
-      <c r="D55">
-        <v>316.19997999999998</v>
-      </c>
-      <c r="E55">
-        <v>313.87878000000001</v>
-      </c>
-      <c r="F55">
-        <v>314.02522999999997</v>
-      </c>
-      <c r="G55">
-        <v>314.28313000000003</v>
-      </c>
-      <c r="H55">
-        <v>313.87216999999998</v>
-      </c>
-      <c r="I55">
-        <v>313.64070000000004</v>
-      </c>
-      <c r="J55">
-        <v>314.23070000000001</v>
-      </c>
-      <c r="K55">
-        <v>315.13</v>
-      </c>
-      <c r="L55">
-        <v>317.73700000000002</v>
-      </c>
-      <c r="M55">
-        <v>318.58100000000002</v>
-      </c>
-      <c r="N55">
-        <v>310.49809999999997</v>
-      </c>
-      <c r="O55">
-        <v>304.12809999999996</v>
-      </c>
-      <c r="P55">
-        <v>299.90940000000001</v>
-      </c>
-      <c r="Q55">
-        <v>280.77350000000001</v>
-      </c>
-      <c r="R55">
-        <v>267.61500000000001</v>
-      </c>
-      <c r="S55">
-        <v>257.47339999999997</v>
-      </c>
-      <c r="T55">
-        <v>243.71170000000001</v>
-      </c>
-      <c r="U55">
-        <v>229.57550000000001</v>
-      </c>
-      <c r="V55">
-        <v>216.47229999999999</v>
-      </c>
-      <c r="W55">
-        <v>210.60479999999998</v>
-      </c>
-      <c r="X55">
-        <v>190.0273</v>
-      </c>
-      <c r="Y55">
-        <v>181.46689999999998</v>
-      </c>
-      <c r="Z55">
-        <v>177.0069</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="B62">
+        <v>334.24</v>
+      </c>
+      <c r="C62">
+        <v>335.32</v>
+      </c>
+      <c r="D62">
+        <v>335.8</v>
+      </c>
+      <c r="E62">
+        <v>334.47</v>
+      </c>
+      <c r="F62">
+        <v>334.48</v>
+      </c>
+      <c r="G62">
+        <v>334.63</v>
+      </c>
+      <c r="H62">
+        <v>334.94</v>
+      </c>
+      <c r="I62">
+        <v>333.64</v>
+      </c>
+      <c r="J62">
+        <v>334.56</v>
+      </c>
+      <c r="K62">
+        <v>335.94</v>
+      </c>
+      <c r="L62">
+        <v>339.36</v>
+      </c>
+      <c r="M62">
+        <v>340.2</v>
+      </c>
+      <c r="N62">
+        <v>332.88</v>
+      </c>
+      <c r="O62">
+        <v>327.89</v>
+      </c>
+      <c r="P62">
+        <v>323.38</v>
+      </c>
+      <c r="Q62">
+        <v>301.70999999999998</v>
+      </c>
+      <c r="R62">
+        <v>285.75</v>
+      </c>
+      <c r="S62">
+        <v>276.88</v>
+      </c>
+      <c r="T62">
+        <v>260.95</v>
+      </c>
+      <c r="U62">
+        <v>244.7</v>
+      </c>
+      <c r="V62">
+        <v>233.04</v>
+      </c>
+      <c r="W62">
+        <v>224.59</v>
+      </c>
+      <c r="X62">
+        <v>209.94</v>
+      </c>
+      <c r="Y62">
+        <v>200.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>2</v>
       </c>
-      <c r="B56">
-        <v>243.24100000000001</v>
-      </c>
-      <c r="C56">
-        <v>233.81331</v>
-      </c>
-      <c r="D56">
-        <v>313.74014</v>
-      </c>
-      <c r="E56">
-        <v>356.62590999999998</v>
-      </c>
-      <c r="F56">
-        <v>372.10201000000001</v>
-      </c>
-      <c r="G56">
-        <v>383.88529</v>
-      </c>
-      <c r="H56">
-        <v>389.38721000000004</v>
-      </c>
-      <c r="I56">
-        <v>393.9015</v>
-      </c>
-      <c r="J56">
-        <v>398.26979999999998</v>
-      </c>
-      <c r="K56">
-        <v>402.02679999999998</v>
-      </c>
-      <c r="L56">
-        <v>406.87579999999997</v>
-      </c>
-      <c r="M56">
-        <v>416.1848</v>
-      </c>
-      <c r="N56">
-        <v>423.4923</v>
-      </c>
-      <c r="O56">
-        <v>426.67570000000001</v>
-      </c>
-      <c r="P56">
-        <v>433.24940000000004</v>
-      </c>
-      <c r="Q56">
-        <v>440.87220000000002</v>
-      </c>
-      <c r="R56">
-        <v>448.28500000000003</v>
-      </c>
-      <c r="S56">
-        <v>457.46129999999999</v>
-      </c>
-      <c r="T56">
-        <v>471.85470000000004</v>
-      </c>
-      <c r="U56">
-        <v>478.14850000000001</v>
-      </c>
-      <c r="V56">
-        <v>487.16429999999997</v>
-      </c>
-      <c r="W56">
-        <v>492.97909999999996</v>
-      </c>
-      <c r="X56">
-        <v>503.41409999999996</v>
-      </c>
-      <c r="Y56">
-        <v>508.3458</v>
-      </c>
-      <c r="Z56">
-        <v>506.93170000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="C57">
-        <v>2.2162100000000002</v>
-      </c>
-      <c r="D57">
-        <v>2.2522500000000001</v>
-      </c>
-      <c r="E57">
-        <v>2.1332499999999999</v>
-      </c>
-      <c r="F57">
-        <v>2.1520799999999998</v>
-      </c>
-      <c r="G57">
-        <v>2.2853000000000003</v>
-      </c>
-      <c r="H57">
-        <v>2.2739799999999999</v>
-      </c>
-      <c r="I57">
-        <v>2.2141999999999999</v>
-      </c>
-      <c r="J57">
-        <v>2.2288000000000001</v>
-      </c>
-      <c r="K57">
-        <v>2.3818999999999999</v>
-      </c>
-      <c r="L57">
-        <v>2.4045999999999998</v>
-      </c>
-      <c r="M57">
-        <v>2.4091999999999998</v>
-      </c>
-      <c r="N57">
-        <v>2.5920999999999998</v>
-      </c>
-      <c r="O57">
-        <v>2.6070000000000002</v>
-      </c>
-      <c r="P57">
-        <v>2.5143</v>
-      </c>
-      <c r="Q57">
-        <v>2.5415000000000001</v>
-      </c>
-      <c r="R57">
-        <v>2.5165999999999999</v>
-      </c>
-      <c r="S57">
-        <v>2.4833000000000003</v>
-      </c>
-      <c r="T57">
-        <v>2.4443000000000001</v>
-      </c>
-      <c r="U57">
-        <v>2.5554000000000001</v>
-      </c>
-      <c r="V57">
-        <v>2.5719000000000003</v>
-      </c>
-      <c r="W57">
-        <v>2.5966999999999998</v>
-      </c>
-      <c r="X57">
-        <v>2.6486000000000001</v>
-      </c>
-      <c r="Y57">
-        <v>2.6736</v>
-      </c>
-      <c r="Z57">
-        <v>2.7028000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="B63">
+        <v>161.54</v>
+      </c>
+      <c r="C63">
+        <v>199.67</v>
+      </c>
+      <c r="D63">
+        <v>264.55</v>
+      </c>
+      <c r="E63">
+        <v>319.04000000000002</v>
+      </c>
+      <c r="F63">
+        <v>343.88</v>
+      </c>
+      <c r="G63">
+        <v>359.84</v>
+      </c>
+      <c r="H63">
+        <v>371.13</v>
+      </c>
+      <c r="I63">
+        <v>378.97</v>
+      </c>
+      <c r="J63">
+        <v>388.45</v>
+      </c>
+      <c r="K63">
+        <v>399.05</v>
+      </c>
+      <c r="L63">
+        <v>407.07</v>
+      </c>
+      <c r="M63">
+        <v>418.3</v>
+      </c>
+      <c r="N63">
+        <v>429.01</v>
+      </c>
+      <c r="O63">
+        <v>437.26</v>
+      </c>
+      <c r="P63">
+        <v>448.9</v>
+      </c>
+      <c r="Q63">
+        <v>460.37</v>
+      </c>
+      <c r="R63">
+        <v>473.01</v>
+      </c>
+      <c r="S63">
+        <v>484.89</v>
+      </c>
+      <c r="T63">
+        <v>509.07</v>
+      </c>
+      <c r="U63">
+        <v>519.28</v>
+      </c>
+      <c r="V63">
+        <v>523.75</v>
+      </c>
+      <c r="W63">
+        <v>530.26</v>
+      </c>
+      <c r="X63">
+        <v>535.49</v>
+      </c>
+      <c r="Y63">
+        <v>542.92999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>8</v>
       </c>
-      <c r="B58">
-        <v>97.600000000000009</v>
-      </c>
-      <c r="C58">
-        <v>98.580000000000013</v>
-      </c>
-      <c r="D58">
-        <v>99.727000000000004</v>
-      </c>
-      <c r="E58">
-        <v>99.215999999999994</v>
-      </c>
-      <c r="F58">
-        <v>98.405000000000001</v>
-      </c>
-      <c r="G58">
-        <v>98.887</v>
-      </c>
-      <c r="H58">
-        <v>99.282000000000011</v>
-      </c>
-      <c r="I58">
-        <v>99.770999999999987</v>
-      </c>
-      <c r="J58">
-        <v>99.787999999999997</v>
-      </c>
-      <c r="K58">
-        <v>100.678</v>
-      </c>
-      <c r="L58">
-        <v>101.1204</v>
-      </c>
-      <c r="M58">
-        <v>101.0419</v>
-      </c>
-      <c r="N58">
-        <v>101.2259</v>
-      </c>
-      <c r="O58">
-        <v>101.69289999999999</v>
-      </c>
-      <c r="P58">
-        <v>102.27019999999999</v>
-      </c>
-      <c r="Q58">
-        <v>102.36019999999999</v>
-      </c>
-      <c r="R58">
-        <v>102.84774899999999</v>
-      </c>
-      <c r="S58">
-        <v>102.85131799999999</v>
-      </c>
-      <c r="T58">
-        <v>102.960565</v>
-      </c>
-      <c r="U58">
-        <v>102.814713</v>
-      </c>
-      <c r="V58">
-        <v>103.188447</v>
-      </c>
-      <c r="W58">
-        <v>103.159282</v>
-      </c>
-      <c r="X58">
-        <v>103.33971200000001</v>
-      </c>
-      <c r="Y58">
-        <v>103.25035299999999</v>
-      </c>
-      <c r="Z58">
-        <v>103.103253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59">
-        <v>97.86</v>
-      </c>
-      <c r="C59">
-        <v>98.158899999999988</v>
-      </c>
-      <c r="D59">
-        <v>98.656999999999996</v>
-      </c>
-      <c r="E59">
-        <v>99.208860000000001</v>
-      </c>
-      <c r="F59">
-        <v>99.628100000000003</v>
-      </c>
-      <c r="G59">
-        <v>99.988039999999998</v>
-      </c>
-      <c r="H59">
-        <v>100.33377</v>
-      </c>
-      <c r="I59">
-        <v>100.2657</v>
-      </c>
-      <c r="J59">
-        <v>100.75489999999999</v>
-      </c>
-      <c r="K59">
-        <v>101.00369999999999</v>
-      </c>
-      <c r="L59">
-        <v>101.1674</v>
-      </c>
-      <c r="M59">
-        <v>101.4188</v>
-      </c>
-      <c r="N59">
-        <v>101.88500000000001</v>
-      </c>
-      <c r="O59">
-        <v>99.240300000000005</v>
-      </c>
-      <c r="P59">
-        <v>98.569299999999998</v>
-      </c>
-      <c r="Q59">
-        <v>98.671999999999997</v>
-      </c>
-      <c r="R59">
-        <v>99.564800000000005</v>
-      </c>
-      <c r="S59">
-        <v>99.628899999999987</v>
-      </c>
-      <c r="T59">
-        <v>99.432899999999989</v>
-      </c>
-      <c r="U59">
-        <v>98.119</v>
-      </c>
-      <c r="V59">
-        <v>96.500600000000006</v>
-      </c>
-      <c r="W59">
-        <v>95.546399999999991</v>
-      </c>
-      <c r="X59">
-        <v>94.658899999999988</v>
-      </c>
-      <c r="Y59">
-        <v>95.772899999999993</v>
-      </c>
-      <c r="Z59">
-        <v>96.886899999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>86.087164999999999</v>
-      </c>
-      <c r="C60">
-        <v>87.751305000000002</v>
-      </c>
-      <c r="D60">
-        <v>61.516044999999998</v>
-      </c>
-      <c r="E60">
-        <v>62.584490000000002</v>
-      </c>
-      <c r="F60">
-        <v>61.162999999999997</v>
-      </c>
-      <c r="G60">
-        <v>60.854835000000001</v>
-      </c>
-      <c r="H60">
-        <v>60.320080000000004</v>
-      </c>
-      <c r="I60">
-        <v>58.348350000000003</v>
-      </c>
-      <c r="J60">
-        <v>59.769349999999996</v>
-      </c>
-      <c r="K60">
-        <v>59.1233</v>
-      </c>
-      <c r="L60">
-        <v>59.525500000000001</v>
-      </c>
-      <c r="M60">
-        <v>53.92915</v>
-      </c>
-      <c r="N60">
-        <v>49.832649999999994</v>
-      </c>
-      <c r="O60">
-        <v>46.755250000000004</v>
-      </c>
-      <c r="P60">
-        <v>44.843950000000007</v>
-      </c>
-      <c r="Q60">
-        <v>39.415800000000004</v>
-      </c>
-      <c r="R60">
-        <v>36.920600000000007</v>
-      </c>
-      <c r="S60">
-        <v>36.6036</v>
-      </c>
-      <c r="T60">
-        <v>34.782850000000003</v>
-      </c>
-      <c r="U60">
-        <v>34.005249999999997</v>
-      </c>
-      <c r="V60">
-        <v>30.154299999999999</v>
-      </c>
-      <c r="W60">
-        <v>30.7805</v>
-      </c>
-      <c r="X60">
-        <v>33.178799999999995</v>
-      </c>
-      <c r="Y60">
-        <v>32.158799999999999</v>
-      </c>
-      <c r="Z60">
-        <v>31.953700000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61">
-        <v>0.59371299999999994</v>
-      </c>
-      <c r="C61">
-        <v>0.59860000000000002</v>
-      </c>
-      <c r="D61">
-        <v>0.64260000000000006</v>
-      </c>
-      <c r="E61">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="F61">
-        <v>0.75180000000000002</v>
-      </c>
-      <c r="G61">
-        <v>0.89379999999999993</v>
-      </c>
-      <c r="H61">
-        <v>1.0988</v>
-      </c>
-      <c r="I61">
-        <v>1.4388000000000001</v>
-      </c>
-      <c r="J61">
-        <v>1.6177999999999999</v>
-      </c>
-      <c r="K61">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="L61">
-        <v>3.3819999999999997</v>
-      </c>
-      <c r="M61">
-        <v>5.6434999999999995</v>
-      </c>
-      <c r="N61">
-        <v>8.6129999999999995</v>
-      </c>
-      <c r="O61">
-        <v>13.245500000000002</v>
-      </c>
-      <c r="P61">
-        <v>18.112127999999998</v>
-      </c>
-      <c r="Q61">
-        <v>24.236846</v>
-      </c>
-      <c r="R61">
-        <v>35.433673999999996</v>
-      </c>
-      <c r="S61">
-        <v>43.769840000000002</v>
-      </c>
-      <c r="T61">
-        <v>51.986993999999996</v>
-      </c>
-      <c r="U61">
-        <v>61.587229000000001</v>
-      </c>
-      <c r="V61">
-        <v>76.441096999999999</v>
-      </c>
-      <c r="W61">
-        <v>95.390912999999998</v>
-      </c>
-      <c r="X61">
-        <v>114.36094700000001</v>
-      </c>
-      <c r="Y61">
-        <v>139.205277</v>
-      </c>
-      <c r="Z61">
-        <v>177.47027699999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62">
-        <v>2.3769999999999998</v>
-      </c>
-      <c r="C62">
-        <v>3.8636399999999997</v>
-      </c>
-      <c r="D62">
-        <v>4.4166400000000001</v>
-      </c>
-      <c r="E62">
-        <v>5.99519</v>
-      </c>
-      <c r="F62">
-        <v>6.4558</v>
-      </c>
-      <c r="G62">
-        <v>8.70641</v>
-      </c>
-      <c r="H62">
-        <v>11.328790000000001</v>
-      </c>
-      <c r="I62">
-        <v>16.515099999999997</v>
-      </c>
-      <c r="J62">
-        <v>24.651299999999999</v>
-      </c>
-      <c r="K62">
-        <v>34.2958</v>
-      </c>
-      <c r="L62">
-        <v>39.349694999999997</v>
-      </c>
-      <c r="M62">
-        <v>45.794967999999997</v>
-      </c>
-      <c r="N62">
-        <v>59.453299000000001</v>
-      </c>
-      <c r="O62">
-        <v>60.198163999999998</v>
-      </c>
-      <c r="P62">
-        <v>64.430186000000006</v>
-      </c>
-      <c r="Q62">
-        <v>72.767236000000011</v>
-      </c>
-      <c r="R62">
-        <v>81.502362000000005</v>
-      </c>
-      <c r="S62">
-        <v>87.830780000000004</v>
-      </c>
-      <c r="T62">
-        <v>94.666184999999999</v>
-      </c>
-      <c r="U62">
-        <v>103.835556</v>
-      </c>
-      <c r="V62">
-        <v>118.66354000000001</v>
-      </c>
-      <c r="W62">
-        <v>133.01927700000002</v>
-      </c>
-      <c r="X62">
-        <v>141.673912</v>
-      </c>
-      <c r="Y62">
-        <v>148.01986099999999</v>
-      </c>
-      <c r="Z62">
-        <v>153.15226100000001</v>
+      <c r="B64">
+        <v>79.36</v>
+      </c>
+      <c r="C64">
+        <v>78.92</v>
+      </c>
+      <c r="D64">
+        <v>79.36</v>
+      </c>
+      <c r="E64">
+        <v>78.69</v>
+      </c>
+      <c r="F64">
+        <v>77.64</v>
+      </c>
+      <c r="G64">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="H64">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="I64">
+        <v>77.88</v>
+      </c>
+      <c r="J64">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="K64">
+        <v>78.52</v>
+      </c>
+      <c r="L64">
+        <v>82.61</v>
+      </c>
+      <c r="M64">
+        <v>82.45</v>
+      </c>
+      <c r="N64">
+        <v>82.56</v>
+      </c>
+      <c r="O64">
+        <v>83.01</v>
+      </c>
+      <c r="P64">
+        <v>83.49</v>
+      </c>
+      <c r="Q64">
+        <v>83.5</v>
+      </c>
+      <c r="R64">
+        <v>83.82</v>
+      </c>
+      <c r="S64">
+        <v>83.79</v>
+      </c>
+      <c r="T64">
+        <v>83.88</v>
+      </c>
+      <c r="U64">
+        <v>83.79</v>
+      </c>
+      <c r="V64">
+        <v>83.83</v>
+      </c>
+      <c r="W64">
+        <v>84.29</v>
+      </c>
+      <c r="X64">
+        <v>86.63</v>
+      </c>
+      <c r="Y64">
+        <v>86.66</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>97.86</v>
+      </c>
+      <c r="C65">
+        <v>98.16</v>
+      </c>
+      <c r="D65">
+        <v>98.66</v>
+      </c>
+      <c r="E65">
+        <v>99.21</v>
+      </c>
+      <c r="F65">
+        <v>99.63</v>
+      </c>
+      <c r="G65">
+        <v>99.99</v>
+      </c>
+      <c r="H65">
+        <v>100.33</v>
+      </c>
+      <c r="I65">
+        <v>100.27</v>
+      </c>
+      <c r="J65">
+        <v>100.75</v>
+      </c>
+      <c r="K65">
+        <v>101</v>
+      </c>
+      <c r="L65">
+        <v>101.17</v>
+      </c>
+      <c r="M65">
+        <v>101.42</v>
+      </c>
+      <c r="N65">
+        <v>101.89</v>
+      </c>
+      <c r="O65">
+        <v>99.24</v>
+      </c>
+      <c r="P65">
+        <v>98.57</v>
+      </c>
+      <c r="Q65">
+        <v>98.67</v>
+      </c>
+      <c r="R65">
+        <v>99.56</v>
+      </c>
+      <c r="S65">
+        <v>99.63</v>
+      </c>
+      <c r="T65">
+        <v>99.43</v>
+      </c>
+      <c r="U65">
+        <v>98.12</v>
+      </c>
+      <c r="V65">
+        <v>96.5</v>
+      </c>
+      <c r="W65">
+        <v>95.55</v>
+      </c>
+      <c r="X65">
+        <v>94.66</v>
+      </c>
+      <c r="Y65">
+        <v>95.77</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>2000</v>
+        <v>86.09</v>
       </c>
       <c r="C66">
-        <v>2001</v>
+        <v>87.75</v>
       </c>
       <c r="D66">
-        <v>2002</v>
+        <v>61.52</v>
       </c>
       <c r="E66">
-        <v>2003</v>
+        <v>62.58</v>
       </c>
       <c r="F66">
-        <v>2004</v>
+        <v>61.16</v>
       </c>
       <c r="G66">
-        <v>2005</v>
+        <v>60.85</v>
       </c>
       <c r="H66">
-        <v>2006</v>
+        <v>60.32</v>
       </c>
       <c r="I66">
-        <v>2007</v>
+        <v>58.35</v>
       </c>
       <c r="J66">
-        <v>2008</v>
+        <v>59.77</v>
       </c>
       <c r="K66">
-        <v>2009</v>
+        <v>59.12</v>
       </c>
       <c r="L66">
-        <v>2010</v>
+        <v>59.53</v>
       </c>
       <c r="M66">
-        <v>2011</v>
+        <v>53.93</v>
       </c>
       <c r="N66">
-        <v>2012</v>
+        <v>49.83</v>
       </c>
       <c r="O66">
-        <v>2013</v>
+        <v>46.76</v>
       </c>
       <c r="P66">
-        <v>2014</v>
+        <v>44.84</v>
       </c>
       <c r="Q66">
-        <v>2015</v>
+        <v>39.42</v>
       </c>
       <c r="R66">
-        <v>2016</v>
+        <v>36.92</v>
       </c>
       <c r="S66">
-        <v>2017</v>
+        <v>36.6</v>
       </c>
       <c r="T66">
-        <v>2018</v>
+        <v>34.78</v>
       </c>
       <c r="U66">
-        <v>2019</v>
+        <v>34.01</v>
       </c>
       <c r="V66">
-        <v>2020</v>
+        <v>30.15</v>
       </c>
       <c r="W66">
-        <v>2021</v>
+        <v>30.78</v>
       </c>
       <c r="X66">
-        <v>2022</v>
+        <v>33.18</v>
+      </c>
+      <c r="Y66">
+        <v>32.159999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>56.180000999999997</v>
+        <v>0.59</v>
       </c>
       <c r="C67">
-        <v>50.336998999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D67">
-        <v>54.022998000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E67">
-        <v>54.120998</v>
+        <v>0.68</v>
       </c>
       <c r="F67">
-        <v>55.783000999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G67">
-        <v>57.980998000000007</v>
+        <v>0.89</v>
       </c>
       <c r="H67">
-        <v>58.795999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I67">
-        <v>59.120998</v>
+        <v>1.44</v>
       </c>
       <c r="J67">
-        <v>59.647000999999996</v>
+        <v>1.62</v>
       </c>
       <c r="K67">
-        <v>59.318998000000001</v>
+        <v>2.09</v>
       </c>
       <c r="L67">
-        <v>61.743999000000002</v>
+        <v>3.38</v>
       </c>
       <c r="M67">
-        <v>62.319999999999993</v>
+        <v>5.64</v>
       </c>
       <c r="N67">
-        <v>64.108999000000011</v>
+        <v>8.61</v>
       </c>
       <c r="O67">
-        <v>66.93900099999999</v>
+        <v>13.25</v>
       </c>
       <c r="P67">
-        <v>70.818002000000007</v>
+        <v>18.11</v>
       </c>
       <c r="Q67">
-        <v>70.066997000000001</v>
+        <v>24.24</v>
       </c>
       <c r="R67">
-        <v>69.016998000000001</v>
+        <v>35.43</v>
       </c>
       <c r="S67">
-        <v>68.857004000000003</v>
+        <v>43.77</v>
       </c>
       <c r="T67">
-        <v>67.885000000000005</v>
+        <v>51.99</v>
       </c>
       <c r="U67">
-        <v>63.193999000000005</v>
+        <v>61.59</v>
       </c>
       <c r="V67">
-        <v>60.269001000000003</v>
+        <v>76.44</v>
       </c>
       <c r="W67">
-        <v>59.582001999999996</v>
+        <v>95.39</v>
       </c>
       <c r="X67">
-        <v>57.146000000000001</v>
+        <v>114.36</v>
+      </c>
+      <c r="Y67">
+        <v>139.21</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>2129.498</v>
+        <v>2.38</v>
       </c>
       <c r="C68">
-        <v>1982.12</v>
+        <v>3.86</v>
       </c>
       <c r="D68">
-        <v>2039.665</v>
+        <v>4.42</v>
       </c>
       <c r="E68">
-        <v>2083.326</v>
+        <v>6</v>
       </c>
       <c r="F68">
-        <v>2090.4949999999999</v>
+        <v>6.46</v>
       </c>
       <c r="G68">
-        <v>2153.9560000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="H68">
-        <v>2127.7959999999998</v>
+        <v>11.33</v>
       </c>
       <c r="I68">
-        <v>2118.4549999999999</v>
+        <v>16.52</v>
       </c>
       <c r="J68">
-        <v>2132.596</v>
+        <v>24.65</v>
       </c>
       <c r="K68">
-        <v>1892.6610000000001</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="L68">
-        <v>1994.194</v>
+        <v>39.35</v>
       </c>
       <c r="M68">
-        <v>1875.413</v>
+        <v>45.79</v>
       </c>
       <c r="N68">
-        <v>1643.43</v>
+        <v>59.45</v>
       </c>
       <c r="O68">
-        <v>1712.4079999999999</v>
+        <v>60.2</v>
       </c>
       <c r="P68">
-        <v>1712.577</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="Q68">
-        <v>1470.9970000000001</v>
+        <v>72.77</v>
       </c>
       <c r="R68">
-        <v>1354.0340000000001</v>
+        <v>81.5</v>
       </c>
       <c r="S68">
-        <v>1321.4190000000001</v>
+        <v>87.83</v>
       </c>
       <c r="T68">
-        <v>1272.1500000000001</v>
+        <v>94.67</v>
       </c>
       <c r="U68">
-        <v>1069.528</v>
+        <v>103.84</v>
       </c>
       <c r="V68">
-        <v>855.77</v>
+        <v>118.66</v>
       </c>
       <c r="W68">
-        <v>991.56100000000004</v>
+        <v>133.02000000000001</v>
       </c>
       <c r="X68">
-        <v>913.30200000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69">
-        <v>634.29</v>
-      </c>
-      <c r="C69">
-        <v>659.91399999999999</v>
-      </c>
-      <c r="D69">
-        <v>712.43200000000002</v>
-      </c>
-      <c r="E69">
-        <v>670.19200000000001</v>
-      </c>
-      <c r="F69">
-        <v>731.55200000000002</v>
-      </c>
-      <c r="G69">
-        <v>782.82899999999995</v>
-      </c>
-      <c r="H69">
-        <v>842.774</v>
-      </c>
-      <c r="I69">
-        <v>915.19600000000003</v>
-      </c>
-      <c r="J69">
-        <v>910.17600000000004</v>
-      </c>
-      <c r="K69">
-        <v>949.77599999999995</v>
-      </c>
-      <c r="L69">
-        <v>1017.869</v>
-      </c>
-      <c r="M69">
-        <v>1045.2539999999999</v>
-      </c>
-      <c r="N69">
-        <v>1264.5519999999999</v>
-      </c>
-      <c r="O69">
-        <v>1158.454</v>
-      </c>
-      <c r="P69">
-        <v>1161.3330000000001</v>
-      </c>
-      <c r="Q69">
-        <v>1372.57</v>
-      </c>
-      <c r="R69">
-        <v>1418.1</v>
-      </c>
-      <c r="S69">
-        <v>1337.703</v>
-      </c>
-      <c r="T69">
-        <v>1519.2170000000001</v>
-      </c>
-      <c r="U69">
-        <v>1639.826</v>
-      </c>
-      <c r="V69">
-        <v>1680.143</v>
-      </c>
-      <c r="W69">
-        <v>1634.0889999999999</v>
-      </c>
-      <c r="X69">
-        <v>1740.421</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70">
-        <v>14.621</v>
-      </c>
-      <c r="C70">
-        <v>14.246</v>
-      </c>
-      <c r="D70">
-        <v>14.939</v>
-      </c>
-      <c r="E70">
-        <v>14.87</v>
-      </c>
-      <c r="F70">
-        <v>15.487</v>
-      </c>
-      <c r="G70">
-        <v>16.777999999999999</v>
-      </c>
-      <c r="H70">
-        <v>16.581</v>
-      </c>
-      <c r="I70">
-        <v>16.797999999999998</v>
-      </c>
-      <c r="J70">
-        <v>16.873000000000001</v>
-      </c>
-      <c r="K70">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="L70">
-        <v>17.577000000000002</v>
-      </c>
-      <c r="M70">
-        <v>17.84</v>
-      </c>
-      <c r="N70">
-        <v>18.135000000000002</v>
-      </c>
-      <c r="O70">
-        <v>18.422000000000001</v>
-      </c>
-      <c r="P70">
-        <v>18.71</v>
-      </c>
-      <c r="Q70">
-        <v>18.727</v>
-      </c>
-      <c r="R70">
-        <v>18.584</v>
-      </c>
-      <c r="S70">
-        <v>18.725999999999999</v>
-      </c>
-      <c r="T70">
-        <v>18.773</v>
-      </c>
-      <c r="U70">
-        <v>18.364000000000001</v>
-      </c>
-      <c r="V70">
-        <v>18.831</v>
-      </c>
-      <c r="W70">
-        <v>19.077000000000002</v>
-      </c>
-      <c r="X70">
-        <v>19.141999999999999</v>
+        <v>141.66999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>148.02000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>279.98599999999999</v>
-      </c>
-      <c r="C71">
-        <v>214.72800000000001</v>
-      </c>
-      <c r="D71">
-        <v>291.755</v>
-      </c>
-      <c r="E71">
-        <v>305.72399999999999</v>
-      </c>
-      <c r="F71">
-        <v>297.89400000000001</v>
-      </c>
-      <c r="G71">
-        <v>297.92599999999999</v>
-      </c>
-      <c r="H71">
-        <v>317.68900000000002</v>
-      </c>
-      <c r="I71">
-        <v>275.54500000000002</v>
-      </c>
-      <c r="J71">
-        <v>281.995</v>
-      </c>
-      <c r="K71">
-        <v>298.40999999999997</v>
-      </c>
-      <c r="L71">
-        <v>286.33300000000003</v>
-      </c>
-      <c r="M71">
-        <v>344.56099999999998</v>
-      </c>
-      <c r="N71">
-        <v>298.28700000000003</v>
-      </c>
-      <c r="O71">
-        <v>290.113</v>
-      </c>
-      <c r="P71">
-        <v>281.52699999999999</v>
-      </c>
-      <c r="Q71">
-        <v>271.12900000000002</v>
-      </c>
-      <c r="R71">
-        <v>292.113</v>
-      </c>
-      <c r="S71">
-        <v>325.11400000000003</v>
-      </c>
-      <c r="T71">
-        <v>317.00399999999996</v>
-      </c>
-      <c r="U71">
-        <v>310.57099999999997</v>
-      </c>
-      <c r="V71">
-        <v>308.21299999999997</v>
-      </c>
-      <c r="W71">
-        <v>274.096</v>
-      </c>
-      <c r="X71">
-        <v>279.06799999999998</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>797.71799999999996</v>
+        <v>2000</v>
       </c>
       <c r="C72">
-        <v>792.60400000000004</v>
+        <v>2001</v>
       </c>
       <c r="D72">
-        <v>804.51900000000001</v>
+        <v>2002</v>
       </c>
       <c r="E72">
-        <v>787.81799999999998</v>
+        <v>2003</v>
       </c>
       <c r="F72">
-        <v>813.33900000000006</v>
+        <v>2004</v>
       </c>
       <c r="G72">
-        <v>810.726</v>
+        <v>2005</v>
       </c>
       <c r="H72">
-        <v>816.19500000000005</v>
+        <v>2006</v>
       </c>
       <c r="I72">
-        <v>836.63400000000001</v>
+        <v>2007</v>
       </c>
       <c r="J72">
-        <v>837.80399999999997</v>
+        <v>2008</v>
       </c>
       <c r="K72">
-        <v>830.21</v>
+        <v>2009</v>
       </c>
       <c r="L72">
-        <v>838.93100000000004</v>
+        <v>2010</v>
       </c>
       <c r="M72">
-        <v>821.40499999999997</v>
+        <v>2011</v>
       </c>
       <c r="N72">
-        <v>801.12900000000002</v>
+        <v>2012</v>
       </c>
       <c r="O72">
-        <v>822.00400000000002</v>
+        <v>2013</v>
       </c>
       <c r="P72">
-        <v>830.58399999999995</v>
+        <v>2014</v>
       </c>
       <c r="Q72">
-        <v>830.28800000000001</v>
+        <v>2015</v>
       </c>
       <c r="R72">
-        <v>839.91800000000001</v>
+        <v>2016</v>
       </c>
       <c r="S72">
-        <v>838.86099999999999</v>
+        <v>2017</v>
       </c>
       <c r="T72">
-        <v>841.32899999999995</v>
+        <v>2018</v>
       </c>
       <c r="U72">
-        <v>843.33</v>
+        <v>2019</v>
       </c>
       <c r="V72">
-        <v>823.15</v>
+        <v>2020</v>
       </c>
       <c r="W72">
-        <v>811.55100000000004</v>
+        <v>2021</v>
       </c>
       <c r="X72">
-        <v>803.66899999999998</v>
+        <v>2022</v>
+      </c>
+      <c r="Y72">
+        <v>2023</v>
+      </c>
+      <c r="Z72">
+        <v>2024</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>134.01499999999999</v>
+        <v>6.796149999999999</v>
       </c>
       <c r="C73">
-        <v>143.767</v>
+        <v>8.3813949999999995</v>
       </c>
       <c r="D73">
-        <v>121.646</v>
+        <v>8.4054149999999996</v>
       </c>
       <c r="E73">
-        <v>152.88</v>
+        <v>8.4073600000000006</v>
       </c>
       <c r="F73">
-        <v>154.70699999999999</v>
+        <v>8.6129899999999999</v>
       </c>
       <c r="G73">
-        <v>155.17099999999999</v>
+        <v>8.7186249999999994</v>
       </c>
       <c r="H73">
-        <v>93.036999999999992</v>
+        <v>9.0057599999999987</v>
       </c>
       <c r="I73">
-        <v>91.814999999999998</v>
+        <v>9.7297499999999992</v>
       </c>
       <c r="J73">
-        <v>71.382000000000005</v>
+        <v>9.9424499999999991</v>
       </c>
       <c r="K73">
-        <v>64.051999999999992</v>
+        <v>10.142300000000001</v>
       </c>
       <c r="L73">
-        <v>62.692</v>
+        <v>10.295999999999999</v>
       </c>
       <c r="M73">
-        <v>55.600999999999999</v>
+        <v>10.493450000000001</v>
       </c>
       <c r="N73">
-        <v>48.951000000000001</v>
+        <v>11.216849999999999</v>
       </c>
       <c r="O73">
-        <v>52.445999999999998</v>
+        <v>12.283349999999999</v>
       </c>
       <c r="P73">
-        <v>55.166000000000004</v>
+        <v>12.419550000000001</v>
       </c>
       <c r="Q73">
-        <v>54.754000000000005</v>
+        <v>12.9693</v>
       </c>
       <c r="R73">
-        <v>50.466999999999999</v>
+        <v>12.900699999999999</v>
       </c>
       <c r="S73">
-        <v>47.513999999999996</v>
+        <v>12.837900000000001</v>
       </c>
       <c r="T73">
-        <v>58.063000000000002</v>
+        <v>12.616149999999999</v>
       </c>
       <c r="U73">
-        <v>51.272999999999996</v>
+        <v>12.052950000000001</v>
       </c>
       <c r="V73">
-        <v>52.521000000000001</v>
+        <v>11.8889</v>
       </c>
       <c r="W73">
-        <v>50.584999999999994</v>
+        <v>11.334</v>
       </c>
       <c r="X73">
-        <v>56.28</v>
+        <v>11.1015</v>
+      </c>
+      <c r="Y73">
+        <v>10.9895</v>
+      </c>
+      <c r="Z73">
+        <v>10.9101</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>0.70900000000000007</v>
+        <v>321.05500000000001</v>
       </c>
       <c r="C74">
-        <v>0.78499999999999992</v>
+        <v>315.09773999999999</v>
       </c>
       <c r="D74">
-        <v>0.83</v>
+        <v>316.19997999999998</v>
       </c>
       <c r="E74">
-        <v>0.84800000000000009</v>
+        <v>313.87878000000001</v>
       </c>
       <c r="F74">
-        <v>0.96499999999999997</v>
+        <v>314.02522999999997</v>
       </c>
       <c r="G74">
-        <v>1.1200000000000001</v>
+        <v>314.28313000000003</v>
       </c>
       <c r="H74">
-        <v>1.2869999999999999</v>
+        <v>313.87216999999998</v>
       </c>
       <c r="I74">
-        <v>1.6739999999999999</v>
+        <v>313.64070000000004</v>
       </c>
       <c r="J74">
-        <v>2.093</v>
+        <v>314.23070000000001</v>
       </c>
       <c r="K74">
-        <v>2.5150000000000001</v>
+        <v>315.13</v>
       </c>
       <c r="L74">
-        <v>3.9420000000000002</v>
+        <v>317.73700000000002</v>
       </c>
       <c r="M74">
-        <v>6.2149999999999999</v>
+        <v>318.58100000000002</v>
       </c>
       <c r="N74">
-        <v>10.145</v>
+        <v>310.49809999999997</v>
       </c>
       <c r="O74">
-        <v>15.872</v>
+        <v>304.12809999999996</v>
       </c>
       <c r="P74">
-        <v>25.763999999999999</v>
+        <v>299.90940000000001</v>
       </c>
       <c r="Q74">
-        <v>35.634999999999998</v>
+        <v>280.77350000000001</v>
       </c>
       <c r="R74">
-        <v>50.334000000000003</v>
+        <v>267.61500000000001</v>
       </c>
       <c r="S74">
-        <v>70.98</v>
+        <v>257.47339999999997</v>
       </c>
       <c r="T74">
-        <v>85.183999999999997</v>
+        <v>243.71170000000001</v>
       </c>
       <c r="U74">
-        <v>97.477999999999994</v>
+        <v>229.57550000000001</v>
       </c>
       <c r="V74">
-        <v>119.32900000000001</v>
+        <v>216.47229999999999</v>
       </c>
       <c r="W74">
-        <v>151.32299999999998</v>
+        <v>210.60479999999998</v>
       </c>
       <c r="X74">
-        <v>187.071</v>
+        <v>190.0273</v>
+      </c>
+      <c r="Y74">
+        <v>181.46689999999998</v>
+      </c>
+      <c r="Z74">
+        <v>177.0069</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>5.65</v>
+        <v>243.24100000000001</v>
       </c>
       <c r="C75">
-        <v>6.806</v>
+        <v>233.81331</v>
       </c>
       <c r="D75">
-        <v>10.459</v>
+        <v>313.74014</v>
       </c>
       <c r="E75">
-        <v>11.3</v>
+        <v>356.62590999999998</v>
       </c>
       <c r="F75">
-        <v>14.291</v>
+        <v>372.10201000000001</v>
       </c>
       <c r="G75">
-        <v>17.881</v>
+        <v>383.88529</v>
       </c>
       <c r="H75">
-        <v>26.675999999999998</v>
+        <v>389.38721000000004</v>
       </c>
       <c r="I75">
-        <v>34.603000000000002</v>
+        <v>393.9015</v>
       </c>
       <c r="J75">
-        <v>55.695999999999998</v>
+        <v>398.26979999999998</v>
       </c>
       <c r="K75">
-        <v>74.225999999999999</v>
+        <v>402.02679999999998</v>
       </c>
       <c r="L75">
-        <v>95.147999999999996</v>
+        <v>406.87579999999997</v>
       </c>
       <c r="M75">
-        <v>120.854</v>
+        <v>416.1848</v>
       </c>
       <c r="N75">
-        <v>141.922</v>
+        <v>423.4923</v>
       </c>
       <c r="O75">
-        <v>169.71299999999999</v>
+        <v>426.67570000000001</v>
       </c>
       <c r="P75">
-        <v>183.892</v>
+        <v>433.24940000000004</v>
       </c>
       <c r="Q75">
-        <v>192.99200000000002</v>
+        <v>440.87220000000002</v>
       </c>
       <c r="R75">
-        <v>229.471</v>
+        <v>448.28500000000003</v>
       </c>
       <c r="S75">
-        <v>257.24900000000002</v>
+        <v>457.46129999999999</v>
       </c>
       <c r="T75">
-        <v>275.834</v>
+        <v>471.85470000000004</v>
       </c>
       <c r="U75">
-        <v>298.2</v>
+        <v>478.14850000000001</v>
       </c>
       <c r="V75">
-        <v>341.81799999999998</v>
+        <v>487.16429999999997</v>
       </c>
       <c r="W75">
-        <v>382.81400000000002</v>
+        <v>492.97909999999996</v>
       </c>
       <c r="X75">
-        <v>439.27</v>
+        <v>503.41409999999996</v>
+      </c>
+      <c r="Y75">
+        <v>508.3458</v>
+      </c>
+      <c r="Z75">
+        <v>506.93170000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="C76">
+        <v>2.2162100000000002</v>
+      </c>
+      <c r="D76">
+        <v>2.2522500000000001</v>
+      </c>
+      <c r="E76">
+        <v>2.1332499999999999</v>
+      </c>
+      <c r="F76">
+        <v>2.1520799999999998</v>
+      </c>
+      <c r="G76">
+        <v>2.2853000000000003</v>
+      </c>
+      <c r="H76">
+        <v>2.2739799999999999</v>
+      </c>
+      <c r="I76">
+        <v>2.2141999999999999</v>
+      </c>
+      <c r="J76">
+        <v>2.2288000000000001</v>
+      </c>
+      <c r="K76">
+        <v>2.3818999999999999</v>
+      </c>
+      <c r="L76">
+        <v>2.4045999999999998</v>
+      </c>
+      <c r="M76">
+        <v>2.4091999999999998</v>
+      </c>
+      <c r="N76">
+        <v>2.5920999999999998</v>
+      </c>
+      <c r="O76">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="P76">
+        <v>2.5143</v>
+      </c>
+      <c r="Q76">
+        <v>2.5415000000000001</v>
+      </c>
+      <c r="R76">
+        <v>2.5165999999999999</v>
+      </c>
+      <c r="S76">
+        <v>2.4833000000000003</v>
+      </c>
+      <c r="T76">
+        <v>2.4443000000000001</v>
+      </c>
+      <c r="U76">
+        <v>2.5554000000000001</v>
+      </c>
+      <c r="V76">
+        <v>2.5719000000000003</v>
+      </c>
+      <c r="W76">
+        <v>2.5966999999999998</v>
+      </c>
+      <c r="X76">
+        <v>2.6486000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>2.6736</v>
+      </c>
+      <c r="Z76">
+        <v>2.7028000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>97.600000000000009</v>
+      </c>
+      <c r="C77">
+        <v>98.580000000000013</v>
+      </c>
+      <c r="D77">
+        <v>99.727000000000004</v>
+      </c>
+      <c r="E77">
+        <v>99.215999999999994</v>
+      </c>
+      <c r="F77">
+        <v>98.405000000000001</v>
+      </c>
+      <c r="G77">
+        <v>98.887</v>
+      </c>
+      <c r="H77">
+        <v>99.282000000000011</v>
+      </c>
+      <c r="I77">
+        <v>99.770999999999987</v>
+      </c>
+      <c r="J77">
+        <v>99.787999999999997</v>
+      </c>
+      <c r="K77">
+        <v>100.678</v>
+      </c>
+      <c r="L77">
+        <v>101.1204</v>
+      </c>
+      <c r="M77">
+        <v>101.0419</v>
+      </c>
+      <c r="N77">
+        <v>101.2259</v>
+      </c>
+      <c r="O77">
+        <v>101.69289999999999</v>
+      </c>
+      <c r="P77">
+        <v>102.27019999999999</v>
+      </c>
+      <c r="Q77">
+        <v>102.36019999999999</v>
+      </c>
+      <c r="R77">
+        <v>102.84774899999999</v>
+      </c>
+      <c r="S77">
+        <v>102.85131799999999</v>
+      </c>
+      <c r="T77">
+        <v>102.960565</v>
+      </c>
+      <c r="U77">
+        <v>102.814713</v>
+      </c>
+      <c r="V77">
+        <v>103.188447</v>
+      </c>
+      <c r="W77">
+        <v>103.159282</v>
+      </c>
+      <c r="X77">
+        <v>103.33971200000001</v>
+      </c>
+      <c r="Y77">
+        <v>103.25035299999999</v>
+      </c>
+      <c r="Z77">
+        <v>103.103253</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>97.86</v>
+      </c>
+      <c r="C78">
+        <v>98.158899999999988</v>
+      </c>
+      <c r="D78">
+        <v>98.656999999999996</v>
+      </c>
+      <c r="E78">
+        <v>99.208860000000001</v>
+      </c>
+      <c r="F78">
+        <v>99.628100000000003</v>
+      </c>
+      <c r="G78">
+        <v>99.988039999999998</v>
+      </c>
+      <c r="H78">
+        <v>100.33377</v>
+      </c>
+      <c r="I78">
+        <v>100.2657</v>
+      </c>
+      <c r="J78">
+        <v>100.75489999999999</v>
+      </c>
+      <c r="K78">
+        <v>101.00369999999999</v>
+      </c>
+      <c r="L78">
+        <v>101.1674</v>
+      </c>
+      <c r="M78">
+        <v>101.4188</v>
+      </c>
+      <c r="N78">
+        <v>101.88500000000001</v>
+      </c>
+      <c r="O78">
+        <v>99.240300000000005</v>
+      </c>
+      <c r="P78">
+        <v>98.569299999999998</v>
+      </c>
+      <c r="Q78">
+        <v>98.671999999999997</v>
+      </c>
+      <c r="R78">
+        <v>99.564800000000005</v>
+      </c>
+      <c r="S78">
+        <v>99.628899999999987</v>
+      </c>
+      <c r="T78">
+        <v>99.432899999999989</v>
+      </c>
+      <c r="U78">
+        <v>98.119</v>
+      </c>
+      <c r="V78">
+        <v>96.500600000000006</v>
+      </c>
+      <c r="W78">
+        <v>95.546399999999991</v>
+      </c>
+      <c r="X78">
+        <v>94.658899999999988</v>
+      </c>
+      <c r="Y78">
+        <v>95.772899999999993</v>
+      </c>
+      <c r="Z78">
+        <v>96.886899999999997</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>86.087164999999999</v>
       </c>
       <c r="C79">
-        <v>2000</v>
+        <v>87.751305000000002</v>
       </c>
       <c r="D79">
-        <v>2001</v>
+        <v>61.516044999999998</v>
       </c>
       <c r="E79">
-        <v>2002</v>
+        <v>62.584490000000002</v>
       </c>
       <c r="F79">
-        <v>2003</v>
+        <v>61.162999999999997</v>
       </c>
       <c r="G79">
-        <v>2004</v>
+        <v>60.854835000000001</v>
       </c>
       <c r="H79">
-        <v>2005</v>
+        <v>60.320080000000004</v>
       </c>
       <c r="I79">
-        <v>2006</v>
+        <v>58.348350000000003</v>
       </c>
       <c r="J79">
-        <v>2007</v>
+        <v>59.769349999999996</v>
       </c>
       <c r="K79">
-        <v>2008</v>
+        <v>59.1233</v>
       </c>
       <c r="L79">
-        <v>2009</v>
+        <v>59.525500000000001</v>
       </c>
       <c r="M79">
-        <v>2010</v>
+        <v>53.92915</v>
       </c>
       <c r="N79">
-        <v>2011</v>
+        <v>49.832649999999994</v>
       </c>
       <c r="O79">
-        <v>2012</v>
+        <v>46.755250000000004</v>
       </c>
       <c r="P79">
-        <v>2013</v>
+        <v>44.843950000000007</v>
       </c>
       <c r="Q79">
-        <v>2014</v>
+        <v>39.415800000000004</v>
       </c>
       <c r="R79">
-        <v>2015</v>
+        <v>36.920600000000007</v>
       </c>
       <c r="S79">
-        <v>2016</v>
+        <v>36.6036</v>
       </c>
       <c r="T79">
-        <v>2017</v>
+        <v>34.782850000000003</v>
       </c>
       <c r="U79">
-        <v>2018</v>
+        <v>34.005249999999997</v>
       </c>
       <c r="V79">
-        <v>2019</v>
+        <v>30.154299999999999</v>
       </c>
       <c r="W79">
-        <v>2020</v>
+        <v>30.7805</v>
       </c>
       <c r="X79">
-        <v>2021</v>
+        <v>33.178799999999995</v>
       </c>
       <c r="Y79">
-        <v>2022</v>
+        <v>32.158799999999999</v>
       </c>
       <c r="Z79">
-        <v>2023</v>
+        <v>31.953700000000001</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>0.59371299999999994</v>
       </c>
       <c r="C80">
-        <v>14.7</v>
+        <v>0.59860000000000002</v>
       </c>
       <c r="D80">
-        <v>16.5</v>
+        <v>0.64260000000000006</v>
       </c>
       <c r="E80">
-        <v>13.6</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="F80">
-        <v>24</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="G80">
-        <v>22.9</v>
+        <v>0.89379999999999993</v>
       </c>
       <c r="H80">
-        <v>19.8</v>
+        <v>1.0988</v>
       </c>
       <c r="I80">
-        <v>24.3</v>
+        <v>1.4388000000000001</v>
       </c>
       <c r="J80">
-        <v>20.100000000000001</v>
+        <v>1.6177999999999999</v>
       </c>
       <c r="K80">
-        <v>24.2</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="L80">
-        <v>18.100000000000001</v>
+        <v>3.3819999999999997</v>
       </c>
       <c r="M80">
-        <v>19.100000000000001</v>
+        <v>5.6434999999999995</v>
       </c>
       <c r="N80">
-        <v>15</v>
+        <v>8.6129999999999995</v>
       </c>
       <c r="O80">
-        <v>12</v>
+        <v>13.245500000000002</v>
       </c>
       <c r="P80">
-        <v>11.4</v>
+        <v>18.112127999999998</v>
       </c>
       <c r="Q80">
-        <v>13.3</v>
+        <v>24.236846</v>
       </c>
       <c r="R80">
-        <v>9.1</v>
+        <v>35.433673999999996</v>
       </c>
       <c r="S80">
-        <v>6.2</v>
+        <v>43.769840000000002</v>
       </c>
       <c r="T80">
-        <v>9.4</v>
+        <v>51.986993999999996</v>
       </c>
       <c r="U80">
-        <v>13.8</v>
+        <v>61.587229000000001</v>
       </c>
       <c r="V80">
-        <v>20</v>
+        <v>76.441096999999999</v>
       </c>
       <c r="W80">
-        <v>14.1</v>
+        <v>95.390912999999998</v>
       </c>
       <c r="X80">
-        <v>13.9</v>
+        <v>114.36094700000001</v>
       </c>
       <c r="Y80">
-        <v>15.8</v>
+        <v>139.205277</v>
       </c>
       <c r="Z80">
-        <v>19.899999999999999</v>
+        <v>177.47027699999998</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="C81">
+        <v>3.8636399999999997</v>
+      </c>
+      <c r="D81">
+        <v>4.4166400000000001</v>
+      </c>
+      <c r="E81">
+        <v>5.99519</v>
+      </c>
+      <c r="F81">
+        <v>6.4558</v>
+      </c>
+      <c r="G81">
+        <v>8.70641</v>
+      </c>
+      <c r="H81">
+        <v>11.328790000000001</v>
+      </c>
+      <c r="I81">
+        <v>16.515099999999997</v>
+      </c>
+      <c r="J81">
+        <v>24.651299999999999</v>
+      </c>
+      <c r="K81">
+        <v>34.2958</v>
+      </c>
+      <c r="L81">
+        <v>39.349694999999997</v>
+      </c>
+      <c r="M81">
+        <v>45.794967999999997</v>
+      </c>
+      <c r="N81">
+        <v>59.453299000000001</v>
+      </c>
+      <c r="O81">
+        <v>60.198163999999998</v>
+      </c>
+      <c r="P81">
+        <v>64.430186000000006</v>
+      </c>
+      <c r="Q81">
+        <v>72.767236000000011</v>
+      </c>
+      <c r="R81">
+        <v>81.502362000000005</v>
+      </c>
+      <c r="S81">
+        <v>87.830780000000004</v>
+      </c>
+      <c r="T81">
+        <v>94.666184999999999</v>
+      </c>
+      <c r="U81">
+        <v>103.835556</v>
+      </c>
+      <c r="V81">
+        <v>118.66354000000001</v>
+      </c>
+      <c r="W81">
+        <v>133.01927700000002</v>
+      </c>
+      <c r="X81">
+        <v>141.673912</v>
+      </c>
+      <c r="Y81">
+        <v>148.01986099999999</v>
+      </c>
+      <c r="Z81">
+        <v>153.15226100000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>2000</v>
+      </c>
+      <c r="D85">
+        <v>2001</v>
+      </c>
+      <c r="E85">
+        <v>2002</v>
+      </c>
+      <c r="F85">
+        <v>2003</v>
+      </c>
+      <c r="G85">
+        <v>2004</v>
+      </c>
+      <c r="H85">
+        <v>2005</v>
+      </c>
+      <c r="I85">
+        <v>2006</v>
+      </c>
+      <c r="J85">
+        <v>2007</v>
+      </c>
+      <c r="K85">
+        <v>2008</v>
+      </c>
+      <c r="L85">
+        <v>2009</v>
+      </c>
+      <c r="M85">
+        <v>2010</v>
+      </c>
+      <c r="N85">
+        <v>2011</v>
+      </c>
+      <c r="O85">
+        <v>2012</v>
+      </c>
+      <c r="P85">
+        <v>2013</v>
+      </c>
+      <c r="Q85">
+        <v>2014</v>
+      </c>
+      <c r="R85">
+        <v>2015</v>
+      </c>
+      <c r="S85">
+        <v>2016</v>
+      </c>
+      <c r="T85">
+        <v>2017</v>
+      </c>
+      <c r="U85">
+        <v>2018</v>
+      </c>
+      <c r="V85">
+        <v>2019</v>
+      </c>
+      <c r="W85">
+        <v>2020</v>
+      </c>
+      <c r="X85">
+        <v>2021</v>
+      </c>
+      <c r="Y85">
+        <v>2022</v>
+      </c>
+      <c r="Z85">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="C81">
+      <c r="C86">
+        <v>14.7</v>
+      </c>
+      <c r="D86">
+        <v>16.5</v>
+      </c>
+      <c r="E86">
+        <v>13.6</v>
+      </c>
+      <c r="F86">
+        <v>24</v>
+      </c>
+      <c r="G86">
+        <v>22.9</v>
+      </c>
+      <c r="H86">
+        <v>19.8</v>
+      </c>
+      <c r="I86">
+        <v>24.3</v>
+      </c>
+      <c r="J86">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K86">
+        <v>24.2</v>
+      </c>
+      <c r="L86">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M86">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N86">
+        <v>15</v>
+      </c>
+      <c r="O86">
+        <v>12</v>
+      </c>
+      <c r="P86">
+        <v>11.4</v>
+      </c>
+      <c r="Q86">
+        <v>13.3</v>
+      </c>
+      <c r="R86">
+        <v>9.1</v>
+      </c>
+      <c r="S86">
+        <v>6.2</v>
+      </c>
+      <c r="T86">
+        <v>9.4</v>
+      </c>
+      <c r="U86">
+        <v>13.8</v>
+      </c>
+      <c r="V86">
+        <v>20</v>
+      </c>
+      <c r="W86">
+        <v>14.1</v>
+      </c>
+      <c r="X86">
+        <v>13.9</v>
+      </c>
+      <c r="Y86">
+        <v>15.8</v>
+      </c>
+      <c r="Z86">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
         <v>48.6</v>
       </c>
-      <c r="D81">
+      <c r="D87">
         <v>38.5</v>
       </c>
-      <c r="E81">
+      <c r="E87">
         <v>36.4</v>
       </c>
-      <c r="F81">
+      <c r="F87">
         <v>30.4</v>
       </c>
-      <c r="G81">
+      <c r="G87">
         <v>34.200000000000003</v>
       </c>
-      <c r="H81">
+      <c r="H87">
         <v>44.5</v>
       </c>
-      <c r="I81">
+      <c r="I87">
         <v>42.7</v>
       </c>
-      <c r="J81">
+      <c r="J87">
         <v>51.4</v>
       </c>
-      <c r="K81">
+      <c r="K87">
         <v>57</v>
       </c>
-      <c r="L81">
+      <c r="L87">
         <v>52.2</v>
       </c>
-      <c r="M81">
+      <c r="M87">
         <v>45.1</v>
       </c>
-      <c r="N81">
+      <c r="N87">
         <v>52.3</v>
       </c>
-      <c r="O81">
+      <c r="O87">
         <v>59.3</v>
       </c>
-      <c r="P81">
+      <c r="P87">
         <v>70.400000000000006</v>
       </c>
-      <c r="Q81">
+      <c r="Q87">
         <v>66.5</v>
       </c>
-      <c r="R81">
+      <c r="R87">
         <v>75.8</v>
       </c>
-      <c r="S81">
+      <c r="S87">
         <v>72.7</v>
       </c>
-      <c r="T81">
+      <c r="T87">
         <v>65.7</v>
       </c>
-      <c r="U81">
+      <c r="U87">
         <v>58.3</v>
       </c>
-      <c r="V81">
+      <c r="V87">
         <v>59.1</v>
       </c>
-      <c r="W81">
+      <c r="W87">
         <v>61.4</v>
       </c>
-      <c r="X81">
+      <c r="X87">
         <v>53.2</v>
       </c>
-      <c r="Y81">
+      <c r="Y87">
         <v>57</v>
       </c>
-      <c r="Z81">
+      <c r="Z87">
         <v>38.9</v>
       </c>
     </row>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD08E10-65D8-4F68-BA8B-C5F375B83C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129E019-B4EC-4CF6-B8C2-E2CBE05E3CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
   <si>
     <t>bioenergy</t>
   </si>
@@ -252,81 +252,6 @@
   </si>
   <si>
     <t>-CO2Captured</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>Unnamed: 18</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
   </si>
   <si>
     <t>EMBER Generation (TWh)</t>
@@ -363,7 +288,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,13 +307,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -400,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,6 +365,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
@@ -1283,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:Z87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1300,855 +1262,780 @@
     <col min="9" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>2000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>2001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>2002</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>2003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>2004</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>2005</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>2006</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>2007</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>2008</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>2009</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>2010</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>2011</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>2012</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>2013</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <v>2014</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="6">
         <v>2015</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="6">
         <v>2016</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="6">
         <v>2017</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="6">
         <v>2018</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="6">
         <v>2019</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="6">
         <v>2020</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="6">
         <v>2021</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="6">
         <v>2022</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="6">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>0.89062522319196646</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0.69678899280358397</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>0.74800603116673936</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0.76020465632121148</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>0.74784420566617438</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>0.73599003735990043</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>0.72227484698338673</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>0.69066795163029759</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>0.67864687100175214</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>0.65559552052243575</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>0.66443749325854817</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>0.66201196417825925</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="7">
         <v>0.62723392155112279</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>0.61041243088585706</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>0.63515584141518866</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>0.60865638092548136</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="7">
         <v>0.60645902551984321</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="7">
         <v>0.60890247135321263</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="7">
         <v>0.6103440120795357</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="7">
         <v>0.58898171328201421</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="7">
         <v>0.57464458717798117</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="7">
         <v>0.59362368402088539</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="7">
         <v>0.5812370278123703</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="7">
         <v>0.54863047126229303</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>0.67155351143519759</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.64817795527696032</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.65716778034326806</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.67364123953756039</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>0.67517738977915964</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>0.68666790295340163</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>0.67841156311510031</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>0.68993375409691593</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>0.67757501708780188</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>0.59666965969950614</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>0.62139867362470103</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>0.58165825098854018</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <v>0.5192129789664629</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>0.55046512285345728</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>0.55835395597472026</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="7">
         <v>0.51169520945224101</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="7">
         <v>0.49503229904481122</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="7">
         <v>0.49715749796492947</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="7">
         <v>0.50285617794482929</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="7">
         <v>0.45016449179220486</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="7">
         <v>0.37884710642106634</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="7">
         <v>0.45643802273081685</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="7">
         <v>0.45213505228499729</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="7">
         <v>0.38479804073384022</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0.43459414324342821</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.36540314349727282</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>0.29817584612105158</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>0.23254337785044626</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>0.2357265436652799</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>0.24140612469062864</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>0.2511274034489509</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>0.27007535324960963</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>0.25948462775896008</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>0.26346248138415496</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>0.27698219360923532</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>0.27663886332699111</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="7">
         <v>0.32619701364051612</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>0.29366142042277804</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>0.28649687567071613</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="7">
         <v>0.33065522143544857</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="7">
         <v>0.33263847318431589</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="7">
         <v>0.30521444820465338</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="7">
         <v>0.32944173514367192</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="7">
         <v>0.3486145024125431</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="7">
         <v>0.35400006538725604</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="7">
         <v>0.33997063902656871</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="7">
         <v>0.3596458533135401</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="7">
         <v>0.37973814833719327</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>0.38842417421564296</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.30106784050434288</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.36765298184563266</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0.3877274618452502</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>0.3821789596757309</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>0.38831040806159256</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>0.41468193196100595</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>0.35268226729800917</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>0.36407219451714945</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>0.39082035929536607</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>0.35195911470467772</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>0.43326382946908459</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <v>0.37511116863119892</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <v>0.36288745538167544</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>0.34618478903497041</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="7">
         <v>0.33356574522188498</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="7">
         <v>0.355635417926433</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="7">
         <v>0.40032675731511858</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="7">
         <v>0.39007126945865267</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="7">
         <v>0.3850270381324043</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="7">
         <v>0.38122107308931918</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="7">
         <v>0.33379813440335088</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="7">
         <v>0.32779937982191626</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="7">
         <v>0.31484244836536429</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>0.87942471166058678</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.89411146836959887</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0.90257394288951398</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.87878026362602468</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>0.90349131970940888</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>0.89277192559438601</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>0.89569716738416194</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>0.91809192804997286</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>0.91347995059881948</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>0.90290022152900229</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>0.91054525070375247</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>0.8894249600873082</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="7">
         <v>0.86193992895014826</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>0.90760556484993726</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="7">
         <v>0.92321336666847342</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="7">
         <v>0.92228927845366193</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="7">
         <v>0.92380217248129226</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="7">
         <v>0.92230522339047183</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="7">
         <v>0.92660585428265319</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="7">
         <v>0.94168774792584609</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="7">
         <v>0.9343932618827927</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="7">
         <v>0.93146145005244818</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="7">
         <v>0.93043885976921004</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="7">
         <v>0.92362409368335385</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>0.15384240024907564</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.17639100287502116</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.19240503886325713</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.24148085883858617</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>0.24242125602133488</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>0.23662122968749411</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>0.13552151084626285</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>0.14710082833476149</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>0.10586624679230811</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>9.370694076284751E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>9.1086417423546853E-2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>8.8500483037795494E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>8.9551048908755537E-2</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="7">
         <v>9.8286792364390599E-2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>0.1112275406417134</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="7">
         <v>0.12869252564004549</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="7">
         <v>0.12213251408698061</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="7">
         <v>0.11817875589490232</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="7">
         <v>0.140084707266287</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="7">
         <v>0.12566811534077407</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="7">
         <v>0.13001961274298221</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="7">
         <v>0.13054791553549863</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="7">
         <v>0.13294029246864345</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="7">
         <v>0.11759836661441653</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>9.4806903490441935E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.10273972602739728</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>9.8102168949771695E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>8.8973945742680638E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>8.8280060882800604E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>7.0545379918936946E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>5.2926525529265252E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>4.8357432775240995E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>6.0600935791194542E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>4.8611566275589352E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>4.0866228958958146E-2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>3.6837332815181839E-2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="7">
         <v>5.7409086811024669E-2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>7.7884035495821485E-2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>0.18229540933261729</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="7">
         <v>0.18380690808806913</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="7">
         <v>0.17679081654352205</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="7">
         <v>0.20155169769749093</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="7">
         <v>0.20499200320398811</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="7">
         <v>0.19811746703231933</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="7">
         <v>0.19521682926770992</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="7">
         <v>0.19676492706461959</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="7">
         <v>0.2047028449772488</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="7">
         <v>0.19593603697839634</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>0.26812094700894057</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.19932808100882485</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>0.26730924192648609</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>0.21289954337899542</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>0.24986923392284097</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>0.23342193143869688</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>0.26790716044606189</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>0.23805377735027147</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>0.25637463298970986</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>0.2459163704620792</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>0.27458181754886773</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="7">
         <v>0.29961079017671505</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="7">
         <v>0.27040105072755966</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <v>0.31826939122256104</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>0.32184233074442048</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="7">
         <v>0.29918495942994222</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="7">
         <v>0.31793988290332525</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="7">
         <v>0.33052123836157127</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="7">
         <v>0.32879172207422758</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="7">
         <v>0.32527210812560242</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="7">
         <v>0.32511061495681998</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="7">
         <v>0.32456409548740911</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="7">
         <v>0.34995147575899105</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="7">
         <v>0.32478950456528455</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>2000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>2001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>2002</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>2003</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>2004</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>2005</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>2006</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>2007</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>2008</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>2009</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>2010</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>2011</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>2012</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>2013</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>2014</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>2015</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>2016</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="6">
         <v>2017</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="6">
         <v>2018</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="6">
         <v>2019</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="6">
         <v>2020</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="6">
         <v>2021</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="6">
         <v>2022</v>
       </c>
     </row>
@@ -2156,73 +2043,73 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>0.94365811868302962</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.68559383760782999</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>0.73369475559619457</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.7348556644085017</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>0.73933935701591147</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>0.75916046258760472</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>0.74528658837440942</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>0.69364293783799436</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>0.68484310999757936</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>0.667656755780765</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>0.68457670088663258</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>0.67796151419614648</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="7">
         <v>0.65244510546887402</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <v>0.62209726746527905</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="7">
         <v>0.65092912413517146</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="7">
         <v>0.61672685798535054</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="7">
         <v>0.61071513481640749</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="7">
         <v>0.61227993554046112</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="7">
         <v>0.61424675703319098</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="7">
         <v>0.59851960113366587</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="7">
         <v>0.57869297792104235</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="7">
         <v>0.6001057351179182</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="7">
         <v>0.58762473375085889</v>
       </c>
     </row>
@@ -2230,73 +2117,73 @@
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>0.75717051282625658</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>0.7180927619242653</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>0.73636459534132392</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>0.75768933070189082</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>0.75994206495815586</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>0.78236903179580108</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>0.77387901819390625</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>0.77105032145725216</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>0.77473980729276393</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>0.6856128955695171</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>0.71646587238809811</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>0.67200568147231754</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="7">
         <v>0.60421034583967392</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="7">
         <v>0.64275667160253747</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="7">
         <v>0.65186238755519688</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="7">
         <v>0.59806937607527177</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="7">
         <v>0.57758381004129411</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="7">
         <v>0.58587379437339626</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="7">
         <v>0.59587866622622565</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="7">
         <v>0.53181736484477815</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="7">
         <v>0.45128471065076869</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="7">
         <v>0.53746113563018971</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="7">
         <v>0.54864863721203316</v>
       </c>
     </row>
@@ -2304,73 +2191,73 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>0.2976781638234316</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.32219144582413412</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>0.25922042962458852</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>0.21452713874059057</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>0.22442905450337403</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>0.23278839649180202</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>0.24707302950595311</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>0.26522983340694134</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>0.26088186918268397</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <v>0.26968828398559297</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="7">
         <v>0.28557877200905274</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="7">
         <v>0.286702524639805</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="7">
         <v>0.34086865603353944</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="7">
         <v>0.30993939262520942</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="7">
         <v>0.30599525417455309</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <v>0.35540021135231642</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="7">
         <v>0.36111750704091283</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="7">
         <v>0.33381145447234162</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="7">
         <v>0.36754237729011918</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="7">
         <v>0.39149918667202238</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="7">
         <v>0.39370115199065586</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="7">
         <v>0.37839299918119945</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="7">
         <v>0.39466156459867135</v>
       </c>
     </row>
@@ -2378,73 +2265,73 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>0.59758823019714979</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>0.73380036538169091</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>0.75718294896377081</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0.79572885713108443</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>0.82149472809060253</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>0.83809425618210642</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>0.83237681034049649</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>0.86603735375115121</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>0.86420564990641402</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>0.8169488269696058</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>0.83444516731060003</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>0.84531366443852607</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="7">
         <v>0.79865957310754032</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="7">
         <v>0.80666207768687392</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="7">
         <v>0.84947888034778962</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="7">
         <v>0.84115104785672001</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="7">
         <v>0.84298704093404275</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="7">
         <v>0.8608187624840784</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="7">
         <v>0.87674857001201367</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="7">
         <v>0.82035964309441589</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="7">
         <v>0.83582469545727878</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="7">
         <v>0.83865665114468269</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="7">
         <v>0.82502447230672737</v>
       </c>
     </row>
@@ -2452,73 +2339,73 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>0.32747819821842955</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>0.24865417698441153</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>0.33396537845120833</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>0.35175778100306404</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>0.34557354182776939</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>0.34392607068267994</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>0.36528139622397499</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>0.3152710574796192</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>0.32259600398506938</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>0.33835662700044389</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>0.32324254576835298</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>0.3892785813467925</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="7">
         <v>0.33638651172536149</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="7">
         <v>0.32566602363025565</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="7">
         <v>0.31424388911068774</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="7">
         <v>0.30237142059861155</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="7">
         <v>0.32422909787468784</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="7">
         <v>0.36084584078577098</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="7">
         <v>0.35147117960042967</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="7">
         <v>0.34482720875059103</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="7">
         <v>0.34096968646200604</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="7">
         <v>0.303312480566654</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="7">
         <v>0.30827527006820737</v>
       </c>
     </row>
@@ -2526,73 +2413,73 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>0.93055077284014898</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>0.92176979036846474</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>0.93090270830402999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>0.90650735875642163</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>0.93193504451273468</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>0.92559700277139456</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>0.92862996382453744</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>0.95253076958084026</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>0.94923151159295749</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>0.93831048813289342</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="7">
         <v>0.94663279866274908</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="7">
         <v>0.92455929338472687</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="7">
         <v>0.89761085725848577</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="7">
         <v>0.94554402857871978</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="7">
         <v>0.96191740343246079</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="7">
         <v>0.96057377128078236</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="7">
         <v>0.96300148474471392</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="7">
         <v>0.96117078606562856</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="7">
         <v>0.9658988452280004</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="7">
         <v>0.98116112012154111</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="7">
         <v>0.9737441526495062</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="7">
         <v>0.96961066266419349</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="7">
         <v>0.96919609809199536</v>
       </c>
     </row>
@@ -2600,73 +2487,73 @@
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>0.17770960376886794</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>0.18702579968317939</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>0.22573833672768295</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>0.27885590814146682</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>0.28874673312878968</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>0.29107932795949315</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>0.17607175090710461</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>0.17963086160211289</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>0.13633459518944582</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <v>0.12367158372619123</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="7">
         <v>0.12022781840666957</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="7">
         <v>0.11769416203892442</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="7">
         <v>0.11213559179835184</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="7">
         <v>0.12804949821399444</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="7">
         <v>0.14043117487364259</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="7">
         <v>0.15857743902203089</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="7">
         <v>0.15603952967613555</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="7">
         <v>0.14818139753302206</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="7">
         <v>0.19055932297186587</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="7">
         <v>0.17212289842835513</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="7">
         <v>0.19882895458377348</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="7">
         <v>0.18760394987071144</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="7">
         <v>0.1936374291489317</v>
       </c>
     </row>
@@ -2674,73 +2561,73 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>0.13632188121088934</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>0.14970242590397381</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>0.14744609157716865</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>0.14214927014395967</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>0.14652808905506542</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>0.14304529120445161</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>0.13370750657005651</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>0.13281615958504234</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>0.14768632750603869</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="7">
         <v>0.13756610283708889</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="7">
         <v>0.13305736250739209</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>0.12571540459727984</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="7">
         <v>0.13446012107640198</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="7">
         <v>0.13679152513070261</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="7">
         <v>0.16238268029085035</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="7">
         <v>0.16784041844509073</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="7">
         <v>0.16215903580754581</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="7">
         <v>0.18512152948302751</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="7">
         <v>0.18705064796094981</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="7">
         <v>0.18068073124017733</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="7">
         <v>0.17820298894284992</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="7">
         <v>0.18108973407659021</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="7">
         <v>0.18673452386067921</v>
       </c>
     </row>
@@ -2748,232 +2635,232 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>0.27134083674790571</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>0.20109032913765423</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>0.27032988237427041</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>0.21516488016218727</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>0.25270186407012718</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>0.23444910653898687</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>0.26880235925037488</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>0.23918197015162743</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>0.2579170618823311</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>0.24706487882577102</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <v>0.27602866643862012</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="7">
         <v>0.30125839855289749</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="7">
         <v>0.27250197760281419</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="7">
         <v>0.32183091392930691</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="7">
         <v>0.32581370233701296</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="7">
         <v>0.30276057521699046</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="7">
         <v>0.3214056499945756</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="7">
         <v>0.33435117166115619</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="7">
         <v>0.33262034953007769</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="7">
         <v>0.32783660242943136</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="7">
         <v>0.32883158242795713</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="7">
         <v>0.32852552875101171</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="7">
         <v>0.3539464426516985</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>82</v>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>2000</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>2001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>2002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>2003</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>2004</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <v>2005</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>2006</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>2007</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>2008</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>2009</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>2010</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>2011</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="6">
         <v>2012</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <v>2013</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="6">
         <v>2014</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="6">
         <v>2015</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="6">
         <v>2016</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="6">
         <v>2017</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="6">
         <v>2018</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="6">
         <v>2019</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="6">
         <v>2020</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="6">
         <v>2021</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="6">
         <v>2022</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="8">
         <v>3802.0999999999995</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>3727.5699999999997</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>3844.23</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>3868.94</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>3951.95</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>4034.9900000000002</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="8">
         <v>4046.9400000000005</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>4142.57</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>4107.53</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="8">
         <v>3939.8199999999997</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="8">
         <v>4113.9400000000005</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <v>4088.87</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="8">
         <v>4040.6700000000005</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="8">
         <v>4055.6099999999997</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="8">
         <v>4096.01</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="8">
         <v>4083.99</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="8">
         <v>4087.5600000000004</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="8">
         <v>4052.31</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="8">
         <v>4201.55</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="8">
         <v>4158.38</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="8">
         <v>4043.1800000000003</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="8">
         <v>4153.62</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="8">
         <v>4286.8900000000003</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="8">
         <v>4253.91</v>
       </c>
     </row>
@@ -2981,76 +2868,76 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="9">
         <v>74.819999999999993</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>64.64</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="9">
         <v>69.849999999999994</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="9">
         <v>70.19</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="9">
         <v>70.489999999999995</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>70.92</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="9">
         <v>71.37</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="9">
         <v>72.239999999999995</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="9">
         <v>72.349999999999994</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="9">
         <v>71.960000000000008</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="9">
         <v>73.92</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="9">
         <v>74.81</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="9">
         <v>75.88</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="9">
         <v>79.62</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="9">
         <v>83.07</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="9">
         <v>82.75</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="9">
         <v>81.92</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="9">
         <v>81.77</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="9">
         <v>80.52</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="9">
         <v>75.38</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="9">
         <v>72.790000000000006</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="9">
         <v>72.489999999999995</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="9">
         <v>70.010000000000005</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="9">
         <v>65.650000000000006</v>
       </c>
     </row>
@@ -3058,76 +2945,76 @@
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="9">
         <v>1966.27</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="9">
         <v>1903.96</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="9">
         <v>1933.13</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <v>1973.74</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="9">
         <v>1978.3</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>2012.87</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="9">
         <v>1990.51</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="9">
         <v>2016.46</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="9">
         <v>1985.8</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="9">
         <v>1755.9</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="9">
         <v>1847.29</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="9">
         <v>1733.43</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="9">
         <v>1514.04</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="9">
         <v>1581.11</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="9">
         <v>1581.71</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="9">
         <v>1352.4</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="9">
         <v>1239.1500000000001</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="9">
         <v>1205.8399999999999</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="9">
         <v>1149.49</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="9">
         <v>964.96</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="9">
         <v>773.39</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="9">
         <v>898</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="9">
         <v>831.51</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="9">
         <v>675.11</v>
       </c>
     </row>
@@ -3135,76 +3022,76 @@
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="9">
         <v>614.99</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>639.13</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="9">
         <v>691.01</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <v>649.91</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="9">
         <v>710.1</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>760.96</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="9">
         <v>816.44</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="9">
         <v>896.59</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="9">
         <v>882.98</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="9">
         <v>920.98</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="9">
         <v>987.7</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="9">
         <v>1013.69</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="9">
         <v>1225.8900000000001</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="9">
         <v>1124.8399999999999</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="9">
         <v>1126.6099999999999</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="9">
         <v>1333.48</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="9">
         <v>1378.31</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="9">
         <v>1296.44</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="9">
         <v>1469.13</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="9">
         <v>1585.81</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="9">
         <v>1624.17</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="9">
         <v>1579.19</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="9">
         <v>1687.06</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="9">
         <v>1806.06</v>
       </c>
     </row>
@@ -3212,76 +3099,76 @@
       <c r="A36" t="s">
         <v>8</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="9">
         <v>270.02999999999997</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>208.14</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="9">
         <v>255.59</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <v>267.27</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="9">
         <v>259.93</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="9">
         <v>263.76</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="9">
         <v>282.69</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="9">
         <v>240.61</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="9">
         <v>248.54</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="9">
         <v>268.82</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="9">
         <v>254.7</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="9">
         <v>312.93</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="9">
         <v>271.29000000000002</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="9">
         <v>263.88</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="9">
         <v>253.19</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="9">
         <v>243.99</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="9">
         <v>261.13</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="9">
         <v>293.83999999999997</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="9">
         <v>286.62</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="9">
         <v>282.61</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="9">
         <v>279.95</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="9">
         <v>246.47</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="9">
         <v>248.76</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="9">
         <v>239.01</v>
       </c>
     </row>
@@ -3289,76 +3176,76 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="9">
         <v>753.89</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>768.83</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="9">
         <v>780.06</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <v>763.73</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="9">
         <v>788.53</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="9">
         <v>781.99</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="9">
         <v>787.22</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="9">
         <v>806.42</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="9">
         <v>806.21</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="9">
         <v>798.85</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="9">
         <v>806.97</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="9">
         <v>790.2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="9">
         <v>769.33</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="9">
         <v>789.02</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="9">
         <v>797.17</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="9">
         <v>797.18</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="9">
         <v>805.69</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="9">
         <v>804.95</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="9">
         <v>807.08</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="9">
         <v>809.41</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="9">
         <v>789.88</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="9">
         <v>779.65</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="9">
         <v>771.54</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="9">
         <v>774.87</v>
       </c>
     </row>
@@ -3366,76 +3253,76 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="9">
         <v>116.02</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="9">
         <v>135.59</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="9">
         <v>103.69</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="9">
         <v>132.38</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="9">
         <v>129.88</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="9">
         <v>126.13</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="9">
         <v>71.61</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="9">
         <v>75.19</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="9">
         <v>55.43</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="9">
         <v>48.53</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="9">
         <v>47.5</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="9">
         <v>41.81</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="9">
         <v>39.090000000000003</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="9">
         <v>40.26</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="9">
         <v>43.69</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="9">
         <v>44.44</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="9">
         <v>39.5</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="9">
         <v>37.89</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="9">
         <v>42.68</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="9">
         <v>37.44</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="9">
         <v>34.340000000000003</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="9">
         <v>35.200000000000003</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="9">
         <v>38.64</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="9">
         <v>33.130000000000003</v>
       </c>
     </row>
@@ -3443,76 +3330,76 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="9">
         <v>0.49</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>0.54</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>0.53</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="9">
         <v>0.51</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="9">
         <v>0.61</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="9">
         <v>0.86</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="9">
         <v>0.89</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="9">
         <v>1.21</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="9">
         <v>1.82</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="9">
         <v>4.33</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="9">
         <v>9.0399999999999991</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="9">
         <v>28.92</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="9">
         <v>39.03</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="9">
         <v>54.87</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="9">
         <v>77.28</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="9">
         <v>93.36</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="9">
         <v>106.89</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="9">
         <v>130.72</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="9">
         <v>164.42</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="9">
         <v>205.07</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="9">
         <v>238.94</v>
       </c>
     </row>
@@ -3520,229 +3407,229 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="9">
         <v>5.59</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="9">
         <v>6.74</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="9">
         <v>10.35</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <v>11.19</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="9">
         <v>14.14</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>17.809999999999999</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="9">
         <v>26.59</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="9">
         <v>34.450000000000003</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="9">
         <v>55.36</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="9">
         <v>73.89</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="9">
         <v>94.65</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="9">
         <v>120.18</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="9">
         <v>140.82</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="9">
         <v>167.84</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="9">
         <v>181.65</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="9">
         <v>190.72</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="9">
         <v>226.99</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="9">
         <v>254.3</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="9">
         <v>272.67</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="9">
         <v>295.88</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="9">
         <v>337.94</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="9">
         <v>378.2</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="9">
         <v>434.3</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="9">
         <v>421.14</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>84</v>
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A44" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>2000</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>2001</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>2002</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
         <v>2003</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>2004</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="6">
         <v>2005</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="6">
         <v>2006</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="6">
         <v>2007</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="6">
         <v>2008</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="6">
         <v>2009</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="6">
         <v>2010</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="6">
         <v>2011</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="6">
         <v>2012</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="6">
         <v>2013</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="6">
         <v>2014</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="6">
         <v>2015</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="6">
         <v>2016</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="6">
         <v>2017</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="6">
         <v>2018</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="6">
         <v>2019</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="6">
         <v>2020</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="6">
         <v>2021</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="8">
         <v>4052.6670010000003</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>3865.3069989999999</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="8">
         <v>4050.2679979999998</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="8">
         <v>4081.078998</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="8">
         <v>4174.5130010000003</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="8">
         <v>4294.3679980000006</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="8">
         <v>4300.8310000000001</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="8">
         <v>4349.8409980000006</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="8">
         <v>4368.2620009999991</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="8">
         <v>4188.2149979999995</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="8">
         <v>4378.429999</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="8">
         <v>4349.4629999999997</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="8">
         <v>4290.6599990000004</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="8">
         <v>4306.3710009999995</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="8">
         <v>4340.3710019999999</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="8">
         <v>4317.1589970000005</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="8">
         <v>4322.0379979999998</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="8">
         <v>4286.4230040000002</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="8">
         <v>4455.4389999999994</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="8">
         <v>4391.7639989999998</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="8">
         <v>4260.0440009999993</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="8">
         <v>4374.6780019999997</v>
       </c>
-      <c r="X46">
+      <c r="X46" s="8">
         <v>4495.3690000000006</v>
       </c>
     </row>
@@ -3750,73 +3637,73 @@
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="9">
         <v>56.180000999999997</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="9">
         <v>50.336998999999999</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="9">
         <v>54.022998000000001</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="9">
         <v>54.120998</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="9">
         <v>55.783000999999999</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="9">
         <v>57.980998000000007</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="9">
         <v>58.795999999999999</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="9">
         <v>59.120998</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="9">
         <v>59.647000999999996</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="9">
         <v>59.318998000000001</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="9">
         <v>61.743999000000002</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="9">
         <v>62.319999999999993</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="9">
         <v>64.108999000000011</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="9">
         <v>66.93900099999999</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="9">
         <v>70.818002000000007</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="9">
         <v>70.066997000000001</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="9">
         <v>69.016998000000001</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="9">
         <v>68.857004000000003</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="9">
         <v>67.885000000000005</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="9">
         <v>63.193999000000005</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="9">
         <v>60.269001000000003</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="9">
         <v>59.582001999999996</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="9">
         <v>57.146000000000001</v>
       </c>
     </row>
@@ -3824,73 +3711,73 @@
       <c r="A48" t="s">
         <v>1</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="9">
         <v>2129.498</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="9">
         <v>1982.12</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="9">
         <v>2039.665</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="9">
         <v>2083.326</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="9">
         <v>2090.4949999999999</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="9">
         <v>2153.9560000000001</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="9">
         <v>2127.7959999999998</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="9">
         <v>2118.4549999999999</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="9">
         <v>2132.596</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="9">
         <v>1892.6610000000001</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="9">
         <v>1994.194</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="9">
         <v>1875.413</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="9">
         <v>1643.43</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="9">
         <v>1712.4079999999999</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="9">
         <v>1712.577</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="9">
         <v>1470.9970000000001</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="9">
         <v>1354.0340000000001</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="9">
         <v>1321.4190000000001</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="9">
         <v>1272.1500000000001</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="9">
         <v>1069.528</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="9">
         <v>855.77</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="9">
         <v>991.56100000000004</v>
       </c>
-      <c r="X48">
+      <c r="X48" s="9">
         <v>913.30200000000002</v>
       </c>
     </row>
@@ -3898,73 +3785,73 @@
       <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="9">
         <v>634.29</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="9">
         <v>659.91399999999999</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="9">
         <v>712.43200000000002</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="9">
         <v>670.19200000000001</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="9">
         <v>731.55200000000002</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="9">
         <v>782.82899999999995</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="9">
         <v>842.774</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="9">
         <v>915.19600000000003</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="9">
         <v>910.17600000000004</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="9">
         <v>949.77599999999995</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="9">
         <v>1017.869</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="9">
         <v>1045.2539999999999</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="9">
         <v>1264.5519999999999</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="9">
         <v>1158.454</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="9">
         <v>1161.3330000000001</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="9">
         <v>1372.57</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="9">
         <v>1418.1</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="9">
         <v>1337.703</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="9">
         <v>1519.2170000000001</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="9">
         <v>1639.826</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="9">
         <v>1680.143</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="9">
         <v>1634.0889999999999</v>
       </c>
-      <c r="X49">
+      <c r="X49" s="9">
         <v>1740.421</v>
       </c>
     </row>
@@ -3972,73 +3859,73 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="9">
         <v>14.621</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="9">
         <v>14.246</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="9">
         <v>14.939</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="9">
         <v>14.87</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="9">
         <v>15.487</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="9">
         <v>16.777999999999999</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="9">
         <v>16.581</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="9">
         <v>16.797999999999998</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="9">
         <v>16.873000000000001</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="9">
         <v>17.045999999999999</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="9">
         <v>17.577000000000002</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="9">
         <v>17.84</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="9">
         <v>18.135000000000002</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="9">
         <v>18.422000000000001</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="9">
         <v>18.71</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="9">
         <v>18.727</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="9">
         <v>18.584</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="9">
         <v>18.725999999999999</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="9">
         <v>18.773</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="9">
         <v>18.364000000000001</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="9">
         <v>18.831</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="9">
         <v>19.077000000000002</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="9">
         <v>19.141999999999999</v>
       </c>
     </row>
@@ -4046,73 +3933,73 @@
       <c r="A51" t="s">
         <v>8</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="9">
         <v>279.98599999999999</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>214.72800000000001</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="9">
         <v>291.755</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="9">
         <v>305.72399999999999</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="9">
         <v>297.89400000000001</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="9">
         <v>297.92599999999999</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="9">
         <v>317.68900000000002</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="9">
         <v>275.54500000000002</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="9">
         <v>281.995</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="9">
         <v>298.40999999999997</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="9">
         <v>286.33300000000003</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="9">
         <v>344.56099999999998</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="9">
         <v>298.28700000000003</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="9">
         <v>290.113</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="9">
         <v>281.52699999999999</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="9">
         <v>271.12900000000002</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="9">
         <v>292.113</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="9">
         <v>325.11400000000003</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="9">
         <v>317.00399999999996</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="9">
         <v>310.57099999999997</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="9">
         <v>308.21299999999997</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="9">
         <v>274.096</v>
       </c>
-      <c r="X51">
+      <c r="X51" s="9">
         <v>279.06799999999998</v>
       </c>
     </row>
@@ -4120,73 +4007,73 @@
       <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="9">
         <v>797.71799999999996</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="9">
         <v>792.60400000000004</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="9">
         <v>804.51900000000001</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="9">
         <v>787.81799999999998</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="9">
         <v>813.33900000000006</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="9">
         <v>810.726</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="9">
         <v>816.19500000000005</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="9">
         <v>836.63400000000001</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="9">
         <v>837.80399999999997</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="9">
         <v>830.21</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="9">
         <v>838.93100000000004</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="9">
         <v>821.40499999999997</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="9">
         <v>801.12900000000002</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="9">
         <v>822.00400000000002</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="9">
         <v>830.58399999999995</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="9">
         <v>830.28800000000001</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="9">
         <v>839.91800000000001</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="9">
         <v>838.86099999999999</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="9">
         <v>841.32899999999995</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="9">
         <v>843.33</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="9">
         <v>823.15</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="9">
         <v>811.55100000000004</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="9">
         <v>803.66899999999998</v>
       </c>
     </row>
@@ -4194,73 +4081,73 @@
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="9">
         <v>134.01499999999999</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="9">
         <v>143.767</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="9">
         <v>121.646</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="9">
         <v>152.88</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="9">
         <v>154.70699999999999</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="9">
         <v>155.17099999999999</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="9">
         <v>93.036999999999992</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="9">
         <v>91.814999999999998</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="9">
         <v>71.382000000000005</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="9">
         <v>64.051999999999992</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="9">
         <v>62.692</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="9">
         <v>55.600999999999999</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="9">
         <v>48.951000000000001</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="9">
         <v>52.445999999999998</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="9">
         <v>55.166000000000004</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="9">
         <v>54.754000000000005</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="9">
         <v>50.466999999999999</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="9">
         <v>47.513999999999996</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="9">
         <v>58.063000000000002</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="9">
         <v>51.272999999999996</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="9">
         <v>52.521000000000001</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="9">
         <v>50.584999999999994</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="9">
         <v>56.28</v>
       </c>
     </row>
@@ -4268,73 +4155,73 @@
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="9">
         <v>0.70900000000000007</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>0.78499999999999992</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="9">
         <v>0.83</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="9">
         <v>0.84800000000000009</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="9">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="9">
         <v>1.2869999999999999</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="9">
         <v>1.6739999999999999</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="9">
         <v>2.093</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="9">
         <v>2.5150000000000001</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="9">
         <v>3.9420000000000002</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="9">
         <v>6.2149999999999999</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="9">
         <v>10.145</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="9">
         <v>15.872</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="9">
         <v>25.763999999999999</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="9">
         <v>35.634999999999998</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="9">
         <v>50.334000000000003</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="9">
         <v>70.98</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="9">
         <v>85.183999999999997</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="9">
         <v>97.477999999999994</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="9">
         <v>119.32900000000001</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="9">
         <v>151.32299999999998</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="9">
         <v>187.071</v>
       </c>
     </row>
@@ -4342,155 +4229,155 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="9">
         <v>5.65</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>6.806</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="9">
         <v>10.459</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="9">
         <v>11.3</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="9">
         <v>14.291</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="9">
         <v>17.881</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="9">
         <v>26.675999999999998</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="9">
         <v>34.603000000000002</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="9">
         <v>55.695999999999998</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="9">
         <v>74.225999999999999</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="9">
         <v>95.147999999999996</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="9">
         <v>120.854</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="9">
         <v>141.922</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="9">
         <v>169.71299999999999</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="9">
         <v>183.892</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="9">
         <v>192.99200000000002</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="9">
         <v>229.471</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="9">
         <v>257.24900000000002</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="9">
         <v>275.834</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="9">
         <v>298.2</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="9">
         <v>341.81799999999998</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="9">
         <v>382.81400000000002</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="9">
         <v>439.27</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>85</v>
+    <row r="59" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="6">
         <v>2000</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>2001</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>2002</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="6">
         <v>2003</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="6">
         <v>2004</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="6">
         <v>2005</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="6">
         <v>2006</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="6">
         <v>2007</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="6">
         <v>2008</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="6">
         <v>2009</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="6">
         <v>2010</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="6">
         <v>2011</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="6">
         <v>2012</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="6">
         <v>2013</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="6">
         <v>2014</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="6">
         <v>2015</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="6">
         <v>2016</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="6">
         <v>2017</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="6">
         <v>2018</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="6">
         <v>2019</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="6">
         <v>2020</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="6">
         <v>2021</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="6">
         <v>2022</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="6">
         <v>2023</v>
       </c>
     </row>
@@ -4498,76 +4385,76 @@
       <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="9">
         <v>9.59</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="9">
         <v>10.59</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="9">
         <v>10.66</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="9">
         <v>10.540000000000001</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="9">
         <v>10.76</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="9">
         <v>11</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="9">
         <v>11.280000000000001</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="9">
         <v>11.94</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="9">
         <v>12.17</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="9">
         <v>12.53</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="9">
         <v>12.7</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="9">
         <v>12.899999999999999</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="9">
         <v>13.809999999999999</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="9">
         <v>14.89</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="9">
         <v>14.93</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="9">
         <v>15.52</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="9">
         <v>15.42</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="9">
         <v>15.33</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="9">
         <v>15.06</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="9">
         <v>14.61</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="9">
         <v>14.46</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="9">
         <v>13.94</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="9">
         <v>13.75</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="9">
         <v>13.66</v>
       </c>
     </row>
@@ -4575,76 +4462,76 @@
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="9">
         <v>334.24</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="9">
         <v>335.32</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="9">
         <v>335.8</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="9">
         <v>334.47</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="9">
         <v>334.48</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="9">
         <v>334.63</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="9">
         <v>334.94</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="9">
         <v>333.64</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="9">
         <v>334.56</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="9">
         <v>335.94</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="9">
         <v>339.36</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="9">
         <v>340.2</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="9">
         <v>332.88</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="9">
         <v>327.89</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="9">
         <v>323.38</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="9">
         <v>301.70999999999998</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="9">
         <v>285.75</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="9">
         <v>276.88</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="9">
         <v>260.95</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="9">
         <v>244.7</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="9">
         <v>233.04</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="9">
         <v>224.59</v>
       </c>
-      <c r="X62">
+      <c r="X62" s="9">
         <v>209.94</v>
       </c>
-      <c r="Y62">
+      <c r="Y62" s="9">
         <v>200.28</v>
       </c>
     </row>
@@ -4652,76 +4539,76 @@
       <c r="A63" t="s">
         <v>2</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="9">
         <v>161.54</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="9">
         <v>199.67</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="9">
         <v>264.55</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="9">
         <v>319.04000000000002</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="9">
         <v>343.88</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="9">
         <v>359.84</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="9">
         <v>371.13</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="9">
         <v>378.97</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="9">
         <v>388.45</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="9">
         <v>399.05</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="9">
         <v>407.07</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="9">
         <v>418.3</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="9">
         <v>429.01</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="9">
         <v>437.26</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="9">
         <v>448.9</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="9">
         <v>460.37</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="9">
         <v>473.01</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="9">
         <v>484.89</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="9">
         <v>509.07</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="9">
         <v>519.28</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="9">
         <v>523.75</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="9">
         <v>530.26</v>
       </c>
-      <c r="X63">
+      <c r="X63" s="9">
         <v>535.49</v>
       </c>
-      <c r="Y63">
+      <c r="Y63" s="9">
         <v>542.92999999999995</v>
       </c>
     </row>
@@ -4729,76 +4616,76 @@
       <c r="A64" t="s">
         <v>8</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="9">
         <v>79.36</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="9">
         <v>78.92</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="9">
         <v>79.36</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="9">
         <v>78.69</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="9">
         <v>77.64</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="9">
         <v>77.540000000000006</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="9">
         <v>77.819999999999993</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="9">
         <v>77.88</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="9">
         <v>77.930000000000007</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="9">
         <v>78.52</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="9">
         <v>82.61</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="9">
         <v>82.45</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="9">
         <v>82.56</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="9">
         <v>83.01</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="9">
         <v>83.49</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="9">
         <v>83.5</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="9">
         <v>83.82</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="9">
         <v>83.79</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="9">
         <v>83.88</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="9">
         <v>83.79</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="9">
         <v>83.83</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="9">
         <v>84.29</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="9">
         <v>86.63</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="9">
         <v>86.66</v>
       </c>
     </row>
@@ -4806,76 +4693,76 @@
       <c r="A65" t="s">
         <v>9</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="9">
         <v>97.86</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="9">
         <v>98.16</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="9">
         <v>98.66</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="9">
         <v>99.21</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="9">
         <v>99.63</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="9">
         <v>99.99</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="9">
         <v>100.33</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="9">
         <v>100.27</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="9">
         <v>100.75</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="9">
         <v>101</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="9">
         <v>101.17</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="9">
         <v>101.42</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="9">
         <v>101.89</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="9">
         <v>99.24</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="9">
         <v>98.57</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="9">
         <v>98.67</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="9">
         <v>99.56</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="9">
         <v>99.63</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="9">
         <v>99.43</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="9">
         <v>98.12</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="9">
         <v>96.5</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="9">
         <v>95.55</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="9">
         <v>94.66</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="9">
         <v>95.77</v>
       </c>
     </row>
@@ -4883,76 +4770,76 @@
       <c r="A66" t="s">
         <v>3</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="9">
         <v>86.09</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="9">
         <v>87.75</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="9">
         <v>61.52</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="9">
         <v>62.58</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="9">
         <v>61.16</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="9">
         <v>60.85</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="9">
         <v>60.32</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="9">
         <v>58.35</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="9">
         <v>59.77</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="9">
         <v>59.12</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="9">
         <v>59.53</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="9">
         <v>53.93</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="9">
         <v>49.83</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="9">
         <v>46.76</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="9">
         <v>44.84</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="9">
         <v>39.42</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="9">
         <v>36.92</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="9">
         <v>36.6</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="9">
         <v>34.78</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="9">
         <v>34.01</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="9">
         <v>30.15</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="9">
         <v>30.78</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="9">
         <v>33.18</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="9">
         <v>32.159999999999997</v>
       </c>
     </row>
@@ -4960,76 +4847,76 @@
       <c r="A67" t="s">
         <v>10</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="9">
         <v>0.59</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="9">
         <v>0.6</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="9">
         <v>0.64</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="9">
         <v>0.68</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="9">
         <v>0.75</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="9">
         <v>0.89</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="9">
         <v>1.44</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="9">
         <v>1.62</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="9">
         <v>2.09</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="9">
         <v>3.38</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="9">
         <v>5.64</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="9">
         <v>8.61</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="9">
         <v>13.25</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="9">
         <v>18.11</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="9">
         <v>24.24</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="9">
         <v>35.43</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="9">
         <v>43.77</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="9">
         <v>51.99</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="9">
         <v>61.59</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="9">
         <v>76.44</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="9">
         <v>95.39</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="9">
         <v>114.36</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="9">
         <v>139.21</v>
       </c>
     </row>
@@ -5037,161 +4924,161 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="9">
         <v>2.38</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="9">
         <v>3.86</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="9">
         <v>4.42</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="9">
         <v>6</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="9">
         <v>6.46</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="9">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="9">
         <v>11.33</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="9">
         <v>16.52</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="9">
         <v>24.65</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="9">
         <v>34.299999999999997</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="9">
         <v>39.35</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="9">
         <v>45.79</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="9">
         <v>59.45</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="9">
         <v>60.2</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="9">
         <v>64.430000000000007</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="9">
         <v>72.77</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="9">
         <v>81.5</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="9">
         <v>87.83</v>
       </c>
-      <c r="T68">
+      <c r="T68" s="9">
         <v>94.67</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="9">
         <v>103.84</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="9">
         <v>118.66</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="9">
         <v>133.02000000000001</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="9">
         <v>141.66999999999999</v>
       </c>
-      <c r="Y68">
+      <c r="Y68" s="9">
         <v>148.02000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>86</v>
+    <row r="71" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>2000</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>2001</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>2002</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="6">
         <v>2003</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="6">
         <v>2004</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="6">
         <v>2005</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="6">
         <v>2006</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="6">
         <v>2007</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="6">
         <v>2008</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="6">
         <v>2009</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="6">
         <v>2010</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="6">
         <v>2011</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="6">
         <v>2012</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="6">
         <v>2013</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="6">
         <v>2014</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="6">
         <v>2015</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="6">
         <v>2016</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="6">
         <v>2017</v>
       </c>
-      <c r="T72">
+      <c r="T72" s="6">
         <v>2018</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="6">
         <v>2019</v>
       </c>
-      <c r="V72">
+      <c r="V72" s="6">
         <v>2020</v>
       </c>
-      <c r="W72">
+      <c r="W72" s="6">
         <v>2021</v>
       </c>
-      <c r="X72">
+      <c r="X72" s="6">
         <v>2022</v>
       </c>
-      <c r="Y72">
+      <c r="Y72" s="6">
         <v>2023</v>
       </c>
-      <c r="Z72">
+      <c r="Z72" s="6">
         <v>2024</v>
       </c>
     </row>
@@ -5199,79 +5086,79 @@
       <c r="A73" t="s">
         <v>0</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="9">
         <v>6.796149999999999</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="9">
         <v>8.3813949999999995</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="9">
         <v>8.4054149999999996</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="9">
         <v>8.4073600000000006</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="9">
         <v>8.6129899999999999</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="9">
         <v>8.7186249999999994</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="9">
         <v>9.0057599999999987</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="9">
         <v>9.7297499999999992</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="9">
         <v>9.9424499999999991</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="9">
         <v>10.142300000000001</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="9">
         <v>10.295999999999999</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="9">
         <v>10.493450000000001</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="9">
         <v>11.216849999999999</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="9">
         <v>12.283349999999999</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="9">
         <v>12.419550000000001</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="9">
         <v>12.9693</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="9">
         <v>12.900699999999999</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="9">
         <v>12.837900000000001</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="9">
         <v>12.616149999999999</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="9">
         <v>12.052950000000001</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="9">
         <v>11.8889</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="9">
         <v>11.334</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="9">
         <v>11.1015</v>
       </c>
-      <c r="Y73">
+      <c r="Y73" s="9">
         <v>10.9895</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" s="9">
         <v>10.9101</v>
       </c>
     </row>
@@ -5279,79 +5166,79 @@
       <c r="A74" t="s">
         <v>1</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="9">
         <v>321.05500000000001</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="9">
         <v>315.09773999999999</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="9">
         <v>316.19997999999998</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="9">
         <v>313.87878000000001</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="9">
         <v>314.02522999999997</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="9">
         <v>314.28313000000003</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="9">
         <v>313.87216999999998</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="9">
         <v>313.64070000000004</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="9">
         <v>314.23070000000001</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="9">
         <v>315.13</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="9">
         <v>317.73700000000002</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="9">
         <v>318.58100000000002</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="9">
         <v>310.49809999999997</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="9">
         <v>304.12809999999996</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="9">
         <v>299.90940000000001</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="9">
         <v>280.77350000000001</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="9">
         <v>267.61500000000001</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="9">
         <v>257.47339999999997</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="9">
         <v>243.71170000000001</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="9">
         <v>229.57550000000001</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="9">
         <v>216.47229999999999</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="9">
         <v>210.60479999999998</v>
       </c>
-      <c r="X74">
+      <c r="X74" s="9">
         <v>190.0273</v>
       </c>
-      <c r="Y74">
+      <c r="Y74" s="9">
         <v>181.46689999999998</v>
       </c>
-      <c r="Z74">
+      <c r="Z74" s="9">
         <v>177.0069</v>
       </c>
     </row>
@@ -5359,79 +5246,79 @@
       <c r="A75" t="s">
         <v>2</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="9">
         <v>243.24100000000001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="9">
         <v>233.81331</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="9">
         <v>313.74014</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="9">
         <v>356.62590999999998</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="9">
         <v>372.10201000000001</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="9">
         <v>383.88529</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="9">
         <v>389.38721000000004</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="9">
         <v>393.9015</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="9">
         <v>398.26979999999998</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="9">
         <v>402.02679999999998</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="9">
         <v>406.87579999999997</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="9">
         <v>416.1848</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="9">
         <v>423.4923</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="9">
         <v>426.67570000000001</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="9">
         <v>433.24940000000004</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="9">
         <v>440.87220000000002</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="9">
         <v>448.28500000000003</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="9">
         <v>457.46129999999999</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="9">
         <v>471.85470000000004</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="9">
         <v>478.14850000000001</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="9">
         <v>487.16429999999997</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="9">
         <v>492.97909999999996</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="9">
         <v>503.41409999999996</v>
       </c>
-      <c r="Y75">
+      <c r="Y75" s="9">
         <v>508.3458</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="9">
         <v>506.93170000000003</v>
       </c>
     </row>
@@ -5439,79 +5326,79 @@
       <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="9">
         <v>2.7930000000000001</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="9">
         <v>2.2162100000000002</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="9">
         <v>2.2522500000000001</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="9">
         <v>2.1332499999999999</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="9">
         <v>2.1520799999999998</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="9">
         <v>2.2853000000000003</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="9">
         <v>2.2739799999999999</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="9">
         <v>2.2141999999999999</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="9">
         <v>2.2288000000000001</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="9">
         <v>2.3818999999999999</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="9">
         <v>2.4045999999999998</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="9">
         <v>2.4091999999999998</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="9">
         <v>2.5920999999999998</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="9">
         <v>2.6070000000000002</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="9">
         <v>2.5143</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="9">
         <v>2.5415000000000001</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="9">
         <v>2.5165999999999999</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="9">
         <v>2.4833000000000003</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="9">
         <v>2.4443000000000001</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="9">
         <v>2.5554000000000001</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="9">
         <v>2.5719000000000003</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="9">
         <v>2.5966999999999998</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="9">
         <v>2.6486000000000001</v>
       </c>
-      <c r="Y76">
+      <c r="Y76" s="9">
         <v>2.6736</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" s="9">
         <v>2.7028000000000003</v>
       </c>
     </row>
@@ -5519,79 +5406,79 @@
       <c r="A77" t="s">
         <v>8</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="9">
         <v>97.600000000000009</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="9">
         <v>98.580000000000013</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="9">
         <v>99.727000000000004</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="9">
         <v>99.215999999999994</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="9">
         <v>98.405000000000001</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="9">
         <v>98.887</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="9">
         <v>99.282000000000011</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="9">
         <v>99.770999999999987</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="9">
         <v>99.787999999999997</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="9">
         <v>100.678</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="9">
         <v>101.1204</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="9">
         <v>101.0419</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="9">
         <v>101.2259</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="9">
         <v>101.69289999999999</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="9">
         <v>102.27019999999999</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="9">
         <v>102.36019999999999</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="9">
         <v>102.84774899999999</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="9">
         <v>102.85131799999999</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="9">
         <v>102.960565</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="9">
         <v>102.814713</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="9">
         <v>103.188447</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="9">
         <v>103.159282</v>
       </c>
-      <c r="X77">
+      <c r="X77" s="9">
         <v>103.33971200000001</v>
       </c>
-      <c r="Y77">
+      <c r="Y77" s="9">
         <v>103.25035299999999</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" s="9">
         <v>103.103253</v>
       </c>
     </row>
@@ -5599,79 +5486,79 @@
       <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="9">
         <v>97.86</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="9">
         <v>98.158899999999988</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="9">
         <v>98.656999999999996</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="9">
         <v>99.208860000000001</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="9">
         <v>99.628100000000003</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="9">
         <v>99.988039999999998</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="9">
         <v>100.33377</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="9">
         <v>100.2657</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="9">
         <v>100.75489999999999</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="9">
         <v>101.00369999999999</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="9">
         <v>101.1674</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="9">
         <v>101.4188</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="9">
         <v>101.88500000000001</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="9">
         <v>99.240300000000005</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="9">
         <v>98.569299999999998</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="9">
         <v>98.671999999999997</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="9">
         <v>99.564800000000005</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="9">
         <v>99.628899999999987</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="9">
         <v>99.432899999999989</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="9">
         <v>98.119</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="9">
         <v>96.500600000000006</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="9">
         <v>95.546399999999991</v>
       </c>
-      <c r="X78">
+      <c r="X78" s="9">
         <v>94.658899999999988</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="9">
         <v>95.772899999999993</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="9">
         <v>96.886899999999997</v>
       </c>
     </row>
@@ -5679,79 +5566,79 @@
       <c r="A79" t="s">
         <v>3</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="9">
         <v>86.087164999999999</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="9">
         <v>87.751305000000002</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="9">
         <v>61.516044999999998</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="9">
         <v>62.584490000000002</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="9">
         <v>61.162999999999997</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="9">
         <v>60.854835000000001</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="9">
         <v>60.320080000000004</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="9">
         <v>58.348350000000003</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="9">
         <v>59.769349999999996</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="9">
         <v>59.1233</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="9">
         <v>59.525500000000001</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="9">
         <v>53.92915</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="9">
         <v>49.832649999999994</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="9">
         <v>46.755250000000004</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="9">
         <v>44.843950000000007</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="9">
         <v>39.415800000000004</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="9">
         <v>36.920600000000007</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="9">
         <v>36.6036</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="9">
         <v>34.782850000000003</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="9">
         <v>34.005249999999997</v>
       </c>
-      <c r="V79">
+      <c r="V79" s="9">
         <v>30.154299999999999</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="9">
         <v>30.7805</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="9">
         <v>33.178799999999995</v>
       </c>
-      <c r="Y79">
+      <c r="Y79" s="9">
         <v>32.158799999999999</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="9">
         <v>31.953700000000001</v>
       </c>
     </row>
@@ -5759,79 +5646,79 @@
       <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="9">
         <v>0.59371299999999994</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="9">
         <v>0.59860000000000002</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="9">
         <v>0.64260000000000006</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="9">
         <v>0.68100000000000005</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="9">
         <v>0.75180000000000002</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="9">
         <v>0.89379999999999993</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="9">
         <v>1.0988</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="9">
         <v>1.4388000000000001</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="9">
         <v>1.6177999999999999</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="9">
         <v>2.0870000000000002</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="9">
         <v>3.3819999999999997</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="9">
         <v>5.6434999999999995</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="9">
         <v>8.6129999999999995</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="9">
         <v>13.245500000000002</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="9">
         <v>18.112127999999998</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="9">
         <v>24.236846</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="9">
         <v>35.433673999999996</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="9">
         <v>43.769840000000002</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="9">
         <v>51.986993999999996</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="9">
         <v>61.587229000000001</v>
       </c>
-      <c r="V80">
+      <c r="V80" s="9">
         <v>76.441096999999999</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="9">
         <v>95.390912999999998</v>
       </c>
-      <c r="X80">
+      <c r="X80" s="9">
         <v>114.36094700000001</v>
       </c>
-      <c r="Y80">
+      <c r="Y80" s="9">
         <v>139.205277</v>
       </c>
-      <c r="Z80">
+      <c r="Z80" s="9">
         <v>177.47027699999998</v>
       </c>
     </row>
@@ -5839,324 +5726,324 @@
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="9">
         <v>2.3769999999999998</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="9">
         <v>3.8636399999999997</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="9">
         <v>4.4166400000000001</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="9">
         <v>5.99519</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="9">
         <v>6.4558</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="9">
         <v>8.70641</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="9">
         <v>11.328790000000001</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="9">
         <v>16.515099999999997</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="9">
         <v>24.651299999999999</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="9">
         <v>34.2958</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="9">
         <v>39.349694999999997</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="9">
         <v>45.794967999999997</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="9">
         <v>59.453299000000001</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="9">
         <v>60.198163999999998</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="9">
         <v>64.430186000000006</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="9">
         <v>72.767236000000011</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="9">
         <v>81.502362000000005</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="9">
         <v>87.830780000000004</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="9">
         <v>94.666184999999999</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="9">
         <v>103.835556</v>
       </c>
-      <c r="V81">
+      <c r="V81" s="9">
         <v>118.66354000000001</v>
       </c>
-      <c r="W81">
+      <c r="W81" s="9">
         <v>133.01927700000002</v>
       </c>
-      <c r="X81">
+      <c r="X81" s="9">
         <v>141.673912</v>
       </c>
-      <c r="Y81">
+      <c r="Y81" s="9">
         <v>148.01986099999999</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="9">
         <v>153.15226100000001</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>87</v>
+    <row r="84" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A84" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="6">
         <v>2000</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>2001</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="6">
         <v>2002</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="6">
         <v>2003</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="6">
         <v>2004</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="6">
         <v>2005</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="6">
         <v>2006</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="6">
         <v>2007</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="6">
         <v>2008</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="6">
         <v>2009</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="6">
         <v>2010</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="6">
         <v>2011</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="6">
         <v>2012</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="6">
         <v>2013</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="6">
         <v>2014</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="6">
         <v>2015</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="6">
         <v>2016</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="6">
         <v>2017</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="6">
         <v>2018</v>
       </c>
-      <c r="V85">
+      <c r="V85" s="6">
         <v>2019</v>
       </c>
-      <c r="W85">
+      <c r="W85" s="6">
         <v>2020</v>
       </c>
-      <c r="X85">
+      <c r="X85" s="6">
         <v>2021</v>
       </c>
-      <c r="Y85">
+      <c r="Y85" s="6">
         <v>2022</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="C86" s="9">
         <v>14.7</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="9">
         <v>16.5</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="9">
         <v>13.6</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="9">
         <v>24</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="9">
         <v>22.9</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="9">
         <v>19.8</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="9">
         <v>24.3</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="9">
         <v>20.100000000000001</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="9">
         <v>24.2</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="9">
         <v>18.100000000000001</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="9">
         <v>19.100000000000001</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="9">
         <v>15</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="9">
         <v>12</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="9">
         <v>11.4</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="9">
         <v>13.3</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="9">
         <v>9.1</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="9">
         <v>6.2</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="9">
         <v>9.4</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="9">
         <v>13.8</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="9">
         <v>20</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="9">
         <v>14.1</v>
       </c>
-      <c r="X86">
+      <c r="X86" s="9">
         <v>13.9</v>
       </c>
-      <c r="Y86">
+      <c r="Y86" s="9">
         <v>15.8</v>
       </c>
-      <c r="Z86">
+      <c r="Z86" s="9">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87">
+        <v>66</v>
+      </c>
+      <c r="C87" s="9">
         <v>48.6</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="9">
         <v>38.5</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="9">
         <v>36.4</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="9">
         <v>30.4</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="9">
         <v>44.5</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="9">
         <v>42.7</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="9">
         <v>51.4</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="9">
         <v>57</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="9">
         <v>52.2</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="9">
         <v>45.1</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="9">
         <v>52.3</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="9">
         <v>59.3</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="9">
         <v>70.400000000000006</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="9">
         <v>66.5</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="9">
         <v>75.8</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="9">
         <v>72.7</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="9">
         <v>65.7</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="9">
         <v>58.3</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="9">
         <v>59.1</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="9">
         <v>61.4</v>
       </c>
-      <c r="X87">
+      <c r="X87" s="9">
         <v>53.2</v>
       </c>
-      <c r="Y87">
+      <c r="Y87" s="9">
         <v>57</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="9">
         <v>38.9</v>
       </c>
     </row>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129E019-B4EC-4CF6-B8C2-E2CBE05E3CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6882E-B994-4EF0-8320-D3F1A1CBEC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -51,8 +51,11 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -71,6 +74,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE6F1"/>
+        <bgColor rgb="00DCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -85,7 +94,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -98,6 +107,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,27 +552,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t>model_fuel</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>ember_min</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="10" t="inlineStr">
         <is>
           <t>ember_max</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="10" t="inlineStr">
         <is>
           <t>irena_min</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="10" t="inlineStr">
         <is>
           <t>irena_max</t>
         </is>
@@ -579,17 +589,17 @@
           <t>bioenergy</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0.5486</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8905999999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5787</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9437</v>
+      <c r="G3" s="7" t="n">
+        <v>0.548630471262293</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0.8906252231919665</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0.5786929779210424</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0.9436581186830296</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -634,17 +644,17 @@
           <t>coal</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0.3788</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4513</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7824</v>
+      <c r="G4" s="7" t="n">
+        <v>0.3788471064210663</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0.6899337540969159</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0.4512847106507687</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0.7823690317958011</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -686,17 +696,17 @@
           <t>gas</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0.2325</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4346</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.3947</v>
+      <c r="G5" s="7" t="n">
+        <v>0.2325433778504463</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0.4345941432434282</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.2145271387405906</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.3946615645986714</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -741,17 +751,17 @@
           <t>geothermal</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="7" t="n">
         <v/>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="7" t="n">
         <v/>
       </c>
-      <c r="I6" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8767</v>
+      <c r="I6" s="7" t="n">
+        <v>0.5975882301971498</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.8767485700120137</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -784,17 +794,17 @@
           <t>hydro</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0.3011</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.4333</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2487</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3893</v>
+      <c r="G7" s="7" t="n">
+        <v>0.3010678405043429</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0.4332638294690846</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.2486541769844115</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0.3892785813467925</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -886,17 +896,17 @@
           <t>nuclear</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0.8619</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9417</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9812</v>
+      <c r="G8" s="7" t="n">
+        <v>0.8619399289501483</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0.9416877479258461</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0.8976108572584858</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0.9811611201215411</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -957,17 +967,17 @@
           <t>oil</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2424</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1121</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2911</v>
+      <c r="G9" s="7" t="n">
+        <v>0.08850048303779549</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0.2424212560213349</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0.1121355917983518</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.2910793279594932</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1031,17 +1041,17 @@
           <t>solar</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0.0368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1257</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1871</v>
+      <c r="G10" s="7" t="n">
+        <v>0.03683733281518184</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0.2049920032039881</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0.1257154045972798</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0.1870506479609498</v>
       </c>
     </row>
     <row r="11" ht="14.65" customHeight="1">
@@ -1050,17 +1060,17 @@
           <t>wind</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0.1993</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2011</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3539</v>
+      <c r="G11" s="7" t="n">
+        <v>0.1993280810088248</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>0.349951475758991</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0.2010903291376542</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0.3539464426516985</v>
       </c>
     </row>
     <row r="13">

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6329BA8-2AD5-4967-B200-2D4757DF65E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B1B38-A323-4F3E-ABEE-EADEFE117029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -70,11 +70,218 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: AllRegions</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>ep*</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>~UC_T: UC_CAP~UP</t>
+  </si>
+  <si>
+    <t>~UC_T: UC_CAP~LO</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>UC_N</t>
+  </si>
+  <si>
+    <t>pset_co</t>
+  </si>
+  <si>
+    <t>UC_ACT</t>
+  </si>
+  <si>
+    <t>UC_RHSRT</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~0</t>
+  </si>
+  <si>
+    <t>UC_CAP</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>UCE_max coal fleet utilization</t>
+  </si>
+  <si>
+    <t>-CO2Captured</t>
+  </si>
+  <si>
+    <t>UCE_min coal fleet utilization</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>UCE_max gas fleet utilization</t>
+  </si>
+  <si>
+    <t>UCE_min gas fleet utilization</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>Bioenergy + CCUS</t>
+  </si>
+  <si>
+    <t>Bioenergy - Cofiring</t>
+  </si>
+  <si>
+    <t>Bioenergy - Large scale unit</t>
+  </si>
+  <si>
+    <t>Bioenergy - Medium-scale CHP</t>
+  </si>
+  <si>
+    <t>Concentrating solar power</t>
+  </si>
+  <si>
+    <t>Fuel cell (distributed electricity generation)</t>
+  </si>
+  <si>
+    <t>cset_cn</t>
+  </si>
+  <si>
+    <t>other_indexes</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>VDA_EMCB</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Oxyfuel + CCS</t>
+  </si>
+  <si>
+    <t>Solar photovoltaics - Buildings</t>
+  </si>
+  <si>
+    <t>Solar photovoltaics - Large scale unit</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>CCGT - CHP</t>
+  </si>
+  <si>
+    <t>~UC_T: FX</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>UCE_Solar capacity aggregation for peak</t>
+  </si>
+  <si>
+    <t>ElcAgg_Solar</t>
+  </si>
+  <si>
+    <t>UCE_Wind capacity aggregation for peak</t>
+  </si>
+  <si>
+    <t>ElcAgg_Wind</t>
+  </si>
+  <si>
+    <t>ep*,EN*</t>
+  </si>
+  <si>
+    <t>Geothermal*</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
+  </si>
   <si>
     <t>model_fuel</t>
   </si>
   <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>IRENA Utilization Factors</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
     <t>ember_min</t>
   </si>
   <si>
@@ -85,189 +292,6 @@
   </si>
   <si>
     <t>irena_max</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
-    <t>~UC_Sets: R_E: AllRegions</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>ep*</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>~UC_T: UC_CAP~UP</t>
-  </si>
-  <si>
-    <t>~UC_T: UC_CAP~LO</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>UC_N</t>
-  </si>
-  <si>
-    <t>pset_co</t>
-  </si>
-  <si>
-    <t>UC_ACT</t>
-  </si>
-  <si>
-    <t>UC_RHSRT</t>
-  </si>
-  <si>
-    <t>UC_RHSRT~0</t>
-  </si>
-  <si>
-    <t>UC_CAP</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>UCE_max coal fleet utilization</t>
-  </si>
-  <si>
-    <t>-CO2Captured</t>
-  </si>
-  <si>
-    <t>UCE_min coal fleet utilization</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>UCE_max gas fleet utilization</t>
-  </si>
-  <si>
-    <t>UCE_min gas fleet utilization</t>
-  </si>
-  <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
-    <t>cset_cn</t>
-  </si>
-  <si>
-    <t>other_indexes</t>
-  </si>
-  <si>
-    <t>Marine</t>
-  </si>
-  <si>
-    <t>VDA_EMCB</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Large scale unit</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
-  </si>
-  <si>
-    <t>EMBER Utilization Factors</t>
-  </si>
-  <si>
-    <t>IRENA Utilization Factors</t>
-  </si>
-  <si>
-    <t>EMBER Generation (TWh)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>IRENA Generation (TWh)</t>
-  </si>
-  <si>
-    <t>EMBER Capacity (GW)</t>
-  </si>
-  <si>
-    <t>IRENA Capacity (GW)</t>
-  </si>
-  <si>
-    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
-  </si>
-  <si>
-    <t>ISO</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>Import</t>
   </si>
 </sst>
 </file>
@@ -294,6 +318,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,19 +350,7 @@
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -338,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,12 +376,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFC8"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -374,13 +399,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,9 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ27"/>
+  <dimension ref="B1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -761,164 +788,164 @@
       </c>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="F2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>4</v>
+      <c r="F2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.54863047126229303</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.89062522319196646</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.57869297792104235</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.94365811868302962</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.37884710642106628</v>
-      </c>
-      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.37884710642106634</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.68993375409691593</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>0.45128471065076869</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>0.78236903179580108</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10">
+        <v>53</v>
+      </c>
+      <c r="D5" s="5">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.3892785813467925</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.23254337785044629</v>
-      </c>
-      <c r="H5" s="6">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.23254337785044626</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.43459414324342821</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.21452713874059059</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.39466156459867141</v>
+      <c r="I5" s="4">
+        <v>0.21452713874059057</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.39466156459867135</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10">
-        <f t="shared" ref="D6:D8" si="0">IFERROR(VLOOKUP(B6,$F$3:$J$11,5,FALSE),"")</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:D7" si="0">IFERROR(VLOOKUP(B6,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.18705064796094981</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>0.59758823019714979</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>0.87674857001201367</v>
       </c>
       <c r="U6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>0.3539464426516985</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4">
         <v>0.30106784050434288</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.43326382946908459</v>
       </c>
-      <c r="I7" s="6">
-        <v>0.2486541769844115</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="4">
+        <v>0.24865417698441153</v>
+      </c>
+      <c r="J7" s="4">
         <v>0.3892785813467925</v>
       </c>
       <c r="U7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="V7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="X7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y7">
         <v>2022</v>
@@ -927,67 +954,67 @@
         <v>2050</v>
       </c>
       <c r="AA7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AB7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AH7">
         <v>2050</v>
       </c>
       <c r="AI7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
         <f>IFERROR(VLOOKUP(B8,$F$3:$J$11,3,FALSE),"")</f>
         <v>0.94168774792584609</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="6">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.86193992895014826</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>0.94168774792584609</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>0.89761085725848577</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>0.98116112012154111</v>
       </c>
       <c r="U8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X8">
         <f>-1/8.76</f>
@@ -1008,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF8">
         <f>-1/8.76</f>
@@ -1019,11 +1046,11 @@
       </c>
       <c r="AG8" s="3">
         <f>VLOOKUP(AE8,$F$3:$J$11,2,FALSE)</f>
-        <v>0.37884710642106628</v>
+        <v>0.37884710642106634</v>
       </c>
       <c r="AH8">
         <f>AG8*$AC$1</f>
-        <v>0.34096239577895965</v>
+        <v>0.3409623957789597</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1034,28 +1061,28 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4">
         <v>8.8500483037795494E-2</v>
       </c>
-      <c r="H9" s="6">
-        <v>0.24242125602133491</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.11213559179835179</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.29107932795949321</v>
+      <c r="H9" s="4">
+        <v>0.24242125602133488</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.11213559179835184</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.29107932795949315</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="V9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X9">
         <f>-1/8.76</f>
@@ -1076,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AF9">
         <f>-1/8.76</f>
@@ -1087,11 +1114,11 @@
       </c>
       <c r="AG9" s="3">
         <f>VLOOKUP(AE9,$F$3:$J$11,2,FALSE)</f>
-        <v>0.23254337785044629</v>
+        <v>0.23254337785044626</v>
       </c>
       <c r="AH9">
         <f>AG9*$AC$1</f>
-        <v>0.20928904006540167</v>
+        <v>0.20928904006540164</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1102,123 +1129,123 @@
     </row>
     <row r="10" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
         <v>3.6837332815181839E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0.20499200320398811</v>
       </c>
-      <c r="I10" s="6">
-        <v>0.12571540459727981</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="4">
+        <v>0.12571540459727984</v>
+      </c>
+      <c r="J10" s="4">
         <v>0.18705064796094981</v>
       </c>
     </row>
     <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.19932808100882479</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.34995147575899099</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.20109032913765421</v>
-      </c>
-      <c r="J11" s="6">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.19932808100882485</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.34995147575899105</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.20109032913765423</v>
+      </c>
+      <c r="J11" s="4">
         <v>0.3539464426516985</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>2100</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,L15:L27)</f>
-        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,L15:L28)</f>
+        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP,Geothermal*</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <f>G22*3.6</f>
@@ -1228,18 +1255,18 @@
         <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <f>G23*3.6</f>
@@ -1249,18 +1276,18 @@
         <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <f>G24*3.6</f>
@@ -1270,22 +1297,93 @@
         <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1296,9 +1394,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1316,4787 +1416,4788 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
-        <v>54</v>
+      <c r="A1" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7">
         <v>2000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>2001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>2002</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>2003</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>2004</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>2005</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>2006</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>2007</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>2008</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <v>2009</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <v>2010</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <v>2011</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="7">
         <v>2012</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="7">
         <v>2013</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="7">
         <v>2014</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="7">
         <v>2015</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="7">
         <v>2016</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="7">
         <v>2017</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="7">
         <v>2018</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="7">
         <v>2019</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="7">
         <v>2020</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="7">
         <v>2021</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="7">
         <v>2022</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="7">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.89062522319196646</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.69678899280358397</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.74800603116673936</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.76020465632121148</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.74784420566617438</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.73599003735990043</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.72227484698338673</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.69066795163029759</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.67864687100175214</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>0.65559552052243575</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>0.66443749325854817</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>0.66201196417825925</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>0.62723392155112279</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>0.61041243088585706</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>0.63515584141518866</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>0.60865638092548136</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>0.60645902551984321</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>0.60890247135321263</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="4">
         <v>0.6103440120795357</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="4">
         <v>0.58898171328201421</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="4">
         <v>0.57464458717798117</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="4">
         <v>0.59362368402088539</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="4">
         <v>0.5812370278123703</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="4">
         <v>0.54863047126229303</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.67155351143519759</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.64817795527696032</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.65716778034326806</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.67364123953756039</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.67517738977915964</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>0.68666790295340163</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>0.67841156311510031</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>0.68993375409691593</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>0.67757501708780188</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>0.59666965969950614</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>0.62139867362470103</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>0.58165825098854018</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <v>0.5192129789664629</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>0.55046512285345728</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <v>0.55835395597472026</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>0.51169520945224101</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>0.49503229904481122</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <v>0.49715749796492947</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="4">
         <v>0.50285617794482929</v>
       </c>
-      <c r="U4" s="6">
-        <v>0.45016449179220491</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0.37884710642106628</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.45643802273081691</v>
-      </c>
-      <c r="X4" s="6">
+      <c r="U4" s="4">
+        <v>0.45016449179220486</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.37884710642106634</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.45643802273081685</v>
+      </c>
+      <c r="X4" s="4">
         <v>0.45213505228499729</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="4">
         <v>0.38479804073384022</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.43459414324342821</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.36540314349727282</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.29817584612105158</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.23254337785044629</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="4">
+        <v>0.23254337785044626</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.2357265436652799</v>
       </c>
-      <c r="G5" s="6">
-        <v>0.24140612469062861</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="4">
+        <v>0.24140612469062864</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.2511274034489509</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.27007535324960957</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="4">
+        <v>0.27007535324960963</v>
+      </c>
+      <c r="J5" s="4">
         <v>0.25948462775896008</v>
       </c>
-      <c r="K5" s="6">
-        <v>0.26346248138415501</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="K5" s="4">
+        <v>0.26346248138415496</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.27698219360923532</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>0.27663886332699111</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>0.32619701364051612</v>
       </c>
-      <c r="O5" s="6">
-        <v>0.29366142042277799</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0.28649687567071608</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0.33065522143544862</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="O5" s="4">
+        <v>0.29366142042277804</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.28649687567071613</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.33065522143544857</v>
+      </c>
+      <c r="R5" s="4">
         <v>0.33263847318431589</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>0.30521444820465338</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="4">
         <v>0.32944173514367192</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="4">
         <v>0.3486145024125431</v>
       </c>
-      <c r="V5" s="6">
-        <v>0.35400006538725598</v>
-      </c>
-      <c r="W5" s="6">
+      <c r="V5" s="4">
+        <v>0.35400006538725604</v>
+      </c>
+      <c r="W5" s="4">
         <v>0.33997063902656871</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="4">
         <v>0.3596458533135401</v>
       </c>
-      <c r="Y5" s="6">
-        <v>0.37973814833719333</v>
+      <c r="Y5" s="4">
+        <v>0.37973814833719327</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.38842417421564301</v>
-      </c>
-      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.38842417421564296</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.30106784050434288</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.36765298184563272</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="4">
+        <v>0.36765298184563266</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.3877274618452502</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.3821789596757309</v>
       </c>
-      <c r="G6" s="6">
-        <v>0.38831040806159262</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.41468193196100589</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.35268226729800922</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.36407219451714951</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.39082035929536613</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="G6" s="4">
+        <v>0.38831040806159256</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.41468193196100595</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.35268226729800917</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.36407219451714945</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.39082035929536607</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.35195911470467772</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>0.43326382946908459</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>0.37511116863119892</v>
       </c>
-      <c r="O6" s="6">
-        <v>0.36288745538167538</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O6" s="4">
+        <v>0.36288745538167544</v>
+      </c>
+      <c r="P6" s="4">
         <v>0.34618478903497041</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>0.33356574522188498</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>0.355635417926433</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>0.40032675731511858</v>
       </c>
-      <c r="T6" s="6">
-        <v>0.39007126945865273</v>
-      </c>
-      <c r="U6" s="6">
+      <c r="T6" s="4">
+        <v>0.39007126945865267</v>
+      </c>
+      <c r="U6" s="4">
         <v>0.3850270381324043</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="4">
         <v>0.38122107308931918</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="4">
         <v>0.33379813440335088</v>
       </c>
-      <c r="X6" s="6">
-        <v>0.32779937982191631</v>
-      </c>
-      <c r="Y6" s="6">
+      <c r="X6" s="4">
+        <v>0.32779937982191626</v>
+      </c>
+      <c r="Y6" s="4">
         <v>0.31484244836536429</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.87942471166058678</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.89411146836959887</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.90257394288951398</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.87878026362602468</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.90349131970940888</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>0.89277192559438601</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.89569716738416194</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>0.91809192804997286</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>0.91347995059881948</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>0.90290022152900229</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>0.91054525070375247</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>0.8894249600873082</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>0.86193992895014826</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>0.90760556484993726</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <v>0.92321336666847342</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <v>0.92228927845366193</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>0.92380217248129226</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="4">
         <v>0.92230522339047183</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="4">
         <v>0.92660585428265319</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="4">
         <v>0.94168774792584609</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="4">
         <v>0.9343932618827927</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="4">
         <v>0.93146145005244818</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="4">
         <v>0.93043885976921004</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="4">
         <v>0.92362409368335385</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.15384240024907561</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.17639100287502121</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.19240503886325711</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.24148085883858619</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.24242125602133491</v>
-      </c>
-      <c r="G8" s="6">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.15384240024907564</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.17639100287502116</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.19240503886325713</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.24148085883858617</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.24242125602133488</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.23662122968749411</v>
       </c>
-      <c r="H8" s="6">
-        <v>0.13552151084626279</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.14710082833476151</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="4">
+        <v>0.13552151084626285</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.14710082833476149</v>
+      </c>
+      <c r="J8" s="4">
         <v>0.10586624679230811</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>9.370694076284751E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>9.1086417423546853E-2</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>8.8500483037795494E-2</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <v>8.9551048908755537E-2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>9.8286792364390599E-2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <v>0.1112275406417134</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <v>0.12869252564004549</v>
       </c>
-      <c r="R8" s="6">
-        <v>0.1221325140869806</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0.1181787558949023</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="R8" s="4">
+        <v>0.12213251408698061</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.11817875589490232</v>
+      </c>
+      <c r="T8" s="4">
         <v>0.140084707266287</v>
       </c>
-      <c r="U8" s="6">
-        <v>0.1256681153407741</v>
-      </c>
-      <c r="V8" s="6">
+      <c r="U8" s="4">
+        <v>0.12566811534077407</v>
+      </c>
+      <c r="V8" s="4">
         <v>0.13001961274298221</v>
       </c>
-      <c r="W8" s="6">
-        <v>0.1305479155354986</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0.13294029246864339</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0.1175983666144165</v>
+      <c r="W8" s="4">
+        <v>0.13054791553549863</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.13294029246864345</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0.11759836661441653</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
         <v>9.4806903490441935E-2</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.1027397260273973</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4">
+        <v>0.10273972602739728</v>
+      </c>
+      <c r="D9" s="4">
         <v>9.8102168949771695E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>8.8973945742680638E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>8.8280060882800604E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>7.0545379918936946E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>5.2926525529265252E-2</v>
       </c>
-      <c r="I9" s="6">
-        <v>4.8357432775241002E-2</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="4">
+        <v>4.8357432775240995E-2</v>
+      </c>
+      <c r="J9" s="4">
         <v>6.0600935791194542E-2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>4.8611566275589352E-2</v>
       </c>
-      <c r="L9" s="6">
-        <v>4.0866228958958153E-2</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="4">
+        <v>4.0866228958958146E-2</v>
+      </c>
+      <c r="M9" s="4">
         <v>3.6837332815181839E-2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <v>5.7409086811024669E-2</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>7.7884035495821485E-2</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <v>0.18229540933261729</v>
       </c>
-      <c r="Q9" s="6">
-        <v>0.1838069080880691</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0.17679081654352211</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0.2015516976974909</v>
-      </c>
-      <c r="T9" s="6">
+      <c r="Q9" s="4">
+        <v>0.18380690808806913</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.17679081654352205</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.20155169769749093</v>
+      </c>
+      <c r="T9" s="4">
         <v>0.20499200320398811</v>
       </c>
-      <c r="U9" s="6">
-        <v>0.19811746703231931</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0.19521682926770989</v>
-      </c>
-      <c r="W9" s="6">
+      <c r="U9" s="4">
+        <v>0.19811746703231933</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.19521682926770992</v>
+      </c>
+      <c r="W9" s="4">
         <v>0.19676492706461959</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="4">
         <v>0.2047028449772488</v>
       </c>
-      <c r="Y9" s="6">
-        <v>0.19593603697839629</v>
+      <c r="Y9" s="4">
+        <v>0.19593603697839634</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.26812094700894062</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.19932808100882479</v>
-      </c>
-      <c r="D10" s="6">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.26812094700894057</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.19932808100882485</v>
+      </c>
+      <c r="D10" s="4">
         <v>0.26730924192648609</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.21289954337899539</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.24986923392284099</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.23342193143869691</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="E10" s="4">
+        <v>0.21289954337899542</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.24986923392284097</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.23342193143869688</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.26790716044606189</v>
       </c>
-      <c r="I10" s="6">
-        <v>0.2380537773502715</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.25637463298970992</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="I10" s="4">
+        <v>0.23805377735027147</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.25637463298970986</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.2459163704620792</v>
       </c>
-      <c r="L10" s="6">
-        <v>0.27458181754886768</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.29961079017671499</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.27040105072755971</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0.31826939122256098</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="L10" s="4">
+        <v>0.27458181754886773</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.29961079017671505</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.27040105072755966</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.31826939122256104</v>
+      </c>
+      <c r="P10" s="4">
         <v>0.32184233074442048</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="4">
         <v>0.29918495942994222</v>
       </c>
-      <c r="R10" s="6">
-        <v>0.31793988290332531</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0.33052123836157132</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="R10" s="4">
+        <v>0.31793988290332525</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.33052123836157127</v>
+      </c>
+      <c r="T10" s="4">
         <v>0.32879172207422758</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="4">
         <v>0.32527210812560242</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="4">
         <v>0.32511061495681998</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="4">
         <v>0.32456409548740911</v>
       </c>
-      <c r="X10" s="6">
-        <v>0.34995147575899099</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0.32478950456528449</v>
+      <c r="X10" s="4">
+        <v>0.34995147575899105</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0.32478950456528455</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="4" t="s">
-        <v>55</v>
+      <c r="A15" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7">
         <v>2000</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>2001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>2002</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>2003</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>2004</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>2005</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>2006</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="7">
         <v>2007</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="7">
         <v>2008</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="7">
         <v>2009</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="7">
         <v>2010</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="7">
         <v>2011</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="7">
         <v>2012</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="7">
         <v>2013</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="7">
         <v>2014</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="7">
         <v>2015</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="7">
         <v>2016</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="7">
         <v>2017</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="7">
         <v>2018</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="7">
         <v>2019</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="7">
         <v>2020</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="7">
         <v>2021</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="7">
         <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4">
         <v>0.94365811868302962</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>0.68559383760782999</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>0.73369475559619457</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.7348556644085017</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>0.73933935701591147</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>0.75916046258760472</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>0.74528658837440942</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>0.69364293783799436</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>0.68484310999757936</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>0.667656755780765</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>0.68457670088663258</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <v>0.67796151419614648</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="4">
         <v>0.65244510546887402</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="4">
         <v>0.62209726746527905</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="4">
         <v>0.65092912413517146</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4">
         <v>0.61672685798535054</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="4">
         <v>0.61071513481640749</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="4">
         <v>0.61227993554046112</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="4">
         <v>0.61424675703319098</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="4">
         <v>0.59851960113366587</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="4">
         <v>0.57869297792104235</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="4">
         <v>0.6001057351179182</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="4">
         <v>0.58762473375085889</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
         <v>0.75717051282625658</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>0.7180927619242653</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>0.73636459534132392</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>0.75768933070189082</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>0.75994206495815586</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>0.78236903179580108</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>0.77387901819390625</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>0.77105032145725216</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>0.77473980729276393</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>0.6856128955695171</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>0.71646587238809811</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="4">
         <v>0.67200568147231754</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="4">
         <v>0.60421034583967392</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="4">
         <v>0.64275667160253747</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="4">
         <v>0.65186238755519688</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="4">
         <v>0.59806937607527177</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="4">
         <v>0.57758381004129411</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="4">
         <v>0.58587379437339626</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="4">
         <v>0.59587866622622565</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="4">
         <v>0.53181736484477815</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="4">
         <v>0.45128471065076869</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="4">
         <v>0.53746113563018971</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="4">
         <v>0.54864863721203316</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
         <v>0.2976781638234316</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.32219144582413412</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.25922042962458852</v>
       </c>
-      <c r="E19" s="6">
-        <v>0.21452713874059059</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.224429054503374</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.232788396491802</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="E19" s="4">
+        <v>0.21452713874059057</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.22442905450337403</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.23278839649180202</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.24707302950595311</v>
       </c>
-      <c r="I19" s="6">
-        <v>0.26522983340694128</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.26088186918268402</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.26968828398559302</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0.28557877200905268</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="I19" s="4">
+        <v>0.26522983340694134</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.26088186918268397</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.26968828398559297</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.28557877200905274</v>
+      </c>
+      <c r="M19" s="4">
         <v>0.286702524639805</v>
       </c>
-      <c r="N19" s="6">
-        <v>0.34086865603353939</v>
-      </c>
-      <c r="O19" s="6">
+      <c r="N19" s="4">
+        <v>0.34086865603353944</v>
+      </c>
+      <c r="O19" s="4">
         <v>0.30993939262520942</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="4">
         <v>0.30599525417455309</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="4">
         <v>0.35540021135231642</v>
       </c>
-      <c r="R19" s="6">
-        <v>0.36111750704091278</v>
-      </c>
-      <c r="S19" s="6">
+      <c r="R19" s="4">
+        <v>0.36111750704091283</v>
+      </c>
+      <c r="S19" s="4">
         <v>0.33381145447234162</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="4">
         <v>0.36754237729011918</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="4">
         <v>0.39149918667202238</v>
       </c>
-      <c r="V19" s="6">
-        <v>0.39370115199065592</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0.37839299918119951</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0.39466156459867141</v>
+      <c r="V19" s="4">
+        <v>0.39370115199065586</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0.37839299918119945</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.39466156459867135</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4">
         <v>0.59758823019714979</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>0.73380036538169091</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>0.75718294896377081</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.79572885713108443</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>0.82149472809060253</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>0.83809425618210642</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <v>0.83237681034049649</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>0.86603735375115121</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
         <v>0.86420564990641402</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>0.8169488269696058</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <v>0.83444516731060003</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="4">
         <v>0.84531366443852607</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="4">
         <v>0.79865957310754032</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="4">
         <v>0.80666207768687392</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="4">
         <v>0.84947888034778962</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="4">
         <v>0.84115104785672001</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="4">
         <v>0.84298704093404275</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="4">
         <v>0.8608187624840784</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="4">
         <v>0.87674857001201367</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="4">
         <v>0.82035964309441589</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="4">
         <v>0.83582469545727878</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="4">
         <v>0.83865665114468269</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="4">
         <v>0.82502447230672737</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.32747819821842961</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.2486541769844115</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.33396537845120827</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.35175778100306399</v>
-      </c>
-      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.32747819821842955</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.24865417698441153</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.33396537845120833</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.35175778100306404</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.34557354182776939</v>
       </c>
-      <c r="G21" s="6">
-        <v>0.34392607068267989</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21" s="4">
+        <v>0.34392607068267994</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.36528139622397499</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>0.3152710574796192</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>0.32259600398506938</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <v>0.33835662700044389</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <v>0.32324254576835298</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <v>0.3892785813467925</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="4">
         <v>0.33638651172536149</v>
       </c>
-      <c r="O21" s="6">
-        <v>0.32566602363025571</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0.31424388911068768</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0.30237142059861161</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0.32422909787468779</v>
-      </c>
-      <c r="S21" s="6">
+      <c r="O21" s="4">
+        <v>0.32566602363025565</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.31424388911068774</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.30237142059861155</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.32422909787468784</v>
+      </c>
+      <c r="S21" s="4">
         <v>0.36084584078577098</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="4">
         <v>0.35147117960042967</v>
       </c>
-      <c r="U21" s="6">
-        <v>0.34482720875059097</v>
-      </c>
-      <c r="V21" s="6">
-        <v>0.34096968646200598</v>
-      </c>
-      <c r="W21" s="6">
+      <c r="U21" s="4">
+        <v>0.34482720875059103</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.34096968646200604</v>
+      </c>
+      <c r="W21" s="4">
         <v>0.303312480566654</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="4">
         <v>0.30827527006820737</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
         <v>0.93055077284014898</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0.92176979036846474</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>0.93090270830402999</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>0.90650735875642163</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>0.93193504451273468</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>0.92559700277139456</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <v>0.92862996382453744</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>0.95253076958084026</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="4">
         <v>0.94923151159295749</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>0.93831048813289342</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <v>0.94663279866274908</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
         <v>0.92455929338472687</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="4">
         <v>0.89761085725848577</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="4">
         <v>0.94554402857871978</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="4">
         <v>0.96191740343246079</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="4">
         <v>0.96057377128078236</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="4">
         <v>0.96300148474471392</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="4">
         <v>0.96117078606562856</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="4">
         <v>0.9658988452280004</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="4">
         <v>0.98116112012154111</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="4">
         <v>0.9737441526495062</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="4">
         <v>0.96961066266419349</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="4">
         <v>0.96919609809199536</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.17770960376886791</v>
-      </c>
-      <c r="C23" s="6">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.17770960376886794</v>
+      </c>
+      <c r="C23" s="4">
         <v>0.18702579968317939</v>
       </c>
-      <c r="D23" s="6">
-        <v>0.22573833672768301</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="4">
+        <v>0.22573833672768295</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.27885590814146682</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>0.28874673312878968</v>
       </c>
-      <c r="G23" s="6">
-        <v>0.29107932795949321</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="4">
+        <v>0.29107932795949315</v>
+      </c>
+      <c r="H23" s="4">
         <v>0.17607175090710461</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
         <v>0.17963086160211289</v>
       </c>
-      <c r="J23" s="6">
-        <v>0.1363345951894458</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0.12367158372619121</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0.1202278184066696</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0.1176941620389244</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.11213559179835179</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0.12804949821399439</v>
-      </c>
-      <c r="P23" s="6">
+      <c r="J23" s="4">
+        <v>0.13633459518944582</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.12367158372619123</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.12022781840666957</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.11769416203892442</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.11213559179835184</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.12804949821399444</v>
+      </c>
+      <c r="P23" s="4">
         <v>0.14043117487364259</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="4">
         <v>0.15857743902203089</v>
       </c>
-      <c r="R23" s="6">
-        <v>0.15603952967613549</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0.14818139753302209</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0.1905593229718659</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0.1721228984283551</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0.1988289545837735</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0.18760394987071141</v>
-      </c>
-      <c r="X23" s="6">
+      <c r="R23" s="4">
+        <v>0.15603952967613555</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.14818139753302206</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.19055932297186587</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.17212289842835513</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0.19882895458377348</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0.18760394987071144</v>
+      </c>
+      <c r="X23" s="4">
         <v>0.1936374291489317</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.13632188121088931</v>
-      </c>
-      <c r="C24" s="6">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.13632188121088934</v>
+      </c>
+      <c r="C24" s="4">
         <v>0.14970242590397381</v>
       </c>
-      <c r="D24" s="6">
-        <v>0.14744609157716859</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.1421492701439597</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.1465280890550654</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="D24" s="4">
+        <v>0.14744609157716865</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.14214927014395967</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.14652808905506542</v>
+      </c>
+      <c r="G24" s="4">
         <v>0.14304529120445161</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>0.13370750657005651</v>
       </c>
-      <c r="I24" s="6">
-        <v>0.13281615958504231</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24" s="4">
+        <v>0.13281615958504234</v>
+      </c>
+      <c r="J24" s="4">
         <v>0.14768632750603869</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <v>0.13756610283708889</v>
       </c>
-      <c r="L24" s="6">
-        <v>0.13305736250739211</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0.12571540459727981</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0.13446012107640201</v>
-      </c>
-      <c r="O24" s="6">
+      <c r="L24" s="4">
+        <v>0.13305736250739209</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.12571540459727984</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.13446012107640198</v>
+      </c>
+      <c r="O24" s="4">
         <v>0.13679152513070261</v>
       </c>
-      <c r="P24" s="6">
-        <v>0.16238268029085029</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0.16784041844509071</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0.16215903580754579</v>
-      </c>
-      <c r="S24" s="6">
+      <c r="P24" s="4">
+        <v>0.16238268029085035</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.16784041844509073</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.16215903580754581</v>
+      </c>
+      <c r="S24" s="4">
         <v>0.18512152948302751</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="4">
         <v>0.18705064796094981</v>
       </c>
-      <c r="U24" s="6">
-        <v>0.18068073124017731</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0.17820298894284989</v>
-      </c>
-      <c r="W24" s="6">
+      <c r="U24" s="4">
+        <v>0.18068073124017733</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.17820298894284992</v>
+      </c>
+      <c r="W24" s="4">
         <v>0.18108973407659021</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="4">
         <v>0.18673452386067921</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
         <v>0.27134083674790571</v>
       </c>
-      <c r="C25" s="6">
-        <v>0.20109032913765421</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="4">
+        <v>0.20109032913765423</v>
+      </c>
+      <c r="D25" s="4">
         <v>0.27032988237427041</v>
       </c>
-      <c r="E25" s="6">
-        <v>0.21516488016218729</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="4">
+        <v>0.21516488016218727</v>
+      </c>
+      <c r="F25" s="4">
         <v>0.25270186407012718</v>
       </c>
-      <c r="G25" s="6">
-        <v>0.2344491065389869</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25" s="4">
+        <v>0.23444910653898687</v>
+      </c>
+      <c r="H25" s="4">
         <v>0.26880235925037488</v>
       </c>
-      <c r="I25" s="6">
-        <v>0.2391819701516274</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="4">
+        <v>0.23918197015162743</v>
+      </c>
+      <c r="J25" s="4">
         <v>0.2579170618823311</v>
       </c>
-      <c r="K25" s="6">
-        <v>0.24706487882577099</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="K25" s="4">
+        <v>0.24706487882577102</v>
+      </c>
+      <c r="L25" s="4">
         <v>0.27602866643862012</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <v>0.30125839855289749</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="4">
         <v>0.27250197760281419</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <v>0.32183091392930691</v>
       </c>
-      <c r="P25" s="6">
-        <v>0.32581370233701301</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0.30276057521699051</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="P25" s="4">
+        <v>0.32581370233701296</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.30276057521699046</v>
+      </c>
+      <c r="R25" s="4">
         <v>0.3214056499945756</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="4">
         <v>0.33435117166115619</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="4">
         <v>0.33262034953007769</v>
       </c>
-      <c r="U25" s="6">
-        <v>0.32783660242943141</v>
-      </c>
-      <c r="V25" s="6">
+      <c r="U25" s="4">
+        <v>0.32783660242943136</v>
+      </c>
+      <c r="V25" s="4">
         <v>0.32883158242795713</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="4">
         <v>0.32852552875101171</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="4">
         <v>0.3539464426516985</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>2000</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>2001</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="7">
         <v>2002</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="7">
         <v>2003</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="7">
         <v>2004</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="7">
         <v>2005</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="7">
         <v>2006</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="7">
         <v>2007</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="7">
         <v>2008</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="7">
         <v>2009</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="7">
         <v>2010</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="7">
         <v>2011</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="7">
         <v>2012</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="7">
         <v>2013</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="7">
         <v>2014</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="7">
         <v>2015</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="7">
         <v>2016</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="7">
         <v>2017</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="7">
         <v>2018</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="7">
         <v>2019</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="7">
         <v>2020</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="7">
         <v>2021</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" s="7">
         <v>2022</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31" s="7">
         <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3802.099999999999</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3727.57</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3802.0999999999995</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3727.5699999999997</v>
+      </c>
+      <c r="D32" s="8">
         <v>3844.23</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>3868.94</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>3951.95</v>
       </c>
-      <c r="G32" s="7">
-        <v>4034.99</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4046.940000000001</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="G32" s="8">
+        <v>4034.9900000000002</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4046.9400000000005</v>
+      </c>
+      <c r="I32" s="8">
         <v>4142.57</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="8">
         <v>4107.53</v>
       </c>
-      <c r="K32" s="7">
-        <v>3939.82</v>
-      </c>
-      <c r="L32" s="7">
-        <v>4113.9400000000014</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="K32" s="8">
+        <v>3939.8199999999997</v>
+      </c>
+      <c r="L32" s="8">
+        <v>4113.9400000000005</v>
+      </c>
+      <c r="M32" s="8">
         <v>4088.87</v>
       </c>
-      <c r="N32" s="7">
-        <v>4040.670000000001</v>
-      </c>
-      <c r="O32" s="7">
-        <v>4055.61</v>
-      </c>
-      <c r="P32" s="7">
+      <c r="N32" s="8">
+        <v>4040.6700000000005</v>
+      </c>
+      <c r="O32" s="8">
+        <v>4055.6099999999997</v>
+      </c>
+      <c r="P32" s="8">
         <v>4096.01</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="8">
         <v>4083.99</v>
       </c>
-      <c r="R32" s="7">
-        <v>4087.56</v>
-      </c>
-      <c r="S32" s="7">
+      <c r="R32" s="8">
+        <v>4087.5600000000004</v>
+      </c>
+      <c r="S32" s="8">
         <v>4052.31</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="8">
         <v>4201.55</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="8">
         <v>4158.38</v>
       </c>
-      <c r="V32" s="7">
-        <v>4043.18</v>
-      </c>
-      <c r="W32" s="7">
+      <c r="V32" s="8">
+        <v>4043.1800000000003</v>
+      </c>
+      <c r="W32" s="8">
         <v>4153.62</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="8">
         <v>4286.8900000000003</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="8">
         <v>4253.91</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="8">
+        <v>57</v>
+      </c>
+      <c r="B33" s="9">
         <v>74.819999999999993</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>64.64</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>69.849999999999994</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <v>70.19</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <v>70.489999999999995</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <v>70.92</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="9">
         <v>71.37</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="9">
         <v>72.239999999999995</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="9">
         <v>72.349999999999994</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="9">
         <v>71.960000000000008</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="9">
         <v>73.92</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="9">
         <v>74.81</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="9">
         <v>75.88</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="9">
         <v>79.62</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="9">
         <v>83.07</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="9">
         <v>82.75</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R33" s="9">
         <v>81.92</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="9">
         <v>81.77</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="9">
         <v>80.52</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U33" s="9">
         <v>75.38</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="9">
         <v>72.790000000000006</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="9">
         <v>72.489999999999995</v>
       </c>
-      <c r="X33" s="8">
+      <c r="X33" s="9">
         <v>70.010000000000005</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Y33" s="9">
         <v>65.650000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9">
         <v>1966.27</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>1903.96</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>1933.13</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <v>1973.74</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <v>1978.3</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <v>2012.87</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="9">
         <v>1990.51</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="9">
         <v>2016.46</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="9">
         <v>1985.8</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="9">
         <v>1755.9</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="9">
         <v>1847.29</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="9">
         <v>1733.43</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="9">
         <v>1514.04</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="9">
         <v>1581.11</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="9">
         <v>1581.71</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="9">
         <v>1352.4</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="9">
         <v>1239.1500000000001</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="9">
         <v>1205.8399999999999</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="9">
         <v>1149.49</v>
       </c>
-      <c r="U34" s="8">
+      <c r="U34" s="9">
         <v>964.96</v>
       </c>
-      <c r="V34" s="8">
+      <c r="V34" s="9">
         <v>773.39</v>
       </c>
-      <c r="W34" s="8">
+      <c r="W34" s="9">
         <v>898</v>
       </c>
-      <c r="X34" s="8">
+      <c r="X34" s="9">
         <v>831.51</v>
       </c>
-      <c r="Y34" s="8">
+      <c r="Y34" s="9">
         <v>675.11</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="8">
+        <v>8</v>
+      </c>
+      <c r="B35" s="9">
         <v>614.99</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>639.13</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <v>691.01</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <v>649.91</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>710.1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <v>760.96</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="9">
         <v>816.44</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="9">
         <v>896.59</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="9">
         <v>882.98</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="9">
         <v>920.98</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="9">
         <v>987.7</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="9">
         <v>1013.69</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="9">
         <v>1225.8900000000001</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="9">
         <v>1124.8399999999999</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="9">
         <v>1126.6099999999999</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="9">
         <v>1333.48</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35" s="9">
         <v>1378.31</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35" s="9">
         <v>1296.44</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="9">
         <v>1469.13</v>
       </c>
-      <c r="U35" s="8">
+      <c r="U35" s="9">
         <v>1585.81</v>
       </c>
-      <c r="V35" s="8">
+      <c r="V35" s="9">
         <v>1624.17</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W35" s="9">
         <v>1579.19</v>
       </c>
-      <c r="X35" s="8">
+      <c r="X35" s="9">
         <v>1687.06</v>
       </c>
-      <c r="Y35" s="8">
+      <c r="Y35" s="9">
         <v>1806.06</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="8">
+        <v>6</v>
+      </c>
+      <c r="B36" s="9">
         <v>270.02999999999997</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>208.14</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <v>255.59</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <v>267.27</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="9">
         <v>259.93</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="9">
         <v>263.76</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="9">
         <v>282.69</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="9">
         <v>240.61</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="9">
         <v>248.54</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="9">
         <v>268.82</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="9">
         <v>254.7</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="9">
         <v>312.93</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="9">
         <v>271.29000000000002</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="9">
         <v>263.88</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="9">
         <v>253.19</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="9">
         <v>243.99</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="9">
         <v>261.13</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="9">
         <v>293.83999999999997</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="9">
         <v>286.62</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="9">
         <v>282.61</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="9">
         <v>279.95</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="9">
         <v>246.47</v>
       </c>
-      <c r="X36" s="8">
+      <c r="X36" s="9">
         <v>248.76</v>
       </c>
-      <c r="Y36" s="8">
+      <c r="Y36" s="9">
         <v>239.01</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="8">
+        <v>19</v>
+      </c>
+      <c r="B37" s="9">
         <v>753.89</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>768.83</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <v>780.06</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <v>763.73</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <v>788.53</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <v>781.99</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="9">
         <v>787.22</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="9">
         <v>806.42</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="9">
         <v>806.21</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="9">
         <v>798.85</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="9">
         <v>806.97</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="9">
         <v>790.2</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="9">
         <v>769.33</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="9">
         <v>789.02</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="9">
         <v>797.17</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="9">
         <v>797.18</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="9">
         <v>805.69</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="9">
         <v>804.95</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T37" s="9">
         <v>807.08</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U37" s="9">
         <v>809.41</v>
       </c>
-      <c r="V37" s="8">
+      <c r="V37" s="9">
         <v>789.88</v>
       </c>
-      <c r="W37" s="8">
+      <c r="W37" s="9">
         <v>779.65</v>
       </c>
-      <c r="X37" s="8">
+      <c r="X37" s="9">
         <v>771.54</v>
       </c>
-      <c r="Y37" s="8">
+      <c r="Y37" s="9">
         <v>774.87</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="8">
+        <v>23</v>
+      </c>
+      <c r="B38" s="9">
         <v>116.02</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>135.59</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>103.69</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <v>132.38</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="9">
         <v>129.88</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="9">
         <v>126.13</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="9">
         <v>71.61</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="9">
         <v>75.19</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="9">
         <v>55.43</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="9">
         <v>48.53</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="9">
         <v>47.5</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="9">
         <v>41.81</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="9">
         <v>39.090000000000003</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="9">
         <v>40.26</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="9">
         <v>43.69</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="9">
         <v>44.44</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38" s="9">
         <v>39.5</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S38" s="9">
         <v>37.89</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T38" s="9">
         <v>42.68</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="9">
         <v>37.44</v>
       </c>
-      <c r="V38" s="8">
+      <c r="V38" s="9">
         <v>34.340000000000003</v>
       </c>
-      <c r="W38" s="8">
+      <c r="W38" s="9">
         <v>35.200000000000003</v>
       </c>
-      <c r="X38" s="8">
+      <c r="X38" s="9">
         <v>38.64</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y38" s="9">
         <v>33.130000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="8">
+        <v>9</v>
+      </c>
+      <c r="B39" s="9">
         <v>0.49</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>0.54</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <v>0.53</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="9">
         <v>0.51</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="9">
         <v>0.61</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="9">
         <v>0.86</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="9">
         <v>0.89</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="9">
         <v>1.21</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="9">
         <v>1.82</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="9">
         <v>4.33</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="9">
         <v>9.0399999999999991</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="9">
         <v>28.92</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="9">
         <v>39.03</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R39" s="9">
         <v>54.87</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39" s="9">
         <v>77.28</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T39" s="9">
         <v>93.36</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U39" s="9">
         <v>106.89</v>
       </c>
-      <c r="V39" s="8">
+      <c r="V39" s="9">
         <v>130.72</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W39" s="9">
         <v>164.42</v>
       </c>
-      <c r="X39" s="8">
+      <c r="X39" s="9">
         <v>205.07</v>
       </c>
-      <c r="Y39" s="8">
+      <c r="Y39" s="9">
         <v>238.94</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="8">
+        <v>12</v>
+      </c>
+      <c r="B40" s="9">
         <v>5.59</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>6.74</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>10.35</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <v>11.19</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="9">
         <v>14.14</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="9">
         <v>17.809999999999999</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="9">
         <v>26.59</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="9">
         <v>34.450000000000003</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="9">
         <v>55.36</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="9">
         <v>73.89</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="9">
         <v>94.65</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="9">
         <v>120.18</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="9">
         <v>140.82</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="9">
         <v>167.84</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="9">
         <v>181.65</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="9">
         <v>190.72</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="9">
         <v>226.99</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="9">
         <v>254.3</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="9">
         <v>272.67</v>
       </c>
-      <c r="U40" s="8">
+      <c r="U40" s="9">
         <v>295.88</v>
       </c>
-      <c r="V40" s="8">
+      <c r="V40" s="9">
         <v>337.94</v>
       </c>
-      <c r="W40" s="8">
+      <c r="W40" s="9">
         <v>378.2</v>
       </c>
-      <c r="X40" s="8">
+      <c r="X40" s="9">
         <v>434.3</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="Y40" s="9">
         <v>421.14</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="4" t="s">
-        <v>58</v>
+      <c r="A44" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="7">
         <v>2000</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="7">
         <v>2001</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="7">
         <v>2002</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="7">
         <v>2003</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="7">
         <v>2004</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="7">
         <v>2005</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="7">
         <v>2006</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="7">
         <v>2007</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="7">
         <v>2008</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="7">
         <v>2009</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="7">
         <v>2010</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>2011</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="7">
         <v>2012</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="7">
         <v>2013</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="7">
         <v>2014</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="7">
         <v>2015</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="7">
         <v>2016</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="7">
         <v>2017</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="7">
         <v>2018</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="7">
         <v>2019</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="7">
         <v>2020</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="7">
         <v>2021</v>
       </c>
-      <c r="X45" s="5">
+      <c r="X45" s="7">
         <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="7">
-        <v>4052.6670009999998</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="A46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="8">
+        <v>4052.6670010000003</v>
+      </c>
+      <c r="C46" s="8">
         <v>3865.3069989999999</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>4050.2679979999998</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>4081.078998</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>4174.5130010000003</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>4294.3679980000006</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="8">
         <v>4300.8310000000001</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="8">
         <v>4349.8409980000006</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="8">
         <v>4368.2620009999991</v>
       </c>
-      <c r="K46" s="7">
-        <v>4188.2149979999986</v>
-      </c>
-      <c r="L46" s="7">
+      <c r="K46" s="8">
+        <v>4188.2149979999995</v>
+      </c>
+      <c r="L46" s="8">
         <v>4378.429999</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="8">
         <v>4349.4629999999997</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="8">
         <v>4290.6599990000004</v>
       </c>
-      <c r="O46" s="7">
-        <v>4306.3710010000004</v>
-      </c>
-      <c r="P46" s="7">
+      <c r="O46" s="8">
+        <v>4306.3710009999995</v>
+      </c>
+      <c r="P46" s="8">
         <v>4340.3710019999999</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="8">
         <v>4317.1589970000005</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="8">
         <v>4322.0379979999998</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="8">
         <v>4286.4230040000002</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="8">
         <v>4455.4389999999994</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="8">
         <v>4391.7639989999998</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="8">
         <v>4260.0440009999993</v>
       </c>
-      <c r="W46" s="7">
+      <c r="W46" s="8">
         <v>4374.6780019999997</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="8">
         <v>4495.3690000000006</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="8">
+        <v>57</v>
+      </c>
+      <c r="B47" s="9">
         <v>56.180000999999997</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>50.336998999999999</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>54.022998000000001</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <v>54.120998</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <v>55.783000999999999</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <v>57.980998000000007</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="9">
         <v>58.795999999999999</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="9">
         <v>59.120998</v>
       </c>
-      <c r="J47" s="8">
-        <v>59.647001000000003</v>
-      </c>
-      <c r="K47" s="8">
+      <c r="J47" s="9">
+        <v>59.647000999999996</v>
+      </c>
+      <c r="K47" s="9">
         <v>59.318998000000001</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="9">
         <v>61.743999000000002</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="9">
         <v>62.319999999999993</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="9">
         <v>64.108999000000011</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="9">
         <v>66.93900099999999</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="9">
         <v>70.818002000000007</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="9">
         <v>70.066997000000001</v>
       </c>
-      <c r="R47" s="8">
+      <c r="R47" s="9">
         <v>69.016998000000001</v>
       </c>
-      <c r="S47" s="8">
+      <c r="S47" s="9">
         <v>68.857004000000003</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="9">
         <v>67.885000000000005</v>
       </c>
-      <c r="U47" s="8">
-        <v>63.193999000000012</v>
-      </c>
-      <c r="V47" s="8">
+      <c r="U47" s="9">
+        <v>63.193999000000005</v>
+      </c>
+      <c r="V47" s="9">
         <v>60.269001000000003</v>
       </c>
-      <c r="W47" s="8">
-        <v>59.582002000000003</v>
-      </c>
-      <c r="X47" s="8">
+      <c r="W47" s="9">
+        <v>59.582001999999996</v>
+      </c>
+      <c r="X47" s="9">
         <v>57.146000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="8">
+        <v>5</v>
+      </c>
+      <c r="B48" s="9">
         <v>2129.498</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>1982.12</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>2039.665</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <v>2083.326</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <v>2090.4949999999999</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <v>2153.9560000000001</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="9">
         <v>2127.7959999999998</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="9">
         <v>2118.4549999999999</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="9">
         <v>2132.596</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="9">
         <v>1892.6610000000001</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="9">
         <v>1994.194</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="9">
         <v>1875.413</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="9">
         <v>1643.43</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="9">
         <v>1712.4079999999999</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="9">
         <v>1712.577</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="9">
         <v>1470.9970000000001</v>
       </c>
-      <c r="R48" s="8">
+      <c r="R48" s="9">
         <v>1354.0340000000001</v>
       </c>
-      <c r="S48" s="8">
+      <c r="S48" s="9">
         <v>1321.4190000000001</v>
       </c>
-      <c r="T48" s="8">
+      <c r="T48" s="9">
         <v>1272.1500000000001</v>
       </c>
-      <c r="U48" s="8">
+      <c r="U48" s="9">
         <v>1069.528</v>
       </c>
-      <c r="V48" s="8">
+      <c r="V48" s="9">
         <v>855.77</v>
       </c>
-      <c r="W48" s="8">
+      <c r="W48" s="9">
         <v>991.56100000000004</v>
       </c>
-      <c r="X48" s="8">
+      <c r="X48" s="9">
         <v>913.30200000000002</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="8">
+        <v>8</v>
+      </c>
+      <c r="B49" s="9">
         <v>634.29</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>659.91399999999999</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>712.43200000000002</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <v>670.19200000000001</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <v>731.55200000000002</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <v>782.82899999999995</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="9">
         <v>842.774</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="9">
         <v>915.19600000000003</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="9">
         <v>910.17600000000004</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="9">
         <v>949.77599999999995</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="9">
         <v>1017.869</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="9">
         <v>1045.2539999999999</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="9">
         <v>1264.5519999999999</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="9">
         <v>1158.454</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="9">
         <v>1161.3330000000001</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="9">
         <v>1372.57</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R49" s="9">
         <v>1418.1</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49" s="9">
         <v>1337.703</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="9">
         <v>1519.2170000000001</v>
       </c>
-      <c r="U49" s="8">
+      <c r="U49" s="9">
         <v>1639.826</v>
       </c>
-      <c r="V49" s="8">
+      <c r="V49" s="9">
         <v>1680.143</v>
       </c>
-      <c r="W49" s="8">
+      <c r="W49" s="9">
         <v>1634.0889999999999</v>
       </c>
-      <c r="X49" s="8">
+      <c r="X49" s="9">
         <v>1740.421</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="8">
+        <v>59</v>
+      </c>
+      <c r="B50" s="9">
         <v>14.621</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>14.246</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>14.939</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <v>14.87</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <v>15.487</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <v>16.777999999999999</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="9">
         <v>16.581</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="9">
         <v>16.797999999999998</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="9">
         <v>16.873000000000001</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="9">
         <v>17.045999999999999</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="9">
         <v>17.577000000000002</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="9">
         <v>17.84</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="9">
         <v>18.135000000000002</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="9">
         <v>18.422000000000001</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="9">
         <v>18.71</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="9">
         <v>18.727</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50" s="9">
         <v>18.584</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="9">
         <v>18.725999999999999</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="9">
         <v>18.773</v>
       </c>
-      <c r="U50" s="8">
+      <c r="U50" s="9">
         <v>18.364000000000001</v>
       </c>
-      <c r="V50" s="8">
+      <c r="V50" s="9">
         <v>18.831</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="9">
         <v>19.077000000000002</v>
       </c>
-      <c r="X50" s="8">
+      <c r="X50" s="9">
         <v>19.141999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="8">
+        <v>6</v>
+      </c>
+      <c r="B51" s="9">
         <v>279.98599999999999</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>214.72800000000001</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>291.755</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <v>305.72399999999999</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <v>297.89400000000001</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <v>297.92599999999999</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="9">
         <v>317.68900000000002</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="9">
         <v>275.54500000000002</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="9">
         <v>281.995</v>
       </c>
-      <c r="K51" s="8">
-        <v>298.41000000000003</v>
-      </c>
-      <c r="L51" s="8">
+      <c r="K51" s="9">
+        <v>298.40999999999997</v>
+      </c>
+      <c r="L51" s="9">
         <v>286.33300000000003</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="9">
         <v>344.56099999999998</v>
       </c>
-      <c r="N51" s="8">
-        <v>298.28699999999998</v>
-      </c>
-      <c r="O51" s="8">
+      <c r="N51" s="9">
+        <v>298.28700000000003</v>
+      </c>
+      <c r="O51" s="9">
         <v>290.113</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P51" s="9">
         <v>281.52699999999999</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="9">
         <v>271.12900000000002</v>
       </c>
-      <c r="R51" s="8">
+      <c r="R51" s="9">
         <v>292.113</v>
       </c>
-      <c r="S51" s="8">
-        <v>325.11399999999998</v>
-      </c>
-      <c r="T51" s="8">
-        <v>317.00400000000002</v>
-      </c>
-      <c r="U51" s="8">
-        <v>310.57100000000003</v>
-      </c>
-      <c r="V51" s="8">
-        <v>308.21300000000002</v>
-      </c>
-      <c r="W51" s="8">
+      <c r="S51" s="9">
+        <v>325.11400000000003</v>
+      </c>
+      <c r="T51" s="9">
+        <v>317.00399999999996</v>
+      </c>
+      <c r="U51" s="9">
+        <v>310.57099999999997</v>
+      </c>
+      <c r="V51" s="9">
+        <v>308.21299999999997</v>
+      </c>
+      <c r="W51" s="9">
         <v>274.096</v>
       </c>
-      <c r="X51" s="8">
+      <c r="X51" s="9">
         <v>279.06799999999998</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="8">
+        <v>19</v>
+      </c>
+      <c r="B52" s="9">
         <v>797.71799999999996</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>792.60400000000004</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <v>804.51900000000001</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <v>787.81799999999998</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <v>813.33900000000006</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <v>810.726</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="9">
         <v>816.19500000000005</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="9">
         <v>836.63400000000001</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="9">
         <v>837.80399999999997</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="9">
         <v>830.21</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="9">
         <v>838.93100000000004</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="9">
         <v>821.40499999999997</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="9">
         <v>801.12900000000002</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="9">
         <v>822.00400000000002</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P52" s="9">
         <v>830.58399999999995</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="9">
         <v>830.28800000000001</v>
       </c>
-      <c r="R52" s="8">
+      <c r="R52" s="9">
         <v>839.91800000000001</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52" s="9">
         <v>838.86099999999999</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="9">
         <v>841.32899999999995</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="9">
         <v>843.33</v>
       </c>
-      <c r="V52" s="8">
+      <c r="V52" s="9">
         <v>823.15</v>
       </c>
-      <c r="W52" s="8">
+      <c r="W52" s="9">
         <v>811.55100000000004</v>
       </c>
-      <c r="X52" s="8">
+      <c r="X52" s="9">
         <v>803.66899999999998</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="8">
+        <v>23</v>
+      </c>
+      <c r="B53" s="9">
         <v>134.01499999999999</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>143.767</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>121.646</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="9">
         <v>152.88</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <v>154.70699999999999</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <v>155.17099999999999</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="9">
         <v>93.036999999999992</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="9">
         <v>91.814999999999998</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="9">
         <v>71.382000000000005</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="9">
         <v>64.051999999999992</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="9">
         <v>62.692</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="9">
         <v>55.600999999999999</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="9">
         <v>48.951000000000001</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="9">
         <v>52.445999999999998</v>
       </c>
-      <c r="P53" s="8">
-        <v>55.165999999999997</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>54.753999999999998</v>
-      </c>
-      <c r="R53" s="8">
+      <c r="P53" s="9">
+        <v>55.166000000000004</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>54.754000000000005</v>
+      </c>
+      <c r="R53" s="9">
         <v>50.466999999999999</v>
       </c>
-      <c r="S53" s="8">
-        <v>47.514000000000003</v>
-      </c>
-      <c r="T53" s="8">
+      <c r="S53" s="9">
+        <v>47.513999999999996</v>
+      </c>
+      <c r="T53" s="9">
         <v>58.063000000000002</v>
       </c>
-      <c r="U53" s="8">
-        <v>51.273000000000003</v>
-      </c>
-      <c r="V53" s="8">
+      <c r="U53" s="9">
+        <v>51.272999999999996</v>
+      </c>
+      <c r="V53" s="9">
         <v>52.521000000000001</v>
       </c>
-      <c r="W53" s="8">
-        <v>50.584999999999987</v>
-      </c>
-      <c r="X53" s="8">
+      <c r="W53" s="9">
+        <v>50.584999999999994</v>
+      </c>
+      <c r="X53" s="9">
         <v>56.28</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="8">
+        <v>9</v>
+      </c>
+      <c r="B54" s="9">
         <v>0.70900000000000007</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>0.78499999999999992</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>0.83</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="9">
         <v>0.84800000000000009</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="9">
         <v>1.2869999999999999</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="9">
         <v>1.6739999999999999</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="9">
         <v>2.093</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="9">
         <v>2.5150000000000001</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="9">
         <v>3.9420000000000002</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="9">
         <v>6.2149999999999999</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="9">
         <v>10.145</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="9">
         <v>15.872</v>
       </c>
-      <c r="P54" s="8">
+      <c r="P54" s="9">
         <v>25.763999999999999</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="9">
         <v>35.634999999999998</v>
       </c>
-      <c r="R54" s="8">
+      <c r="R54" s="9">
         <v>50.334000000000003</v>
       </c>
-      <c r="S54" s="8">
+      <c r="S54" s="9">
         <v>70.98</v>
       </c>
-      <c r="T54" s="8">
+      <c r="T54" s="9">
         <v>85.183999999999997</v>
       </c>
-      <c r="U54" s="8">
+      <c r="U54" s="9">
         <v>97.477999999999994</v>
       </c>
-      <c r="V54" s="8">
-        <v>119.32899999999999</v>
-      </c>
-      <c r="W54" s="8">
-        <v>151.32300000000001</v>
-      </c>
-      <c r="X54" s="8">
+      <c r="V54" s="9">
+        <v>119.32900000000001</v>
+      </c>
+      <c r="W54" s="9">
+        <v>151.32299999999998</v>
+      </c>
+      <c r="X54" s="9">
         <v>187.071</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="8">
+        <v>12</v>
+      </c>
+      <c r="B55" s="9">
         <v>5.65</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>6.806</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>10.459</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <v>11.3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <v>14.291</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <v>17.881</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="9">
         <v>26.675999999999998</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="9">
         <v>34.603000000000002</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="9">
         <v>55.695999999999998</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="9">
         <v>74.225999999999999</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="9">
         <v>95.147999999999996</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="9">
         <v>120.854</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="9">
         <v>141.922</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="9">
         <v>169.71299999999999</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="9">
         <v>183.892</v>
       </c>
-      <c r="Q55" s="8">
-        <v>192.99199999999999</v>
-      </c>
-      <c r="R55" s="8">
+      <c r="Q55" s="9">
+        <v>192.99200000000002</v>
+      </c>
+      <c r="R55" s="9">
         <v>229.471</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S55" s="9">
         <v>257.24900000000002</v>
       </c>
-      <c r="T55" s="8">
+      <c r="T55" s="9">
         <v>275.834</v>
       </c>
-      <c r="U55" s="8">
+      <c r="U55" s="9">
         <v>298.2</v>
       </c>
-      <c r="V55" s="8">
+      <c r="V55" s="9">
         <v>341.81799999999998</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W55" s="9">
         <v>382.81400000000002</v>
       </c>
-      <c r="X55" s="8">
+      <c r="X55" s="9">
         <v>439.27</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="4" t="s">
-        <v>59</v>
+      <c r="A59" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="7">
         <v>2000</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="7">
         <v>2001</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="7">
         <v>2002</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="7">
         <v>2003</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="7">
         <v>2004</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="7">
         <v>2005</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="7">
         <v>2006</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="7">
         <v>2007</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="7">
         <v>2008</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="7">
         <v>2009</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="7">
         <v>2010</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <v>2011</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="7">
         <v>2012</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="7">
         <v>2013</v>
       </c>
-      <c r="P60" s="5">
+      <c r="P60" s="7">
         <v>2014</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="Q60" s="7">
         <v>2015</v>
       </c>
-      <c r="R60" s="5">
+      <c r="R60" s="7">
         <v>2016</v>
       </c>
-      <c r="S60" s="5">
+      <c r="S60" s="7">
         <v>2017</v>
       </c>
-      <c r="T60" s="5">
+      <c r="T60" s="7">
         <v>2018</v>
       </c>
-      <c r="U60" s="5">
+      <c r="U60" s="7">
         <v>2019</v>
       </c>
-      <c r="V60" s="5">
+      <c r="V60" s="7">
         <v>2020</v>
       </c>
-      <c r="W60" s="5">
+      <c r="W60" s="7">
         <v>2021</v>
       </c>
-      <c r="X60" s="5">
+      <c r="X60" s="7">
         <v>2022</v>
       </c>
-      <c r="Y60" s="5">
+      <c r="Y60" s="7">
         <v>2023</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="8">
+        <v>57</v>
+      </c>
+      <c r="B61" s="9">
         <v>9.59</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>10.59</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>10.66</v>
       </c>
-      <c r="E61" s="8">
-        <v>10.54</v>
-      </c>
-      <c r="F61" s="8">
+      <c r="E61" s="9">
+        <v>10.540000000000001</v>
+      </c>
+      <c r="F61" s="9">
         <v>10.76</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="9">
         <v>11</v>
       </c>
-      <c r="H61" s="8">
-        <v>11.28</v>
-      </c>
-      <c r="I61" s="8">
+      <c r="H61" s="9">
+        <v>11.280000000000001</v>
+      </c>
+      <c r="I61" s="9">
         <v>11.94</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="9">
         <v>12.17</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="9">
         <v>12.53</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="9">
         <v>12.7</v>
       </c>
-      <c r="M61" s="8">
-        <v>12.9</v>
-      </c>
-      <c r="N61" s="8">
-        <v>13.81</v>
-      </c>
-      <c r="O61" s="8">
+      <c r="M61" s="9">
+        <v>12.899999999999999</v>
+      </c>
+      <c r="N61" s="9">
+        <v>13.809999999999999</v>
+      </c>
+      <c r="O61" s="9">
         <v>14.89</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P61" s="9">
         <v>14.93</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="9">
         <v>15.52</v>
       </c>
-      <c r="R61" s="8">
+      <c r="R61" s="9">
         <v>15.42</v>
       </c>
-      <c r="S61" s="8">
+      <c r="S61" s="9">
         <v>15.33</v>
       </c>
-      <c r="T61" s="8">
+      <c r="T61" s="9">
         <v>15.06</v>
       </c>
-      <c r="U61" s="8">
+      <c r="U61" s="9">
         <v>14.61</v>
       </c>
-      <c r="V61" s="8">
+      <c r="V61" s="9">
         <v>14.46</v>
       </c>
-      <c r="W61" s="8">
+      <c r="W61" s="9">
         <v>13.94</v>
       </c>
-      <c r="X61" s="8">
+      <c r="X61" s="9">
         <v>13.75</v>
       </c>
-      <c r="Y61" s="8">
+      <c r="Y61" s="9">
         <v>13.66</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="8">
+        <v>5</v>
+      </c>
+      <c r="B62" s="9">
         <v>334.24</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>335.32</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
         <v>335.8</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="9">
         <v>334.47</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="9">
         <v>334.48</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="9">
         <v>334.63</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="9">
         <v>334.94</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="9">
         <v>333.64</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="9">
         <v>334.56</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="9">
         <v>335.94</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L62" s="9">
         <v>339.36</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="9">
         <v>340.2</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="9">
         <v>332.88</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="9">
         <v>327.89</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P62" s="9">
         <v>323.38</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="9">
         <v>301.70999999999998</v>
       </c>
-      <c r="R62" s="8">
+      <c r="R62" s="9">
         <v>285.75</v>
       </c>
-      <c r="S62" s="8">
+      <c r="S62" s="9">
         <v>276.88</v>
       </c>
-      <c r="T62" s="8">
+      <c r="T62" s="9">
         <v>260.95</v>
       </c>
-      <c r="U62" s="8">
+      <c r="U62" s="9">
         <v>244.7</v>
       </c>
-      <c r="V62" s="8">
+      <c r="V62" s="9">
         <v>233.04</v>
       </c>
-      <c r="W62" s="8">
+      <c r="W62" s="9">
         <v>224.59</v>
       </c>
-      <c r="X62" s="8">
+      <c r="X62" s="9">
         <v>209.94</v>
       </c>
-      <c r="Y62" s="8">
+      <c r="Y62" s="9">
         <v>200.28</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="8">
+        <v>8</v>
+      </c>
+      <c r="B63" s="9">
         <v>161.54</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>199.67</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>264.55</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="9">
         <v>319.04000000000002</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="9">
         <v>343.88</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="9">
         <v>359.84</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="9">
         <v>371.13</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="9">
         <v>378.97</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="9">
         <v>388.45</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="9">
         <v>399.05</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="9">
         <v>407.07</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="9">
         <v>418.3</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="9">
         <v>429.01</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="9">
         <v>437.26</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P63" s="9">
         <v>448.9</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="9">
         <v>460.37</v>
       </c>
-      <c r="R63" s="8">
+      <c r="R63" s="9">
         <v>473.01</v>
       </c>
-      <c r="S63" s="8">
+      <c r="S63" s="9">
         <v>484.89</v>
       </c>
-      <c r="T63" s="8">
+      <c r="T63" s="9">
         <v>509.07</v>
       </c>
-      <c r="U63" s="8">
+      <c r="U63" s="9">
         <v>519.28</v>
       </c>
-      <c r="V63" s="8">
+      <c r="V63" s="9">
         <v>523.75</v>
       </c>
-      <c r="W63" s="8">
+      <c r="W63" s="9">
         <v>530.26</v>
       </c>
-      <c r="X63" s="8">
+      <c r="X63" s="9">
         <v>535.49</v>
       </c>
-      <c r="Y63" s="8">
+      <c r="Y63" s="9">
         <v>542.92999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="8">
+        <v>6</v>
+      </c>
+      <c r="B64" s="9">
         <v>79.36</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>78.92</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
         <v>79.36</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="9">
         <v>78.69</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="9">
         <v>77.64</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="9">
         <v>77.540000000000006</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="9">
         <v>77.819999999999993</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="9">
         <v>77.88</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="9">
         <v>77.930000000000007</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="9">
         <v>78.52</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="9">
         <v>82.61</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="9">
         <v>82.45</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="9">
         <v>82.56</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="9">
         <v>83.01</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="9">
         <v>83.49</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="9">
         <v>83.5</v>
       </c>
-      <c r="R64" s="8">
+      <c r="R64" s="9">
         <v>83.82</v>
       </c>
-      <c r="S64" s="8">
+      <c r="S64" s="9">
         <v>83.79</v>
       </c>
-      <c r="T64" s="8">
+      <c r="T64" s="9">
         <v>83.88</v>
       </c>
-      <c r="U64" s="8">
+      <c r="U64" s="9">
         <v>83.79</v>
       </c>
-      <c r="V64" s="8">
+      <c r="V64" s="9">
         <v>83.83</v>
       </c>
-      <c r="W64" s="8">
+      <c r="W64" s="9">
         <v>84.29</v>
       </c>
-      <c r="X64" s="8">
+      <c r="X64" s="9">
         <v>86.63</v>
       </c>
-      <c r="Y64" s="8">
+      <c r="Y64" s="9">
         <v>86.66</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="8">
+        <v>19</v>
+      </c>
+      <c r="B65" s="9">
         <v>97.86</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>98.16</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="9">
         <v>98.66</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="9">
         <v>99.21</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="9">
         <v>99.63</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="9">
         <v>99.99</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="9">
         <v>100.33</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="9">
         <v>100.27</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="9">
         <v>100.75</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="9">
         <v>101</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="9">
         <v>101.17</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="9">
         <v>101.42</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="9">
         <v>101.89</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="9">
         <v>99.24</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P65" s="9">
         <v>98.57</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="9">
         <v>98.67</v>
       </c>
-      <c r="R65" s="8">
+      <c r="R65" s="9">
         <v>99.56</v>
       </c>
-      <c r="S65" s="8">
+      <c r="S65" s="9">
         <v>99.63</v>
       </c>
-      <c r="T65" s="8">
+      <c r="T65" s="9">
         <v>99.43</v>
       </c>
-      <c r="U65" s="8">
+      <c r="U65" s="9">
         <v>98.12</v>
       </c>
-      <c r="V65" s="8">
+      <c r="V65" s="9">
         <v>96.5</v>
       </c>
-      <c r="W65" s="8">
+      <c r="W65" s="9">
         <v>95.55</v>
       </c>
-      <c r="X65" s="8">
+      <c r="X65" s="9">
         <v>94.66</v>
       </c>
-      <c r="Y65" s="8">
+      <c r="Y65" s="9">
         <v>95.77</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="8">
+        <v>23</v>
+      </c>
+      <c r="B66" s="9">
         <v>86.09</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>87.75</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
         <v>61.52</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="9">
         <v>62.58</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="9">
         <v>61.16</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="9">
         <v>60.85</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="9">
         <v>60.32</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="9">
         <v>58.35</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="9">
         <v>59.77</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="9">
         <v>59.12</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="9">
         <v>59.53</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="9">
         <v>53.93</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="9">
         <v>49.83</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="9">
         <v>46.76</v>
       </c>
-      <c r="P66" s="8">
+      <c r="P66" s="9">
         <v>44.84</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="9">
         <v>39.42</v>
       </c>
-      <c r="R66" s="8">
+      <c r="R66" s="9">
         <v>36.92</v>
       </c>
-      <c r="S66" s="8">
+      <c r="S66" s="9">
         <v>36.6</v>
       </c>
-      <c r="T66" s="8">
+      <c r="T66" s="9">
         <v>34.78</v>
       </c>
-      <c r="U66" s="8">
+      <c r="U66" s="9">
         <v>34.01</v>
       </c>
-      <c r="V66" s="8">
+      <c r="V66" s="9">
         <v>30.15</v>
       </c>
-      <c r="W66" s="8">
+      <c r="W66" s="9">
         <v>30.78</v>
       </c>
-      <c r="X66" s="8">
+      <c r="X66" s="9">
         <v>33.18</v>
       </c>
-      <c r="Y66" s="8">
+      <c r="Y66" s="9">
         <v>32.159999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="8">
+        <v>9</v>
+      </c>
+      <c r="B67" s="9">
         <v>0.59</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>0.6</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="9">
         <v>0.64</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="9">
         <v>0.68</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="9">
         <v>0.75</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="9">
         <v>0.89</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="9">
         <v>1.44</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="9">
         <v>1.62</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="9">
         <v>2.09</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L67" s="9">
         <v>3.38</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="9">
         <v>5.64</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="9">
         <v>8.61</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="9">
         <v>13.25</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P67" s="9">
         <v>18.11</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="9">
         <v>24.24</v>
       </c>
-      <c r="R67" s="8">
+      <c r="R67" s="9">
         <v>35.43</v>
       </c>
-      <c r="S67" s="8">
+      <c r="S67" s="9">
         <v>43.77</v>
       </c>
-      <c r="T67" s="8">
+      <c r="T67" s="9">
         <v>51.99</v>
       </c>
-      <c r="U67" s="8">
+      <c r="U67" s="9">
         <v>61.59</v>
       </c>
-      <c r="V67" s="8">
+      <c r="V67" s="9">
         <v>76.44</v>
       </c>
-      <c r="W67" s="8">
+      <c r="W67" s="9">
         <v>95.39</v>
       </c>
-      <c r="X67" s="8">
+      <c r="X67" s="9">
         <v>114.36</v>
       </c>
-      <c r="Y67" s="8">
+      <c r="Y67" s="9">
         <v>139.21</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="8">
+        <v>12</v>
+      </c>
+      <c r="B68" s="9">
         <v>2.38</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>3.86</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="9">
         <v>4.42</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="9">
         <v>6</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="9">
         <v>6.46</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="9">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="9">
         <v>11.33</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="9">
         <v>16.52</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="9">
         <v>24.65</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="9">
         <v>34.299999999999997</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="9">
         <v>39.35</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="9">
         <v>45.79</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="9">
         <v>59.45</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="9">
         <v>60.2</v>
       </c>
-      <c r="P68" s="8">
+      <c r="P68" s="9">
         <v>64.430000000000007</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="9">
         <v>72.77</v>
       </c>
-      <c r="R68" s="8">
+      <c r="R68" s="9">
         <v>81.5</v>
       </c>
-      <c r="S68" s="8">
+      <c r="S68" s="9">
         <v>87.83</v>
       </c>
-      <c r="T68" s="8">
+      <c r="T68" s="9">
         <v>94.67</v>
       </c>
-      <c r="U68" s="8">
+      <c r="U68" s="9">
         <v>103.84</v>
       </c>
-      <c r="V68" s="8">
+      <c r="V68" s="9">
         <v>118.66</v>
       </c>
-      <c r="W68" s="8">
+      <c r="W68" s="9">
         <v>133.02000000000001</v>
       </c>
-      <c r="X68" s="8">
+      <c r="X68" s="9">
         <v>141.66999999999999</v>
       </c>
-      <c r="Y68" s="8">
+      <c r="Y68" s="9">
         <v>148.02000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="4" t="s">
-        <v>60</v>
+      <c r="A71" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="5">
+      <c r="A72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="7">
         <v>2000</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="7">
         <v>2001</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="7">
         <v>2002</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="7">
         <v>2003</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="7">
         <v>2004</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="7">
         <v>2005</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="7">
         <v>2006</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="7">
         <v>2007</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="7">
         <v>2008</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="7">
         <v>2009</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="7">
         <v>2010</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="7">
         <v>2011</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N72" s="7">
         <v>2012</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72" s="7">
         <v>2013</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P72" s="7">
         <v>2014</v>
       </c>
-      <c r="Q72" s="5">
+      <c r="Q72" s="7">
         <v>2015</v>
       </c>
-      <c r="R72" s="5">
+      <c r="R72" s="7">
         <v>2016</v>
       </c>
-      <c r="S72" s="5">
+      <c r="S72" s="7">
         <v>2017</v>
       </c>
-      <c r="T72" s="5">
+      <c r="T72" s="7">
         <v>2018</v>
       </c>
-      <c r="U72" s="5">
+      <c r="U72" s="7">
         <v>2019</v>
       </c>
-      <c r="V72" s="5">
+      <c r="V72" s="7">
         <v>2020</v>
       </c>
-      <c r="W72" s="5">
+      <c r="W72" s="7">
         <v>2021</v>
       </c>
-      <c r="X72" s="5">
+      <c r="X72" s="7">
         <v>2022</v>
       </c>
-      <c r="Y72" s="5">
+      <c r="Y72" s="7">
         <v>2023</v>
       </c>
-      <c r="Z72" s="5">
+      <c r="Z72" s="7">
         <v>2024</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="8">
+        <v>57</v>
+      </c>
+      <c r="B73" s="9">
         <v>6.796149999999999</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>8.3813949999999995</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="9">
         <v>8.4054149999999996</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="9">
         <v>8.4073600000000006</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="9">
         <v>8.6129899999999999</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="9">
         <v>8.7186249999999994</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="9">
         <v>9.0057599999999987</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="9">
         <v>9.7297499999999992</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="9">
         <v>9.9424499999999991</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="9">
         <v>10.142300000000001</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="9">
         <v>10.295999999999999</v>
       </c>
-      <c r="M73" s="8">
-        <v>10.493449999999999</v>
-      </c>
-      <c r="N73" s="8">
-        <v>11.216850000000001</v>
-      </c>
-      <c r="O73" s="8">
-        <v>12.28335</v>
-      </c>
-      <c r="P73" s="8">
-        <v>12.419549999999999</v>
-      </c>
-      <c r="Q73" s="8">
+      <c r="M73" s="9">
+        <v>10.493450000000001</v>
+      </c>
+      <c r="N73" s="9">
+        <v>11.216849999999999</v>
+      </c>
+      <c r="O73" s="9">
+        <v>12.283349999999999</v>
+      </c>
+      <c r="P73" s="9">
+        <v>12.419550000000001</v>
+      </c>
+      <c r="Q73" s="9">
         <v>12.9693</v>
       </c>
-      <c r="R73" s="8">
-        <v>12.900700000000001</v>
-      </c>
-      <c r="S73" s="8">
-        <v>12.837899999999999</v>
-      </c>
-      <c r="T73" s="8">
+      <c r="R73" s="9">
+        <v>12.900699999999999</v>
+      </c>
+      <c r="S73" s="9">
+        <v>12.837900000000001</v>
+      </c>
+      <c r="T73" s="9">
         <v>12.616149999999999</v>
       </c>
-      <c r="U73" s="8">
-        <v>12.052949999999999</v>
-      </c>
-      <c r="V73" s="8">
+      <c r="U73" s="9">
+        <v>12.052950000000001</v>
+      </c>
+      <c r="V73" s="9">
         <v>11.8889</v>
       </c>
-      <c r="W73" s="8">
+      <c r="W73" s="9">
         <v>11.334</v>
       </c>
-      <c r="X73" s="8">
+      <c r="X73" s="9">
         <v>11.1015</v>
       </c>
-      <c r="Y73" s="8">
+      <c r="Y73" s="9">
         <v>10.9895</v>
       </c>
-      <c r="Z73" s="8">
+      <c r="Z73" s="9">
         <v>10.9101</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="8">
+        <v>5</v>
+      </c>
+      <c r="B74" s="9">
         <v>321.05500000000001</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>315.09773999999999</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="9">
         <v>316.19997999999998</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="9">
         <v>313.87878000000001</v>
       </c>
-      <c r="F74" s="8">
-        <v>314.02523000000002</v>
-      </c>
-      <c r="G74" s="8">
+      <c r="F74" s="9">
+        <v>314.02522999999997</v>
+      </c>
+      <c r="G74" s="9">
         <v>314.28313000000003</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="9">
         <v>313.87216999999998</v>
       </c>
-      <c r="I74" s="8">
-        <v>313.64069999999998</v>
-      </c>
-      <c r="J74" s="8">
+      <c r="I74" s="9">
+        <v>313.64070000000004</v>
+      </c>
+      <c r="J74" s="9">
         <v>314.23070000000001</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="9">
         <v>315.13</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="9">
         <v>317.73700000000002</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="9">
         <v>318.58100000000002</v>
       </c>
-      <c r="N74" s="8">
-        <v>310.49810000000002</v>
-      </c>
-      <c r="O74" s="8">
-        <v>304.12810000000002</v>
-      </c>
-      <c r="P74" s="8">
+      <c r="N74" s="9">
+        <v>310.49809999999997</v>
+      </c>
+      <c r="O74" s="9">
+        <v>304.12809999999996</v>
+      </c>
+      <c r="P74" s="9">
         <v>299.90940000000001</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="9">
         <v>280.77350000000001</v>
       </c>
-      <c r="R74" s="8">
+      <c r="R74" s="9">
         <v>267.61500000000001</v>
       </c>
-      <c r="S74" s="8">
-        <v>257.47340000000003</v>
-      </c>
-      <c r="T74" s="8">
+      <c r="S74" s="9">
+        <v>257.47339999999997</v>
+      </c>
+      <c r="T74" s="9">
         <v>243.71170000000001</v>
       </c>
-      <c r="U74" s="8">
+      <c r="U74" s="9">
         <v>229.57550000000001</v>
       </c>
-      <c r="V74" s="8">
+      <c r="V74" s="9">
         <v>216.47229999999999</v>
       </c>
-      <c r="W74" s="8">
-        <v>210.60480000000001</v>
-      </c>
-      <c r="X74" s="8">
+      <c r="W74" s="9">
+        <v>210.60479999999998</v>
+      </c>
+      <c r="X74" s="9">
         <v>190.0273</v>
       </c>
-      <c r="Y74" s="8">
-        <v>181.46690000000001</v>
-      </c>
-      <c r="Z74" s="8">
+      <c r="Y74" s="9">
+        <v>181.46689999999998</v>
+      </c>
+      <c r="Z74" s="9">
         <v>177.0069</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="8">
+        <v>8</v>
+      </c>
+      <c r="B75" s="9">
         <v>243.24100000000001</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>233.81331</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="9">
         <v>313.74014</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="9">
         <v>356.62590999999998</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="9">
         <v>372.10201000000001</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="9">
         <v>383.88529</v>
       </c>
-      <c r="H75" s="8">
-        <v>389.38720999999998</v>
-      </c>
-      <c r="I75" s="8">
+      <c r="H75" s="9">
+        <v>389.38721000000004</v>
+      </c>
+      <c r="I75" s="9">
         <v>393.9015</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="9">
         <v>398.26979999999998</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="9">
         <v>402.02679999999998</v>
       </c>
-      <c r="L75" s="8">
-        <v>406.87580000000003</v>
-      </c>
-      <c r="M75" s="8">
+      <c r="L75" s="9">
+        <v>406.87579999999997</v>
+      </c>
+      <c r="M75" s="9">
         <v>416.1848</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N75" s="9">
         <v>423.4923</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75" s="9">
         <v>426.67570000000001</v>
       </c>
-      <c r="P75" s="8">
-        <v>433.24939999999998</v>
-      </c>
-      <c r="Q75" s="8">
+      <c r="P75" s="9">
+        <v>433.24940000000004</v>
+      </c>
+      <c r="Q75" s="9">
         <v>440.87220000000002</v>
       </c>
-      <c r="R75" s="8">
+      <c r="R75" s="9">
         <v>448.28500000000003</v>
       </c>
-      <c r="S75" s="8">
+      <c r="S75" s="9">
         <v>457.46129999999999</v>
       </c>
-      <c r="T75" s="8">
-        <v>471.85469999999998</v>
-      </c>
-      <c r="U75" s="8">
+      <c r="T75" s="9">
+        <v>471.85470000000004</v>
+      </c>
+      <c r="U75" s="9">
         <v>478.14850000000001</v>
       </c>
-      <c r="V75" s="8">
-        <v>487.16430000000003</v>
-      </c>
-      <c r="W75" s="8">
-        <v>492.97910000000002</v>
-      </c>
-      <c r="X75" s="8">
-        <v>503.41410000000002</v>
-      </c>
-      <c r="Y75" s="8">
+      <c r="V75" s="9">
+        <v>487.16429999999997</v>
+      </c>
+      <c r="W75" s="9">
+        <v>492.97909999999996</v>
+      </c>
+      <c r="X75" s="9">
+        <v>503.41409999999996</v>
+      </c>
+      <c r="Y75" s="9">
         <v>508.3458</v>
       </c>
-      <c r="Z75" s="8">
-        <v>506.93169999999998</v>
+      <c r="Z75" s="9">
+        <v>506.93170000000003</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="8">
+        <v>59</v>
+      </c>
+      <c r="B76" s="9">
         <v>2.7930000000000001</v>
       </c>
-      <c r="C76" s="8">
-        <v>2.2162099999999998</v>
-      </c>
-      <c r="D76" s="8">
+      <c r="C76" s="9">
+        <v>2.2162100000000002</v>
+      </c>
+      <c r="D76" s="9">
         <v>2.2522500000000001</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="9">
         <v>2.1332499999999999</v>
       </c>
-      <c r="F76" s="8">
-        <v>2.1520800000000002</v>
-      </c>
-      <c r="G76" s="8">
-        <v>2.2852999999999999</v>
-      </c>
-      <c r="H76" s="8">
+      <c r="F76" s="9">
+        <v>2.1520799999999998</v>
+      </c>
+      <c r="G76" s="9">
+        <v>2.2853000000000003</v>
+      </c>
+      <c r="H76" s="9">
         <v>2.2739799999999999</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="9">
         <v>2.2141999999999999</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="9">
         <v>2.2288000000000001</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="9">
         <v>2.3818999999999999</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="9">
         <v>2.4045999999999998</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M76" s="9">
         <v>2.4091999999999998</v>
       </c>
-      <c r="N76" s="8">
+      <c r="N76" s="9">
         <v>2.5920999999999998</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76" s="9">
         <v>2.6070000000000002</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="9">
         <v>2.5143</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="9">
         <v>2.5415000000000001</v>
       </c>
-      <c r="R76" s="8">
+      <c r="R76" s="9">
         <v>2.5165999999999999</v>
       </c>
-      <c r="S76" s="8">
-        <v>2.4832999999999998</v>
-      </c>
-      <c r="T76" s="8">
+      <c r="S76" s="9">
+        <v>2.4833000000000003</v>
+      </c>
+      <c r="T76" s="9">
         <v>2.4443000000000001</v>
       </c>
-      <c r="U76" s="8">
+      <c r="U76" s="9">
         <v>2.5554000000000001</v>
       </c>
-      <c r="V76" s="8">
-        <v>2.5718999999999999</v>
-      </c>
-      <c r="W76" s="8">
+      <c r="V76" s="9">
+        <v>2.5719000000000003</v>
+      </c>
+      <c r="W76" s="9">
         <v>2.5966999999999998</v>
       </c>
-      <c r="X76" s="8">
+      <c r="X76" s="9">
         <v>2.6486000000000001</v>
       </c>
-      <c r="Y76" s="8">
+      <c r="Y76" s="9">
         <v>2.6736</v>
       </c>
-      <c r="Z76" s="8">
-        <v>2.7027999999999999</v>
+      <c r="Z76" s="9">
+        <v>2.7028000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="8">
+        <v>6</v>
+      </c>
+      <c r="B77" s="9">
         <v>97.600000000000009</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>98.580000000000013</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="9">
         <v>99.727000000000004</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="9">
         <v>99.215999999999994</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="9">
         <v>98.405000000000001</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <v>98.887</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="9">
         <v>99.282000000000011</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="9">
         <v>99.770999999999987</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="9">
         <v>99.787999999999997</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="9">
         <v>100.678</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="9">
         <v>101.1204</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="9">
         <v>101.0419</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="9">
         <v>101.2259</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="9">
         <v>101.69289999999999</v>
       </c>
-      <c r="P77" s="8">
-        <v>102.2702</v>
-      </c>
-      <c r="Q77" s="8">
-        <v>102.36020000000001</v>
-      </c>
-      <c r="R77" s="8">
+      <c r="P77" s="9">
+        <v>102.27019999999999</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>102.36019999999999</v>
+      </c>
+      <c r="R77" s="9">
         <v>102.84774899999999</v>
       </c>
-      <c r="S77" s="8">
-        <v>102.85131800000001</v>
-      </c>
-      <c r="T77" s="8">
+      <c r="S77" s="9">
+        <v>102.85131799999999</v>
+      </c>
+      <c r="T77" s="9">
         <v>102.960565</v>
       </c>
-      <c r="U77" s="8">
+      <c r="U77" s="9">
         <v>102.814713</v>
       </c>
-      <c r="V77" s="8">
+      <c r="V77" s="9">
         <v>103.188447</v>
       </c>
-      <c r="W77" s="8">
+      <c r="W77" s="9">
         <v>103.159282</v>
       </c>
-      <c r="X77" s="8">
+      <c r="X77" s="9">
         <v>103.33971200000001</v>
       </c>
-      <c r="Y77" s="8">
-        <v>103.250353</v>
-      </c>
-      <c r="Z77" s="8">
+      <c r="Y77" s="9">
+        <v>103.25035299999999</v>
+      </c>
+      <c r="Z77" s="9">
         <v>103.103253</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="8">
+        <v>19</v>
+      </c>
+      <c r="B78" s="9">
         <v>97.86</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>98.158899999999988</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="9">
         <v>98.656999999999996</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="9">
         <v>99.208860000000001</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="9">
         <v>99.628100000000003</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="9">
         <v>99.988039999999998</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="9">
         <v>100.33377</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="9">
         <v>100.2657</v>
       </c>
-      <c r="J78" s="8">
-        <v>100.75490000000001</v>
-      </c>
-      <c r="K78" s="8">
+      <c r="J78" s="9">
+        <v>100.75489999999999</v>
+      </c>
+      <c r="K78" s="9">
         <v>101.00369999999999</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="9">
         <v>101.1674</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="9">
         <v>101.4188</v>
       </c>
-      <c r="N78" s="8">
+      <c r="N78" s="9">
         <v>101.88500000000001</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="9">
         <v>99.240300000000005</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P78" s="9">
         <v>98.569299999999998</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="9">
         <v>98.671999999999997</v>
       </c>
-      <c r="R78" s="8">
+      <c r="R78" s="9">
         <v>99.564800000000005</v>
       </c>
-      <c r="S78" s="8">
+      <c r="S78" s="9">
         <v>99.628899999999987</v>
       </c>
-      <c r="T78" s="8">
+      <c r="T78" s="9">
         <v>99.432899999999989</v>
       </c>
-      <c r="U78" s="8">
+      <c r="U78" s="9">
         <v>98.119</v>
       </c>
-      <c r="V78" s="8">
+      <c r="V78" s="9">
         <v>96.500600000000006</v>
       </c>
-      <c r="W78" s="8">
+      <c r="W78" s="9">
         <v>95.546399999999991</v>
       </c>
-      <c r="X78" s="8">
+      <c r="X78" s="9">
         <v>94.658899999999988</v>
       </c>
-      <c r="Y78" s="8">
+      <c r="Y78" s="9">
         <v>95.772899999999993</v>
       </c>
-      <c r="Z78" s="8">
+      <c r="Z78" s="9">
         <v>96.886899999999997</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="8">
+        <v>23</v>
+      </c>
+      <c r="B79" s="9">
         <v>86.087164999999999</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>87.751305000000002</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="9">
         <v>61.516044999999998</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="9">
         <v>62.584490000000002</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="9">
         <v>61.162999999999997</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="9">
         <v>60.854835000000001</v>
       </c>
-      <c r="H79" s="8">
-        <v>60.320079999999997</v>
-      </c>
-      <c r="I79" s="8">
+      <c r="H79" s="9">
+        <v>60.320080000000004</v>
+      </c>
+      <c r="I79" s="9">
         <v>58.348350000000003</v>
       </c>
-      <c r="J79" s="8">
-        <v>59.769350000000003</v>
-      </c>
-      <c r="K79" s="8">
+      <c r="J79" s="9">
+        <v>59.769349999999996</v>
+      </c>
+      <c r="K79" s="9">
         <v>59.1233</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="9">
         <v>59.525500000000001</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M79" s="9">
         <v>53.92915</v>
       </c>
-      <c r="N79" s="8">
-        <v>49.832649999999987</v>
-      </c>
-      <c r="O79" s="8">
-        <v>46.755249999999997</v>
-      </c>
-      <c r="P79" s="8">
+      <c r="N79" s="9">
+        <v>49.832649999999994</v>
+      </c>
+      <c r="O79" s="9">
+        <v>46.755250000000004</v>
+      </c>
+      <c r="P79" s="9">
         <v>44.843950000000007</v>
       </c>
-      <c r="Q79" s="8">
-        <v>39.415799999999997</v>
-      </c>
-      <c r="R79" s="8">
+      <c r="Q79" s="9">
+        <v>39.415800000000004</v>
+      </c>
+      <c r="R79" s="9">
         <v>36.920600000000007</v>
       </c>
-      <c r="S79" s="8">
+      <c r="S79" s="9">
         <v>36.6036</v>
       </c>
-      <c r="T79" s="8">
+      <c r="T79" s="9">
         <v>34.782850000000003</v>
       </c>
-      <c r="U79" s="8">
+      <c r="U79" s="9">
         <v>34.005249999999997</v>
       </c>
-      <c r="V79" s="8">
+      <c r="V79" s="9">
         <v>30.154299999999999</v>
       </c>
-      <c r="W79" s="8">
+      <c r="W79" s="9">
         <v>30.7805</v>
       </c>
-      <c r="X79" s="8">
-        <v>33.178800000000003</v>
-      </c>
-      <c r="Y79" s="8">
+      <c r="X79" s="9">
+        <v>33.178799999999995</v>
+      </c>
+      <c r="Y79" s="9">
         <v>32.158799999999999</v>
       </c>
-      <c r="Z79" s="8">
+      <c r="Z79" s="9">
         <v>31.953700000000001</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="8">
+        <v>9</v>
+      </c>
+      <c r="B80" s="9">
         <v>0.59371299999999994</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>0.59860000000000002</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="9">
         <v>0.64260000000000006</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="9">
         <v>0.68100000000000005</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="9">
         <v>0.75180000000000002</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="9">
         <v>0.89379999999999993</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="9">
         <v>1.0988</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="9">
         <v>1.4388000000000001</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="9">
         <v>1.6177999999999999</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="9">
         <v>2.0870000000000002</v>
       </c>
-      <c r="L80" s="8">
-        <v>3.3820000000000001</v>
-      </c>
-      <c r="M80" s="8">
-        <v>5.6435000000000004</v>
-      </c>
-      <c r="N80" s="8">
+      <c r="L80" s="9">
+        <v>3.3819999999999997</v>
+      </c>
+      <c r="M80" s="9">
+        <v>5.6434999999999995</v>
+      </c>
+      <c r="N80" s="9">
         <v>8.6129999999999995</v>
       </c>
-      <c r="O80" s="8">
-        <v>13.2455</v>
-      </c>
-      <c r="P80" s="8">
+      <c r="O80" s="9">
+        <v>13.245500000000002</v>
+      </c>
+      <c r="P80" s="9">
         <v>18.112127999999998</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="Q80" s="9">
         <v>24.236846</v>
       </c>
-      <c r="R80" s="8">
-        <v>35.433674000000003</v>
-      </c>
-      <c r="S80" s="8">
+      <c r="R80" s="9">
+        <v>35.433673999999996</v>
+      </c>
+      <c r="S80" s="9">
         <v>43.769840000000002</v>
       </c>
-      <c r="T80" s="8">
-        <v>51.986994000000003</v>
-      </c>
-      <c r="U80" s="8">
+      <c r="T80" s="9">
+        <v>51.986993999999996</v>
+      </c>
+      <c r="U80" s="9">
         <v>61.587229000000001</v>
       </c>
-      <c r="V80" s="8">
+      <c r="V80" s="9">
         <v>76.441096999999999</v>
       </c>
-      <c r="W80" s="8">
+      <c r="W80" s="9">
         <v>95.390912999999998</v>
       </c>
-      <c r="X80" s="8">
-        <v>114.360947</v>
-      </c>
-      <c r="Y80" s="8">
+      <c r="X80" s="9">
+        <v>114.36094700000001</v>
+      </c>
+      <c r="Y80" s="9">
         <v>139.205277</v>
       </c>
-      <c r="Z80" s="8">
-        <v>177.47027700000001</v>
+      <c r="Z80" s="9">
+        <v>177.47027699999998</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="8">
+        <v>12</v>
+      </c>
+      <c r="B81" s="9">
         <v>2.3769999999999998</v>
       </c>
-      <c r="C81" s="8">
-        <v>3.8636400000000002</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C81" s="9">
+        <v>3.8636399999999997</v>
+      </c>
+      <c r="D81" s="9">
         <v>4.4166400000000001</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="9">
         <v>5.99519</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="9">
         <v>6.4558</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="9">
         <v>8.70641</v>
       </c>
-      <c r="H81" s="8">
-        <v>11.32879</v>
-      </c>
-      <c r="I81" s="8">
-        <v>16.5151</v>
-      </c>
-      <c r="J81" s="8">
+      <c r="H81" s="9">
+        <v>11.328790000000001</v>
+      </c>
+      <c r="I81" s="9">
+        <v>16.515099999999997</v>
+      </c>
+      <c r="J81" s="9">
         <v>24.651299999999999</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="9">
         <v>34.2958</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="9">
         <v>39.349694999999997</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="9">
         <v>45.794967999999997</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N81" s="9">
         <v>59.453299000000001</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O81" s="9">
         <v>60.198163999999998</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P81" s="9">
         <v>64.430186000000006</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="9">
         <v>72.767236000000011</v>
       </c>
-      <c r="R81" s="8">
+      <c r="R81" s="9">
         <v>81.502362000000005</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S81" s="9">
         <v>87.830780000000004</v>
       </c>
-      <c r="T81" s="8">
+      <c r="T81" s="9">
         <v>94.666184999999999</v>
       </c>
-      <c r="U81" s="8">
+      <c r="U81" s="9">
         <v>103.835556</v>
       </c>
-      <c r="V81" s="8">
-        <v>118.66354</v>
-      </c>
-      <c r="W81" s="8">
-        <v>133.01927699999999</v>
-      </c>
-      <c r="X81" s="8">
+      <c r="V81" s="9">
+        <v>118.66354000000001</v>
+      </c>
+      <c r="W81" s="9">
+        <v>133.01927700000002</v>
+      </c>
+      <c r="X81" s="9">
         <v>141.673912</v>
       </c>
-      <c r="Y81" s="8">
+      <c r="Y81" s="9">
         <v>148.01986099999999</v>
       </c>
-      <c r="Z81" s="8">
+      <c r="Z81" s="9">
         <v>153.15226100000001</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A85" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="5">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A85" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="7">
         <v>2000</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="7">
         <v>2001</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="7">
         <v>2002</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="7">
         <v>2003</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G86" s="7">
         <v>2004</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H86" s="7">
         <v>2005</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I86" s="7">
         <v>2006</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J86" s="7">
         <v>2007</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K86" s="7">
         <v>2008</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L86" s="7">
         <v>2009</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M86" s="7">
         <v>2010</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N86" s="7">
         <v>2011</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O86" s="7">
         <v>2012</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P86" s="7">
         <v>2013</v>
       </c>
-      <c r="Q85" s="5">
+      <c r="Q86" s="7">
         <v>2014</v>
       </c>
-      <c r="R85" s="5">
+      <c r="R86" s="7">
         <v>2015</v>
       </c>
-      <c r="S85" s="5">
+      <c r="S86" s="7">
         <v>2016</v>
       </c>
-      <c r="T85" s="5">
+      <c r="T86" s="7">
         <v>2017</v>
       </c>
-      <c r="U85" s="5">
+      <c r="U86" s="7">
         <v>2018</v>
       </c>
-      <c r="V85" s="5">
+      <c r="V86" s="7">
         <v>2019</v>
       </c>
-      <c r="W85" s="5">
+      <c r="W86" s="7">
         <v>2020</v>
       </c>
-      <c r="X85" s="5">
+      <c r="X86" s="7">
         <v>2021</v>
       </c>
-      <c r="Y85" s="5">
+      <c r="Y86" s="7">
         <v>2022</v>
       </c>
-      <c r="Z85" s="5">
+      <c r="Z86" s="7">
         <v>2023</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="D86" s="8">
-        <v>16.5</v>
-      </c>
-      <c r="E86" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="F86" s="8">
-        <v>24</v>
-      </c>
-      <c r="G86" s="8">
-        <v>22.9</v>
-      </c>
-      <c r="H86" s="8">
-        <v>19.8</v>
-      </c>
-      <c r="I86" s="8">
-        <v>24.3</v>
-      </c>
-      <c r="J86" s="8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="K86" s="8">
-        <v>24.2</v>
-      </c>
-      <c r="L86" s="8">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="M86" s="8">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="N86" s="8">
-        <v>15</v>
-      </c>
-      <c r="O86" s="8">
-        <v>12</v>
-      </c>
-      <c r="P86" s="8">
-        <v>11.4</v>
-      </c>
-      <c r="Q86" s="8">
-        <v>13.3</v>
-      </c>
-      <c r="R86" s="8">
-        <v>9.1</v>
-      </c>
-      <c r="S86" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="T86" s="8">
-        <v>9.4</v>
-      </c>
-      <c r="U86" s="8">
-        <v>13.8</v>
-      </c>
-      <c r="V86" s="8">
-        <v>20</v>
-      </c>
-      <c r="W86" s="8">
-        <v>14.1</v>
-      </c>
-      <c r="X86" s="8">
-        <v>13.9</v>
-      </c>
-      <c r="Y86" s="8">
-        <v>15.8</v>
-      </c>
-      <c r="Z86" s="8">
-        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="8">
+        <v>68</v>
+      </c>
+      <c r="C87" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="D87" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="E87" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="F87" s="9">
+        <v>24</v>
+      </c>
+      <c r="G87" s="9">
+        <v>22.9</v>
+      </c>
+      <c r="H87" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="I87" s="9">
+        <v>24.3</v>
+      </c>
+      <c r="J87" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K87" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="L87" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M87" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N87" s="9">
+        <v>15</v>
+      </c>
+      <c r="O87" s="9">
+        <v>12</v>
+      </c>
+      <c r="P87" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="R87" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="S87" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="T87" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="U87" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="V87" s="9">
+        <v>20</v>
+      </c>
+      <c r="W87" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="X87" s="9">
+        <v>13.9</v>
+      </c>
+      <c r="Y87" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="Z87" s="9">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="9">
         <v>48.6</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="9">
         <v>38.5</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="9">
         <v>36.4</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F88" s="9">
         <v>30.4</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H88" s="9">
         <v>44.5</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I88" s="9">
         <v>42.7</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J88" s="9">
         <v>51.4</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K88" s="9">
         <v>57</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L88" s="9">
         <v>52.2</v>
       </c>
-      <c r="M87" s="8">
+      <c r="M88" s="9">
         <v>45.1</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N88" s="9">
         <v>52.3</v>
       </c>
-      <c r="O87" s="8">
+      <c r="O88" s="9">
         <v>59.3</v>
       </c>
-      <c r="P87" s="8">
+      <c r="P88" s="9">
         <v>70.400000000000006</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="Q88" s="9">
         <v>66.5</v>
       </c>
-      <c r="R87" s="8">
+      <c r="R88" s="9">
         <v>75.8</v>
       </c>
-      <c r="S87" s="8">
+      <c r="S88" s="9">
         <v>72.7</v>
       </c>
-      <c r="T87" s="8">
+      <c r="T88" s="9">
         <v>65.7</v>
       </c>
-      <c r="U87" s="8">
+      <c r="U88" s="9">
         <v>58.3</v>
       </c>
-      <c r="V87" s="8">
+      <c r="V88" s="9">
         <v>59.1</v>
       </c>
-      <c r="W87" s="8">
+      <c r="W88" s="9">
         <v>61.4</v>
       </c>
-      <c r="X87" s="8">
+      <c r="X88" s="9">
         <v>53.2</v>
       </c>
-      <c r="Y87" s="8">
+      <c r="Y88" s="9">
         <v>57</v>
       </c>
-      <c r="Z87" s="8">
+      <c r="Z88" s="9">
         <v>38.9</v>
       </c>
     </row>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B1B38-A323-4F3E-ABEE-EADEFE117029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA2EB4-93FD-401A-A7FC-C5066574323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA2EB4-93FD-401A-A7FC-C5066574323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B8848-4762-454E-BFD8-B9901137D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B8848-4762-454E-BFD8-B9901137D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F38BE7-C1D4-4B26-B173-E1DD81C8D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F38BE7-C1D4-4B26-B173-E1DD81C8D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7018FA8-0B2C-42D2-BB36-B1F0A991D01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7018FA8-0B2C-42D2-BB36-B1F0A991D01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ECDCC1-618F-411D-ADA7-C4B91302BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Geothermal*</t>
+  </si>
+  <si>
+    <t>COM_AGG</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>co2captured</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -744,13 +756,13 @@
   <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
     <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
@@ -789,19 +801,19 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="F2" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4">
         <v>0.54863047126229303</v>
@@ -892,7 +904,7 @@
         <v>0.18705064796094981</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1301,11 +1313,35 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
       <c r="L26" t="s">
         <v>45</v>
       </c>
@@ -1417,12 +1453,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
         <v>2000</v>
@@ -1499,7 +1535,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4">
         <v>0.89062522319196646</v>
@@ -2115,12 +2151,12 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B16" s="7">
         <v>2000</v>
@@ -2194,7 +2230,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4">
         <v>0.94365811868302962</v>
@@ -2416,7 +2452,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4">
         <v>0.59758823019714979</v>
@@ -2860,12 +2896,12 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B31" s="7">
         <v>2000</v>
@@ -2942,7 +2978,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B32" s="8">
         <v>3802.0999999999995</v>
@@ -3019,7 +3055,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B33" s="9">
         <v>74.819999999999993</v>
@@ -3635,12 +3671,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B45" s="7">
         <v>2000</v>
@@ -3714,7 +3750,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B46" s="8">
         <v>4052.6670010000003</v>
@@ -3788,7 +3824,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B47" s="9">
         <v>56.180000999999997</v>
@@ -4010,7 +4046,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B50" s="9">
         <v>14.621</v>
@@ -4454,12 +4490,12 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B60" s="7">
         <v>2000</v>
@@ -4536,7 +4572,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" s="9">
         <v>9.59</v>
@@ -5152,12 +5188,12 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B72" s="7">
         <v>2000</v>
@@ -5237,7 +5273,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B73" s="9">
         <v>6.796149999999999</v>
@@ -5477,7 +5513,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B76" s="9">
         <v>2.7930000000000001</v>
@@ -5958,12 +5994,12 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>27</v>
@@ -6043,10 +6079,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C87" s="9">
         <v>14.7</v>
@@ -6123,10 +6159,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C88" s="9">
         <v>48.6</v>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930C917-F526-44C7-BF8B-16424323F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA33A40-C74F-4D4C-85C4-B792FA05610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{301F32B2-C4C4-491E-A100-69A0EC64AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3925BF-515D-4C76-84C6-5A00508BF28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF822FE-DFD7-0265-FDD3-54FA6B67EA0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C5F572-5DC6-1956-CD6F-BFD96C4901C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{249D6498-04E8-48EB-BF3B-F06F01A2B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABC10B5-8EBF-4142-BE66-D5FF8DF65A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -836,9 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -878,7 +876,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1153,7 +1151,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.3409623957789597</v>
+        <v>7.5769421284213267E-2</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>0.20928904006540164</v>
+        <v>4.6508675570089253E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1596,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABC10B5-8EBF-4142-BE66-D5FF8DF65A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC90204-4AE9-4862-B5D2-D6B11172B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC90204-4AE9-4862-B5D2-D6B11172B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B23B0E89-0A5C-416B-9702-88A134B1FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
